--- a/stakeholderinterviews.xlsx
+++ b/stakeholderinterviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/stakeholderinterviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0390CFEF-AB9B-E84E-AB42-C4BE4A292634}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24CBE4D-ADCF-E345-A8B0-A7C136D43623}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="460" windowWidth="38500" windowHeight="28340" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5840" yWindow="460" windowWidth="38500" windowHeight="28340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>type</t>
   </si>
@@ -105,6 +105,82 @@
   </si>
   <si>
     <t>stakeholderinterviews</t>
+  </si>
+  <si>
+    <t>Name of interviewee</t>
+  </si>
+  <si>
+    <t>Enter full name of interviewee</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>select_one interviewee_type</t>
+  </si>
+  <si>
+    <t>interviewee_type</t>
+  </si>
+  <si>
+    <t>Service provider</t>
+  </si>
+  <si>
+    <t>Beneficiaries</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>interviewee_name</t>
+  </si>
+  <si>
+    <t>Type of interviewee</t>
+  </si>
+  <si>
+    <t>interviewee_organisation</t>
+  </si>
+  <si>
+    <t>Department/organisation of interviewee</t>
+  </si>
+  <si>
+    <t>Enter the name of department or organisation the interviewee is affiliated with</t>
+  </si>
+  <si>
+    <t>interviewee_position</t>
+  </si>
+  <si>
+    <t>Position of interviewee</t>
+  </si>
+  <si>
+    <t>Enter the position of the interviewee in the department or organisation</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>interview_preamble</t>
+  </si>
+  <si>
+    <t>You are now going to interview ${interviewee_name}.</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>interview_audio</t>
+  </si>
+  <si>
+    <t>Start interview</t>
+  </si>
+  <si>
+    <t>interview_end</t>
+  </si>
+  <si>
+    <t>Interview finished.
+Thank ${interviewee_name}.</t>
   </si>
 </sst>
 </file>
@@ -540,12 +616,12 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="50.83203125" style="3" customWidth="1"/>
     <col min="4" max="6" width="18.83203125" style="3" customWidth="1"/>
@@ -601,93 +677,207 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" customFormat="1"/>
-    <row r="3" spans="1:14" customFormat="1"/>
-    <row r="4" spans="1:14" customFormat="1"/>
-    <row r="5" spans="1:14" customFormat="1"/>
-    <row r="6" spans="1:14" customFormat="1" ht="53" customHeight="1"/>
-    <row r="7" spans="1:14" customFormat="1"/>
-    <row r="8" spans="1:14" customFormat="1"/>
-    <row r="9" spans="1:14" customFormat="1"/>
-    <row r="10" spans="1:14" customFormat="1"/>
-    <row r="11" spans="1:14" customFormat="1" ht="170" customHeight="1"/>
-    <row r="12" spans="1:14" customFormat="1"/>
-    <row r="13" spans="1:14" customFormat="1"/>
-    <row r="14" spans="1:14" customFormat="1"/>
-    <row r="15" spans="1:14" customFormat="1"/>
-    <row r="16" spans="1:14" customFormat="1"/>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1"/>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
-    <row r="24" customFormat="1"/>
-    <row r="25" customFormat="1"/>
-    <row r="26" customFormat="1" ht="35" customHeight="1"/>
-    <row r="27" customFormat="1"/>
-    <row r="28" customFormat="1"/>
-    <row r="29" customFormat="1"/>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
-    <row r="32" customFormat="1"/>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
-    <row r="35" customFormat="1"/>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
-    <row r="39" customFormat="1"/>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
-    <row r="42" customFormat="1"/>
-    <row r="43" customFormat="1"/>
-    <row r="44" customFormat="1"/>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
-    <row r="47" customFormat="1"/>
-    <row r="48" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
-    <row r="82" customFormat="1"/>
-    <row r="83" customFormat="1"/>
-    <row r="84" customFormat="1"/>
-    <row r="85" customFormat="1"/>
-    <row r="86" customFormat="1"/>
-    <row r="87" customFormat="1"/>
-    <row r="88" customFormat="1"/>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="48">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="32">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="53" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="48">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="170" customHeight="1">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" s="3" customFormat="1"/>
+    <row r="18" s="3" customFormat="1"/>
+    <row r="19" s="3" customFormat="1"/>
+    <row r="20" s="3" customFormat="1"/>
+    <row r="21" s="3" customFormat="1"/>
+    <row r="22" s="3" customFormat="1"/>
+    <row r="23" s="3" customFormat="1"/>
+    <row r="24" s="3" customFormat="1"/>
+    <row r="25" s="3" customFormat="1"/>
+    <row r="26" s="3" customFormat="1" ht="35" customHeight="1"/>
+    <row r="27" s="3" customFormat="1"/>
+    <row r="28" s="3" customFormat="1"/>
+    <row r="29" s="3" customFormat="1"/>
+    <row r="30" s="3" customFormat="1"/>
+    <row r="31" s="3" customFormat="1"/>
+    <row r="32" s="3" customFormat="1"/>
+    <row r="33" s="3" customFormat="1"/>
+    <row r="34" s="3" customFormat="1"/>
+    <row r="35" s="3" customFormat="1"/>
+    <row r="36" s="3" customFormat="1"/>
+    <row r="37" s="3" customFormat="1"/>
+    <row r="38" s="3" customFormat="1"/>
+    <row r="39" s="3" customFormat="1"/>
+    <row r="40" s="3" customFormat="1"/>
+    <row r="41" s="3" customFormat="1"/>
+    <row r="42" s="3" customFormat="1"/>
+    <row r="43" s="3" customFormat="1"/>
+    <row r="44" s="3" customFormat="1"/>
+    <row r="45" s="3" customFormat="1"/>
+    <row r="46" s="3" customFormat="1"/>
+    <row r="47" s="3" customFormat="1"/>
+    <row r="48" s="3" customFormat="1"/>
+    <row r="49" s="3" customFormat="1"/>
+    <row r="50" s="3" customFormat="1"/>
+    <row r="51" s="3" customFormat="1"/>
+    <row r="52" s="3" customFormat="1"/>
+    <row r="53" s="3" customFormat="1"/>
+    <row r="54" s="3" customFormat="1"/>
+    <row r="55" s="3" customFormat="1"/>
+    <row r="56" s="3" customFormat="1"/>
+    <row r="57" s="3" customFormat="1"/>
+    <row r="58" s="3" customFormat="1"/>
+    <row r="59" s="3" customFormat="1"/>
+    <row r="60" s="3" customFormat="1"/>
+    <row r="61" s="3" customFormat="1"/>
+    <row r="62" s="3" customFormat="1"/>
+    <row r="63" s="3" customFormat="1"/>
+    <row r="64" s="3" customFormat="1"/>
+    <row r="65" s="3" customFormat="1"/>
+    <row r="66" s="3" customFormat="1"/>
+    <row r="67" s="3" customFormat="1"/>
+    <row r="68" s="3" customFormat="1"/>
+    <row r="69" s="3" customFormat="1"/>
+    <row r="70" s="3" customFormat="1"/>
+    <row r="71" s="3" customFormat="1"/>
+    <row r="72" s="3" customFormat="1"/>
+    <row r="73" s="3" customFormat="1"/>
+    <row r="74" s="3" customFormat="1"/>
+    <row r="75" s="3" customFormat="1"/>
+    <row r="76" s="3" customFormat="1"/>
+    <row r="77" s="3" customFormat="1"/>
+    <row r="78" s="3" customFormat="1"/>
+    <row r="79" s="3" customFormat="1"/>
+    <row r="80" s="3" customFormat="1"/>
+    <row r="81" s="3" customFormat="1"/>
+    <row r="82" s="3" customFormat="1"/>
+    <row r="83" s="3" customFormat="1"/>
+    <row r="84" s="3" customFormat="1"/>
+    <row r="85" s="3" customFormat="1"/>
+    <row r="86" s="3" customFormat="1"/>
+    <row r="87" s="3" customFormat="1"/>
+    <row r="88" s="3" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -703,13 +893,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2679"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="50.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -732,30 +922,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1"/>
-    <row r="3" spans="1:3" customFormat="1"/>
-    <row r="4" spans="1:3" customFormat="1"/>
-    <row r="5" spans="1:3" customFormat="1"/>
-    <row r="6" spans="1:3" customFormat="1"/>
-    <row r="7" spans="1:3" customFormat="1"/>
-    <row r="8" spans="1:3" customFormat="1"/>
-    <row r="9" spans="1:3" customFormat="1"/>
-    <row r="10" spans="1:3" customFormat="1"/>
-    <row r="11" spans="1:3" customFormat="1"/>
-    <row r="12" spans="1:3" customFormat="1"/>
-    <row r="13" spans="1:3" customFormat="1"/>
-    <row r="14" spans="1:3" customFormat="1"/>
-    <row r="15" spans="1:3" customFormat="1"/>
-    <row r="16" spans="1:3" customFormat="1"/>
-    <row r="17" spans="3:5" customFormat="1"/>
-    <row r="18" spans="3:5" customFormat="1"/>
-    <row r="19" spans="3:5" customFormat="1"/>
-    <row r="20" spans="3:5" customFormat="1"/>
-    <row r="21" spans="3:5" customFormat="1"/>
-    <row r="22" spans="3:5" customFormat="1"/>
-    <row r="23" spans="3:5" customFormat="1"/>
-    <row r="24" spans="3:5" customFormat="1"/>
-    <row r="25" spans="3:5" customFormat="1"/>
+    <row r="2" spans="1:3" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1"/>
+    <row r="6" spans="1:3" s="1" customFormat="1"/>
+    <row r="7" spans="1:3" s="1" customFormat="1"/>
+    <row r="8" spans="1:3" s="1" customFormat="1"/>
+    <row r="9" spans="1:3" s="1" customFormat="1"/>
+    <row r="10" spans="1:3" s="1" customFormat="1"/>
+    <row r="11" spans="1:3" s="1" customFormat="1"/>
+    <row r="12" spans="1:3" s="1" customFormat="1"/>
+    <row r="13" spans="1:3" s="1" customFormat="1"/>
+    <row r="14" spans="1:3" s="1" customFormat="1"/>
+    <row r="15" spans="1:3" s="1" customFormat="1"/>
+    <row r="16" spans="1:3" s="1" customFormat="1"/>
+    <row r="17" spans="3:5" s="1" customFormat="1"/>
+    <row r="18" spans="3:5" s="1" customFormat="1"/>
+    <row r="19" spans="3:5" s="1" customFormat="1"/>
+    <row r="20" spans="3:5" s="1" customFormat="1"/>
+    <row r="21" spans="3:5" s="1" customFormat="1"/>
+    <row r="22" spans="3:5" s="1" customFormat="1"/>
+    <row r="23" spans="3:5" s="1" customFormat="1"/>
+    <row r="24" spans="3:5" s="1" customFormat="1"/>
+    <row r="25" spans="3:5" s="1" customFormat="1"/>
     <row r="26" spans="3:5">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1661,8 +1881,8 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="6"/>
-      <c r="B409"/>
-      <c r="C409"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
       <c r="F409" s="6"/>
     </row>
     <row r="410" spans="1:6">
@@ -1955,8 +2175,8 @@
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="6"/>
-      <c r="B458"/>
-      <c r="C458"/>
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
       <c r="F458" s="6"/>
     </row>
     <row r="459" spans="1:6">
@@ -1973,8 +2193,8 @@
     </row>
     <row r="461" spans="1:6">
       <c r="A461" s="6"/>
-      <c r="B461"/>
-      <c r="C461"/>
+      <c r="B461" s="1"/>
+      <c r="C461" s="1"/>
       <c r="F461" s="6"/>
     </row>
     <row r="462" spans="1:6">
@@ -6081,1962 +6301,1962 @@
       <c r="C1220" s="6"/>
     </row>
     <row r="1222" spans="1:3">
-      <c r="B1222"/>
-      <c r="C1222"/>
+      <c r="B1222" s="1"/>
+      <c r="C1222" s="1"/>
     </row>
     <row r="1223" spans="1:3">
-      <c r="B1223"/>
-      <c r="C1223"/>
+      <c r="B1223" s="1"/>
+      <c r="C1223" s="1"/>
     </row>
     <row r="1224" spans="1:3">
-      <c r="B1224"/>
-      <c r="C1224"/>
+      <c r="B1224" s="1"/>
+      <c r="C1224" s="1"/>
     </row>
     <row r="1225" spans="1:3">
-      <c r="B1225"/>
-      <c r="C1225"/>
+      <c r="B1225" s="1"/>
+      <c r="C1225" s="1"/>
     </row>
     <row r="1226" spans="1:3">
-      <c r="B1226"/>
-      <c r="C1226"/>
+      <c r="B1226" s="1"/>
+      <c r="C1226" s="1"/>
     </row>
     <row r="1227" spans="1:3">
-      <c r="B1227"/>
-      <c r="C1227"/>
+      <c r="B1227" s="1"/>
+      <c r="C1227" s="1"/>
     </row>
     <row r="1228" spans="1:3">
-      <c r="B1228"/>
-      <c r="C1228"/>
+      <c r="B1228" s="1"/>
+      <c r="C1228" s="1"/>
     </row>
     <row r="1229" spans="1:3">
-      <c r="B1229"/>
-      <c r="C1229"/>
+      <c r="B1229" s="1"/>
+      <c r="C1229" s="1"/>
     </row>
     <row r="1230" spans="1:3">
-      <c r="B1230"/>
-      <c r="C1230"/>
+      <c r="B1230" s="1"/>
+      <c r="C1230" s="1"/>
     </row>
     <row r="1231" spans="1:3">
-      <c r="B1231"/>
-      <c r="C1231"/>
+      <c r="B1231" s="1"/>
+      <c r="C1231" s="1"/>
     </row>
     <row r="1232" spans="1:3">
-      <c r="B1232"/>
-      <c r="C1232"/>
+      <c r="B1232" s="1"/>
+      <c r="C1232" s="1"/>
     </row>
     <row r="1233" spans="2:3">
-      <c r="B1233"/>
-      <c r="C1233"/>
+      <c r="B1233" s="1"/>
+      <c r="C1233" s="1"/>
     </row>
     <row r="1234" spans="2:3">
-      <c r="B1234"/>
-      <c r="C1234"/>
+      <c r="B1234" s="1"/>
+      <c r="C1234" s="1"/>
     </row>
     <row r="1235" spans="2:3">
-      <c r="B1235"/>
-      <c r="C1235"/>
+      <c r="B1235" s="1"/>
+      <c r="C1235" s="1"/>
     </row>
     <row r="1236" spans="2:3">
-      <c r="B1236"/>
-      <c r="C1236"/>
+      <c r="B1236" s="1"/>
+      <c r="C1236" s="1"/>
     </row>
     <row r="1237" spans="2:3">
-      <c r="B1237"/>
-      <c r="C1237"/>
+      <c r="B1237" s="1"/>
+      <c r="C1237" s="1"/>
     </row>
     <row r="1238" spans="2:3">
-      <c r="B1238"/>
-      <c r="C1238"/>
+      <c r="B1238" s="1"/>
+      <c r="C1238" s="1"/>
     </row>
     <row r="1239" spans="2:3">
-      <c r="B1239"/>
-      <c r="C1239"/>
+      <c r="B1239" s="1"/>
+      <c r="C1239" s="1"/>
     </row>
     <row r="1240" spans="2:3">
-      <c r="B1240"/>
-      <c r="C1240"/>
+      <c r="B1240" s="1"/>
+      <c r="C1240" s="1"/>
     </row>
     <row r="1241" spans="2:3">
-      <c r="B1241"/>
-      <c r="C1241"/>
+      <c r="B1241" s="1"/>
+      <c r="C1241" s="1"/>
     </row>
     <row r="1242" spans="2:3">
-      <c r="B1242"/>
-      <c r="C1242"/>
+      <c r="B1242" s="1"/>
+      <c r="C1242" s="1"/>
     </row>
     <row r="1243" spans="2:3">
-      <c r="B1243"/>
-      <c r="C1243"/>
+      <c r="B1243" s="1"/>
+      <c r="C1243" s="1"/>
     </row>
     <row r="1244" spans="2:3">
-      <c r="B1244"/>
-      <c r="C1244"/>
+      <c r="B1244" s="1"/>
+      <c r="C1244" s="1"/>
     </row>
     <row r="1245" spans="2:3">
-      <c r="B1245"/>
-      <c r="C1245"/>
+      <c r="B1245" s="1"/>
+      <c r="C1245" s="1"/>
     </row>
     <row r="1246" spans="2:3">
-      <c r="B1246"/>
-      <c r="C1246"/>
+      <c r="B1246" s="1"/>
+      <c r="C1246" s="1"/>
     </row>
     <row r="1247" spans="2:3">
-      <c r="B1247"/>
-      <c r="C1247"/>
+      <c r="B1247" s="1"/>
+      <c r="C1247" s="1"/>
     </row>
     <row r="1248" spans="2:3">
-      <c r="B1248"/>
-      <c r="C1248"/>
+      <c r="B1248" s="1"/>
+      <c r="C1248" s="1"/>
     </row>
     <row r="1249" spans="2:3">
-      <c r="B1249"/>
-      <c r="C1249"/>
+      <c r="B1249" s="1"/>
+      <c r="C1249" s="1"/>
     </row>
     <row r="1250" spans="2:3">
-      <c r="B1250"/>
-      <c r="C1250"/>
+      <c r="B1250" s="1"/>
+      <c r="C1250" s="1"/>
     </row>
     <row r="1251" spans="2:3">
-      <c r="B1251"/>
-      <c r="C1251"/>
+      <c r="B1251" s="1"/>
+      <c r="C1251" s="1"/>
     </row>
     <row r="1252" spans="2:3">
-      <c r="B1252"/>
-      <c r="C1252"/>
+      <c r="B1252" s="1"/>
+      <c r="C1252" s="1"/>
     </row>
     <row r="1253" spans="2:3">
-      <c r="B1253"/>
-      <c r="C1253"/>
+      <c r="B1253" s="1"/>
+      <c r="C1253" s="1"/>
     </row>
     <row r="1254" spans="2:3">
-      <c r="B1254"/>
-      <c r="C1254"/>
+      <c r="B1254" s="1"/>
+      <c r="C1254" s="1"/>
     </row>
     <row r="1255" spans="2:3">
-      <c r="B1255"/>
-      <c r="C1255"/>
+      <c r="B1255" s="1"/>
+      <c r="C1255" s="1"/>
     </row>
     <row r="1256" spans="2:3">
-      <c r="B1256"/>
-      <c r="C1256"/>
+      <c r="B1256" s="1"/>
+      <c r="C1256" s="1"/>
     </row>
     <row r="1257" spans="2:3">
-      <c r="B1257"/>
-      <c r="C1257"/>
+      <c r="B1257" s="1"/>
+      <c r="C1257" s="1"/>
     </row>
     <row r="1258" spans="2:3">
-      <c r="B1258"/>
-      <c r="C1258"/>
+      <c r="B1258" s="1"/>
+      <c r="C1258" s="1"/>
     </row>
     <row r="1259" spans="2:3">
-      <c r="B1259"/>
-      <c r="C1259"/>
+      <c r="B1259" s="1"/>
+      <c r="C1259" s="1"/>
     </row>
     <row r="1260" spans="2:3">
-      <c r="B1260"/>
-      <c r="C1260"/>
+      <c r="B1260" s="1"/>
+      <c r="C1260" s="1"/>
     </row>
     <row r="1261" spans="2:3">
-      <c r="B1261"/>
-      <c r="C1261"/>
+      <c r="B1261" s="1"/>
+      <c r="C1261" s="1"/>
     </row>
     <row r="1262" spans="2:3">
-      <c r="B1262"/>
-      <c r="C1262"/>
+      <c r="B1262" s="1"/>
+      <c r="C1262" s="1"/>
     </row>
     <row r="1263" spans="2:3">
-      <c r="B1263"/>
-      <c r="C1263"/>
+      <c r="B1263" s="1"/>
+      <c r="C1263" s="1"/>
     </row>
     <row r="1264" spans="2:3">
-      <c r="B1264"/>
-      <c r="C1264"/>
+      <c r="B1264" s="1"/>
+      <c r="C1264" s="1"/>
     </row>
     <row r="1265" spans="2:3">
-      <c r="B1265"/>
-      <c r="C1265"/>
+      <c r="B1265" s="1"/>
+      <c r="C1265" s="1"/>
     </row>
     <row r="1266" spans="2:3">
-      <c r="B1266"/>
-      <c r="C1266"/>
+      <c r="B1266" s="1"/>
+      <c r="C1266" s="1"/>
     </row>
     <row r="1267" spans="2:3">
-      <c r="B1267"/>
-      <c r="C1267"/>
+      <c r="B1267" s="1"/>
+      <c r="C1267" s="1"/>
     </row>
     <row r="1268" spans="2:3">
-      <c r="B1268"/>
-      <c r="C1268"/>
+      <c r="B1268" s="1"/>
+      <c r="C1268" s="1"/>
     </row>
     <row r="1269" spans="2:3">
-      <c r="B1269"/>
-      <c r="C1269"/>
+      <c r="B1269" s="1"/>
+      <c r="C1269" s="1"/>
     </row>
     <row r="1270" spans="2:3">
-      <c r="B1270"/>
-      <c r="C1270"/>
+      <c r="B1270" s="1"/>
+      <c r="C1270" s="1"/>
     </row>
     <row r="1271" spans="2:3">
-      <c r="B1271"/>
-      <c r="C1271"/>
+      <c r="B1271" s="1"/>
+      <c r="C1271" s="1"/>
     </row>
     <row r="1272" spans="2:3">
-      <c r="B1272"/>
-      <c r="C1272"/>
+      <c r="B1272" s="1"/>
+      <c r="C1272" s="1"/>
     </row>
     <row r="1273" spans="2:3">
-      <c r="B1273"/>
-      <c r="C1273"/>
+      <c r="B1273" s="1"/>
+      <c r="C1273" s="1"/>
     </row>
     <row r="1274" spans="2:3">
-      <c r="B1274"/>
-      <c r="C1274"/>
+      <c r="B1274" s="1"/>
+      <c r="C1274" s="1"/>
     </row>
     <row r="1275" spans="2:3">
-      <c r="B1275"/>
-      <c r="C1275"/>
+      <c r="B1275" s="1"/>
+      <c r="C1275" s="1"/>
     </row>
     <row r="1276" spans="2:3">
-      <c r="B1276"/>
-      <c r="C1276"/>
+      <c r="B1276" s="1"/>
+      <c r="C1276" s="1"/>
     </row>
     <row r="1277" spans="2:3">
-      <c r="B1277"/>
-      <c r="C1277"/>
+      <c r="B1277" s="1"/>
+      <c r="C1277" s="1"/>
     </row>
     <row r="1278" spans="2:3">
-      <c r="B1278"/>
-      <c r="C1278"/>
+      <c r="B1278" s="1"/>
+      <c r="C1278" s="1"/>
     </row>
     <row r="1279" spans="2:3">
-      <c r="B1279"/>
-      <c r="C1279"/>
+      <c r="B1279" s="1"/>
+      <c r="C1279" s="1"/>
     </row>
     <row r="1280" spans="2:3">
-      <c r="B1280"/>
-      <c r="C1280"/>
+      <c r="B1280" s="1"/>
+      <c r="C1280" s="1"/>
     </row>
     <row r="1281" spans="2:3">
-      <c r="B1281"/>
-      <c r="C1281"/>
+      <c r="B1281" s="1"/>
+      <c r="C1281" s="1"/>
     </row>
     <row r="1282" spans="2:3">
-      <c r="B1282"/>
-      <c r="C1282"/>
+      <c r="B1282" s="1"/>
+      <c r="C1282" s="1"/>
     </row>
     <row r="1283" spans="2:3">
-      <c r="B1283"/>
-      <c r="C1283"/>
+      <c r="B1283" s="1"/>
+      <c r="C1283" s="1"/>
     </row>
     <row r="1284" spans="2:3">
-      <c r="B1284"/>
-      <c r="C1284"/>
+      <c r="B1284" s="1"/>
+      <c r="C1284" s="1"/>
     </row>
     <row r="1285" spans="2:3">
-      <c r="B1285"/>
-      <c r="C1285"/>
+      <c r="B1285" s="1"/>
+      <c r="C1285" s="1"/>
     </row>
     <row r="1286" spans="2:3">
-      <c r="B1286"/>
-      <c r="C1286"/>
+      <c r="B1286" s="1"/>
+      <c r="C1286" s="1"/>
     </row>
     <row r="1287" spans="2:3">
-      <c r="B1287"/>
-      <c r="C1287"/>
+      <c r="B1287" s="1"/>
+      <c r="C1287" s="1"/>
     </row>
     <row r="1288" spans="2:3">
-      <c r="B1288"/>
-      <c r="C1288"/>
+      <c r="B1288" s="1"/>
+      <c r="C1288" s="1"/>
     </row>
     <row r="1289" spans="2:3">
-      <c r="B1289"/>
-      <c r="C1289"/>
+      <c r="B1289" s="1"/>
+      <c r="C1289" s="1"/>
     </row>
     <row r="1290" spans="2:3">
-      <c r="B1290"/>
-      <c r="C1290"/>
+      <c r="B1290" s="1"/>
+      <c r="C1290" s="1"/>
     </row>
     <row r="1291" spans="2:3">
-      <c r="B1291"/>
-      <c r="C1291"/>
+      <c r="B1291" s="1"/>
+      <c r="C1291" s="1"/>
     </row>
     <row r="1292" spans="2:3">
-      <c r="B1292"/>
-      <c r="C1292"/>
+      <c r="B1292" s="1"/>
+      <c r="C1292" s="1"/>
     </row>
     <row r="1293" spans="2:3">
-      <c r="B1293"/>
-      <c r="C1293"/>
+      <c r="B1293" s="1"/>
+      <c r="C1293" s="1"/>
     </row>
     <row r="1294" spans="2:3">
-      <c r="B1294"/>
-      <c r="C1294"/>
+      <c r="B1294" s="1"/>
+      <c r="C1294" s="1"/>
     </row>
     <row r="1295" spans="2:3">
-      <c r="B1295"/>
-      <c r="C1295"/>
+      <c r="B1295" s="1"/>
+      <c r="C1295" s="1"/>
     </row>
     <row r="1296" spans="2:3">
-      <c r="B1296"/>
-      <c r="C1296"/>
+      <c r="B1296" s="1"/>
+      <c r="C1296" s="1"/>
     </row>
     <row r="1297" spans="2:3">
-      <c r="B1297"/>
-      <c r="C1297"/>
+      <c r="B1297" s="1"/>
+      <c r="C1297" s="1"/>
     </row>
     <row r="1298" spans="2:3">
-      <c r="B1298"/>
-      <c r="C1298"/>
+      <c r="B1298" s="1"/>
+      <c r="C1298" s="1"/>
     </row>
     <row r="1299" spans="2:3">
-      <c r="B1299"/>
-      <c r="C1299"/>
+      <c r="B1299" s="1"/>
+      <c r="C1299" s="1"/>
     </row>
     <row r="1300" spans="2:3">
-      <c r="B1300"/>
-      <c r="C1300"/>
+      <c r="B1300" s="1"/>
+      <c r="C1300" s="1"/>
     </row>
     <row r="1301" spans="2:3">
-      <c r="B1301"/>
-      <c r="C1301"/>
+      <c r="B1301" s="1"/>
+      <c r="C1301" s="1"/>
     </row>
     <row r="1302" spans="2:3">
-      <c r="B1302"/>
-      <c r="C1302"/>
+      <c r="B1302" s="1"/>
+      <c r="C1302" s="1"/>
     </row>
     <row r="1303" spans="2:3">
-      <c r="B1303"/>
-      <c r="C1303"/>
+      <c r="B1303" s="1"/>
+      <c r="C1303" s="1"/>
     </row>
     <row r="1304" spans="2:3">
-      <c r="B1304"/>
-      <c r="C1304"/>
+      <c r="B1304" s="1"/>
+      <c r="C1304" s="1"/>
     </row>
     <row r="1305" spans="2:3">
-      <c r="B1305"/>
-      <c r="C1305"/>
+      <c r="B1305" s="1"/>
+      <c r="C1305" s="1"/>
     </row>
     <row r="1306" spans="2:3">
-      <c r="B1306"/>
-      <c r="C1306"/>
+      <c r="B1306" s="1"/>
+      <c r="C1306" s="1"/>
     </row>
     <row r="1307" spans="2:3">
-      <c r="B1307"/>
-      <c r="C1307"/>
+      <c r="B1307" s="1"/>
+      <c r="C1307" s="1"/>
     </row>
     <row r="1308" spans="2:3">
-      <c r="B1308"/>
-      <c r="C1308"/>
+      <c r="B1308" s="1"/>
+      <c r="C1308" s="1"/>
     </row>
     <row r="1309" spans="2:3">
-      <c r="B1309"/>
-      <c r="C1309"/>
+      <c r="B1309" s="1"/>
+      <c r="C1309" s="1"/>
     </row>
     <row r="1310" spans="2:3">
-      <c r="B1310"/>
-      <c r="C1310"/>
+      <c r="B1310" s="1"/>
+      <c r="C1310" s="1"/>
     </row>
     <row r="1311" spans="2:3">
-      <c r="B1311"/>
-      <c r="C1311"/>
+      <c r="B1311" s="1"/>
+      <c r="C1311" s="1"/>
     </row>
     <row r="1312" spans="2:3">
-      <c r="B1312"/>
-      <c r="C1312"/>
+      <c r="B1312" s="1"/>
+      <c r="C1312" s="1"/>
     </row>
     <row r="1313" spans="2:3">
-      <c r="B1313"/>
-      <c r="C1313"/>
+      <c r="B1313" s="1"/>
+      <c r="C1313" s="1"/>
     </row>
     <row r="1314" spans="2:3">
-      <c r="B1314"/>
-      <c r="C1314"/>
+      <c r="B1314" s="1"/>
+      <c r="C1314" s="1"/>
     </row>
     <row r="1315" spans="2:3">
-      <c r="B1315"/>
-      <c r="C1315"/>
+      <c r="B1315" s="1"/>
+      <c r="C1315" s="1"/>
     </row>
     <row r="1316" spans="2:3">
-      <c r="B1316"/>
-      <c r="C1316"/>
+      <c r="B1316" s="1"/>
+      <c r="C1316" s="1"/>
     </row>
     <row r="1317" spans="2:3">
-      <c r="B1317"/>
-      <c r="C1317"/>
+      <c r="B1317" s="1"/>
+      <c r="C1317" s="1"/>
     </row>
     <row r="1318" spans="2:3">
-      <c r="B1318"/>
-      <c r="C1318"/>
+      <c r="B1318" s="1"/>
+      <c r="C1318" s="1"/>
     </row>
     <row r="1319" spans="2:3">
-      <c r="B1319"/>
-      <c r="C1319"/>
+      <c r="B1319" s="1"/>
+      <c r="C1319" s="1"/>
     </row>
     <row r="1320" spans="2:3">
-      <c r="B1320"/>
-      <c r="C1320"/>
+      <c r="B1320" s="1"/>
+      <c r="C1320" s="1"/>
     </row>
     <row r="1321" spans="2:3">
-      <c r="B1321"/>
-      <c r="C1321"/>
+      <c r="B1321" s="1"/>
+      <c r="C1321" s="1"/>
     </row>
     <row r="1322" spans="2:3">
-      <c r="B1322"/>
-      <c r="C1322"/>
+      <c r="B1322" s="1"/>
+      <c r="C1322" s="1"/>
     </row>
     <row r="1323" spans="2:3">
-      <c r="B1323"/>
-      <c r="C1323"/>
+      <c r="B1323" s="1"/>
+      <c r="C1323" s="1"/>
     </row>
     <row r="1324" spans="2:3">
-      <c r="B1324"/>
-      <c r="C1324"/>
+      <c r="B1324" s="1"/>
+      <c r="C1324" s="1"/>
     </row>
     <row r="1325" spans="2:3">
-      <c r="B1325"/>
-      <c r="C1325"/>
+      <c r="B1325" s="1"/>
+      <c r="C1325" s="1"/>
     </row>
     <row r="1326" spans="2:3">
-      <c r="B1326"/>
-      <c r="C1326"/>
+      <c r="B1326" s="1"/>
+      <c r="C1326" s="1"/>
     </row>
     <row r="1327" spans="2:3">
-      <c r="B1327"/>
-      <c r="C1327"/>
+      <c r="B1327" s="1"/>
+      <c r="C1327" s="1"/>
     </row>
     <row r="1328" spans="2:3">
-      <c r="B1328"/>
-      <c r="C1328"/>
+      <c r="B1328" s="1"/>
+      <c r="C1328" s="1"/>
     </row>
     <row r="1329" spans="2:6">
-      <c r="B1329"/>
-      <c r="C1329"/>
+      <c r="B1329" s="1"/>
+      <c r="C1329" s="1"/>
     </row>
     <row r="1330" spans="2:6">
-      <c r="B1330"/>
-      <c r="C1330"/>
+      <c r="B1330" s="1"/>
+      <c r="C1330" s="1"/>
     </row>
     <row r="1331" spans="2:6">
-      <c r="B1331"/>
-      <c r="C1331"/>
+      <c r="B1331" s="1"/>
+      <c r="C1331" s="1"/>
     </row>
     <row r="1332" spans="2:6">
-      <c r="B1332"/>
-      <c r="C1332"/>
+      <c r="B1332" s="1"/>
+      <c r="C1332" s="1"/>
     </row>
     <row r="1333" spans="2:6">
-      <c r="B1333"/>
-      <c r="C1333"/>
+      <c r="B1333" s="1"/>
+      <c r="C1333" s="1"/>
     </row>
     <row r="1334" spans="2:6">
-      <c r="B1334"/>
-      <c r="C1334"/>
+      <c r="B1334" s="1"/>
+      <c r="C1334" s="1"/>
     </row>
     <row r="1335" spans="2:6">
-      <c r="B1335"/>
-      <c r="C1335"/>
+      <c r="B1335" s="1"/>
+      <c r="C1335" s="1"/>
     </row>
     <row r="1336" spans="2:6">
-      <c r="B1336"/>
-      <c r="C1336"/>
+      <c r="B1336" s="1"/>
+      <c r="C1336" s="1"/>
     </row>
     <row r="1337" spans="2:6">
-      <c r="B1337"/>
-      <c r="C1337"/>
+      <c r="B1337" s="1"/>
+      <c r="C1337" s="1"/>
     </row>
     <row r="1338" spans="2:6">
-      <c r="B1338"/>
-      <c r="C1338"/>
+      <c r="B1338" s="1"/>
+      <c r="C1338" s="1"/>
     </row>
     <row r="1339" spans="2:6">
-      <c r="B1339"/>
-      <c r="C1339"/>
+      <c r="B1339" s="1"/>
+      <c r="C1339" s="1"/>
     </row>
     <row r="1340" spans="2:6">
-      <c r="B1340"/>
-      <c r="C1340"/>
+      <c r="B1340" s="1"/>
+      <c r="C1340" s="1"/>
       <c r="F1340" s="6"/>
     </row>
     <row r="1341" spans="2:6">
-      <c r="B1341"/>
-      <c r="C1341"/>
+      <c r="B1341" s="1"/>
+      <c r="C1341" s="1"/>
       <c r="F1341" s="6"/>
     </row>
     <row r="1342" spans="2:6">
-      <c r="B1342"/>
-      <c r="C1342"/>
+      <c r="B1342" s="1"/>
+      <c r="C1342" s="1"/>
       <c r="F1342" s="6"/>
     </row>
     <row r="1343" spans="2:6">
-      <c r="B1343"/>
-      <c r="C1343"/>
+      <c r="B1343" s="1"/>
+      <c r="C1343" s="1"/>
       <c r="F1343" s="6"/>
     </row>
     <row r="1344" spans="2:6">
-      <c r="B1344"/>
-      <c r="C1344"/>
+      <c r="B1344" s="1"/>
+      <c r="C1344" s="1"/>
       <c r="F1344" s="6"/>
     </row>
     <row r="1345" spans="2:6">
-      <c r="B1345"/>
-      <c r="C1345"/>
+      <c r="B1345" s="1"/>
+      <c r="C1345" s="1"/>
       <c r="F1345" s="6"/>
     </row>
     <row r="1346" spans="2:6">
-      <c r="B1346"/>
-      <c r="C1346"/>
+      <c r="B1346" s="1"/>
+      <c r="C1346" s="1"/>
       <c r="F1346" s="6"/>
     </row>
     <row r="1347" spans="2:6">
-      <c r="B1347"/>
-      <c r="C1347"/>
+      <c r="B1347" s="1"/>
+      <c r="C1347" s="1"/>
       <c r="F1347" s="6"/>
     </row>
     <row r="1348" spans="2:6">
-      <c r="B1348"/>
-      <c r="C1348"/>
+      <c r="B1348" s="1"/>
+      <c r="C1348" s="1"/>
       <c r="F1348" s="6"/>
     </row>
     <row r="1349" spans="2:6">
-      <c r="B1349"/>
-      <c r="C1349"/>
+      <c r="B1349" s="1"/>
+      <c r="C1349" s="1"/>
       <c r="F1349" s="6"/>
     </row>
     <row r="1350" spans="2:6">
-      <c r="B1350"/>
-      <c r="C1350"/>
+      <c r="B1350" s="1"/>
+      <c r="C1350" s="1"/>
       <c r="F1350" s="6"/>
     </row>
     <row r="1351" spans="2:6">
-      <c r="B1351"/>
-      <c r="C1351"/>
+      <c r="B1351" s="1"/>
+      <c r="C1351" s="1"/>
       <c r="F1351" s="6"/>
     </row>
     <row r="1352" spans="2:6">
-      <c r="B1352"/>
-      <c r="C1352"/>
+      <c r="B1352" s="1"/>
+      <c r="C1352" s="1"/>
       <c r="F1352" s="6"/>
     </row>
     <row r="1353" spans="2:6">
-      <c r="B1353"/>
-      <c r="C1353"/>
+      <c r="B1353" s="1"/>
+      <c r="C1353" s="1"/>
       <c r="F1353" s="6"/>
     </row>
     <row r="1354" spans="2:6">
-      <c r="B1354"/>
-      <c r="C1354"/>
+      <c r="B1354" s="1"/>
+      <c r="C1354" s="1"/>
       <c r="F1354" s="6"/>
     </row>
     <row r="1355" spans="2:6">
-      <c r="B1355"/>
-      <c r="C1355"/>
+      <c r="B1355" s="1"/>
+      <c r="C1355" s="1"/>
     </row>
     <row r="1356" spans="2:6">
-      <c r="B1356"/>
-      <c r="C1356"/>
+      <c r="B1356" s="1"/>
+      <c r="C1356" s="1"/>
     </row>
     <row r="1357" spans="2:6">
-      <c r="B1357"/>
-      <c r="C1357"/>
+      <c r="B1357" s="1"/>
+      <c r="C1357" s="1"/>
     </row>
     <row r="1358" spans="2:6">
-      <c r="B1358"/>
-      <c r="C1358"/>
+      <c r="B1358" s="1"/>
+      <c r="C1358" s="1"/>
     </row>
     <row r="1359" spans="2:6">
-      <c r="B1359"/>
-      <c r="C1359"/>
+      <c r="B1359" s="1"/>
+      <c r="C1359" s="1"/>
     </row>
     <row r="1360" spans="2:6">
-      <c r="B1360"/>
-      <c r="C1360"/>
+      <c r="B1360" s="1"/>
+      <c r="C1360" s="1"/>
     </row>
     <row r="1361" spans="2:3">
-      <c r="B1361"/>
-      <c r="C1361"/>
+      <c r="B1361" s="1"/>
+      <c r="C1361" s="1"/>
     </row>
     <row r="1362" spans="2:3">
-      <c r="B1362"/>
-      <c r="C1362"/>
+      <c r="B1362" s="1"/>
+      <c r="C1362" s="1"/>
     </row>
     <row r="1363" spans="2:3">
-      <c r="B1363"/>
-      <c r="C1363"/>
+      <c r="B1363" s="1"/>
+      <c r="C1363" s="1"/>
     </row>
     <row r="1364" spans="2:3">
-      <c r="B1364"/>
-      <c r="C1364"/>
+      <c r="B1364" s="1"/>
+      <c r="C1364" s="1"/>
     </row>
     <row r="1365" spans="2:3">
-      <c r="B1365"/>
-      <c r="C1365"/>
+      <c r="B1365" s="1"/>
+      <c r="C1365" s="1"/>
     </row>
     <row r="1366" spans="2:3">
-      <c r="B1366"/>
-      <c r="C1366"/>
+      <c r="B1366" s="1"/>
+      <c r="C1366" s="1"/>
     </row>
     <row r="1367" spans="2:3">
-      <c r="B1367"/>
-      <c r="C1367"/>
+      <c r="B1367" s="1"/>
+      <c r="C1367" s="1"/>
     </row>
     <row r="1368" spans="2:3">
-      <c r="B1368"/>
-      <c r="C1368"/>
+      <c r="B1368" s="1"/>
+      <c r="C1368" s="1"/>
     </row>
     <row r="1369" spans="2:3">
-      <c r="B1369"/>
-      <c r="C1369"/>
+      <c r="B1369" s="1"/>
+      <c r="C1369" s="1"/>
     </row>
     <row r="1370" spans="2:3">
-      <c r="B1370"/>
-      <c r="C1370"/>
+      <c r="B1370" s="1"/>
+      <c r="C1370" s="1"/>
     </row>
     <row r="1371" spans="2:3">
-      <c r="B1371"/>
-      <c r="C1371"/>
+      <c r="B1371" s="1"/>
+      <c r="C1371" s="1"/>
     </row>
     <row r="1372" spans="2:3">
-      <c r="B1372"/>
-      <c r="C1372"/>
+      <c r="B1372" s="1"/>
+      <c r="C1372" s="1"/>
     </row>
     <row r="1373" spans="2:3">
-      <c r="B1373"/>
-      <c r="C1373"/>
+      <c r="B1373" s="1"/>
+      <c r="C1373" s="1"/>
     </row>
     <row r="1374" spans="2:3">
-      <c r="B1374"/>
-      <c r="C1374"/>
+      <c r="B1374" s="1"/>
+      <c r="C1374" s="1"/>
     </row>
     <row r="1375" spans="2:3">
-      <c r="B1375"/>
-      <c r="C1375"/>
+      <c r="B1375" s="1"/>
+      <c r="C1375" s="1"/>
     </row>
     <row r="1376" spans="2:3">
-      <c r="B1376"/>
-      <c r="C1376"/>
+      <c r="B1376" s="1"/>
+      <c r="C1376" s="1"/>
     </row>
     <row r="1377" spans="2:3">
-      <c r="B1377"/>
-      <c r="C1377"/>
+      <c r="B1377" s="1"/>
+      <c r="C1377" s="1"/>
     </row>
     <row r="1378" spans="2:3">
-      <c r="B1378"/>
-      <c r="C1378"/>
+      <c r="B1378" s="1"/>
+      <c r="C1378" s="1"/>
     </row>
     <row r="1379" spans="2:3">
-      <c r="B1379"/>
-      <c r="C1379"/>
+      <c r="B1379" s="1"/>
+      <c r="C1379" s="1"/>
     </row>
     <row r="1380" spans="2:3">
-      <c r="B1380"/>
-      <c r="C1380"/>
+      <c r="B1380" s="1"/>
+      <c r="C1380" s="1"/>
     </row>
     <row r="1381" spans="2:3">
-      <c r="B1381"/>
-      <c r="C1381"/>
+      <c r="B1381" s="1"/>
+      <c r="C1381" s="1"/>
     </row>
     <row r="1382" spans="2:3">
-      <c r="B1382"/>
-      <c r="C1382"/>
+      <c r="B1382" s="1"/>
+      <c r="C1382" s="1"/>
     </row>
     <row r="1383" spans="2:3">
-      <c r="B1383"/>
-      <c r="C1383"/>
+      <c r="B1383" s="1"/>
+      <c r="C1383" s="1"/>
     </row>
     <row r="1384" spans="2:3">
-      <c r="B1384"/>
-      <c r="C1384"/>
+      <c r="B1384" s="1"/>
+      <c r="C1384" s="1"/>
     </row>
     <row r="1385" spans="2:3">
-      <c r="B1385"/>
-      <c r="C1385"/>
+      <c r="B1385" s="1"/>
+      <c r="C1385" s="1"/>
     </row>
     <row r="1386" spans="2:3">
-      <c r="B1386"/>
-      <c r="C1386"/>
+      <c r="B1386" s="1"/>
+      <c r="C1386" s="1"/>
     </row>
     <row r="1387" spans="2:3">
-      <c r="B1387"/>
-      <c r="C1387"/>
+      <c r="B1387" s="1"/>
+      <c r="C1387" s="1"/>
     </row>
     <row r="1388" spans="2:3">
-      <c r="B1388"/>
-      <c r="C1388"/>
+      <c r="B1388" s="1"/>
+      <c r="C1388" s="1"/>
     </row>
     <row r="1389" spans="2:3">
-      <c r="B1389"/>
-      <c r="C1389"/>
+      <c r="B1389" s="1"/>
+      <c r="C1389" s="1"/>
     </row>
     <row r="1390" spans="2:3">
-      <c r="B1390"/>
-      <c r="C1390"/>
+      <c r="B1390" s="1"/>
+      <c r="C1390" s="1"/>
     </row>
     <row r="1391" spans="2:3">
-      <c r="B1391"/>
-      <c r="C1391"/>
+      <c r="B1391" s="1"/>
+      <c r="C1391" s="1"/>
     </row>
     <row r="1392" spans="2:3">
-      <c r="B1392"/>
-      <c r="C1392"/>
+      <c r="B1392" s="1"/>
+      <c r="C1392" s="1"/>
     </row>
     <row r="1393" spans="2:3">
-      <c r="B1393"/>
-      <c r="C1393"/>
+      <c r="B1393" s="1"/>
+      <c r="C1393" s="1"/>
     </row>
     <row r="1394" spans="2:3">
-      <c r="B1394"/>
-      <c r="C1394"/>
+      <c r="B1394" s="1"/>
+      <c r="C1394" s="1"/>
     </row>
     <row r="1395" spans="2:3">
-      <c r="B1395"/>
-      <c r="C1395"/>
+      <c r="B1395" s="1"/>
+      <c r="C1395" s="1"/>
     </row>
     <row r="1396" spans="2:3">
-      <c r="B1396"/>
-      <c r="C1396"/>
+      <c r="B1396" s="1"/>
+      <c r="C1396" s="1"/>
     </row>
     <row r="1397" spans="2:3">
-      <c r="B1397"/>
-      <c r="C1397"/>
+      <c r="B1397" s="1"/>
+      <c r="C1397" s="1"/>
     </row>
     <row r="1398" spans="2:3">
-      <c r="B1398"/>
-      <c r="C1398"/>
+      <c r="B1398" s="1"/>
+      <c r="C1398" s="1"/>
     </row>
     <row r="1399" spans="2:3">
-      <c r="B1399"/>
-      <c r="C1399"/>
+      <c r="B1399" s="1"/>
+      <c r="C1399" s="1"/>
     </row>
     <row r="1400" spans="2:3">
-      <c r="B1400"/>
-      <c r="C1400"/>
+      <c r="B1400" s="1"/>
+      <c r="C1400" s="1"/>
     </row>
     <row r="1401" spans="2:3">
-      <c r="B1401"/>
-      <c r="C1401"/>
+      <c r="B1401" s="1"/>
+      <c r="C1401" s="1"/>
     </row>
     <row r="1402" spans="2:3">
-      <c r="B1402"/>
-      <c r="C1402"/>
+      <c r="B1402" s="1"/>
+      <c r="C1402" s="1"/>
     </row>
     <row r="1403" spans="2:3">
-      <c r="B1403"/>
-      <c r="C1403"/>
+      <c r="B1403" s="1"/>
+      <c r="C1403" s="1"/>
     </row>
     <row r="1404" spans="2:3">
-      <c r="B1404"/>
-      <c r="C1404"/>
+      <c r="B1404" s="1"/>
+      <c r="C1404" s="1"/>
     </row>
     <row r="1405" spans="2:3">
-      <c r="B1405"/>
-      <c r="C1405"/>
+      <c r="B1405" s="1"/>
+      <c r="C1405" s="1"/>
     </row>
     <row r="1406" spans="2:3">
-      <c r="B1406"/>
-      <c r="C1406"/>
+      <c r="B1406" s="1"/>
+      <c r="C1406" s="1"/>
     </row>
     <row r="1407" spans="2:3">
-      <c r="B1407"/>
-      <c r="C1407"/>
+      <c r="B1407" s="1"/>
+      <c r="C1407" s="1"/>
     </row>
     <row r="1408" spans="2:3">
-      <c r="B1408"/>
-      <c r="C1408"/>
+      <c r="B1408" s="1"/>
+      <c r="C1408" s="1"/>
     </row>
     <row r="1409" spans="2:3">
-      <c r="B1409"/>
-      <c r="C1409"/>
+      <c r="B1409" s="1"/>
+      <c r="C1409" s="1"/>
     </row>
     <row r="1410" spans="2:3">
-      <c r="B1410"/>
-      <c r="C1410"/>
+      <c r="B1410" s="1"/>
+      <c r="C1410" s="1"/>
     </row>
     <row r="1411" spans="2:3">
-      <c r="B1411"/>
-      <c r="C1411"/>
+      <c r="B1411" s="1"/>
+      <c r="C1411" s="1"/>
     </row>
     <row r="1412" spans="2:3">
-      <c r="B1412"/>
-      <c r="C1412"/>
+      <c r="B1412" s="1"/>
+      <c r="C1412" s="1"/>
     </row>
     <row r="1413" spans="2:3">
-      <c r="B1413"/>
-      <c r="C1413"/>
+      <c r="B1413" s="1"/>
+      <c r="C1413" s="1"/>
     </row>
     <row r="1414" spans="2:3">
-      <c r="B1414"/>
-      <c r="C1414"/>
+      <c r="B1414" s="1"/>
+      <c r="C1414" s="1"/>
     </row>
     <row r="1415" spans="2:3">
-      <c r="B1415"/>
-      <c r="C1415"/>
+      <c r="B1415" s="1"/>
+      <c r="C1415" s="1"/>
     </row>
     <row r="1416" spans="2:3">
-      <c r="B1416"/>
-      <c r="C1416"/>
+      <c r="B1416" s="1"/>
+      <c r="C1416" s="1"/>
     </row>
     <row r="1417" spans="2:3">
-      <c r="B1417"/>
-      <c r="C1417"/>
+      <c r="B1417" s="1"/>
+      <c r="C1417" s="1"/>
     </row>
     <row r="1418" spans="2:3">
-      <c r="B1418"/>
-      <c r="C1418"/>
+      <c r="B1418" s="1"/>
+      <c r="C1418" s="1"/>
     </row>
     <row r="1419" spans="2:3">
-      <c r="B1419"/>
-      <c r="C1419"/>
+      <c r="B1419" s="1"/>
+      <c r="C1419" s="1"/>
     </row>
     <row r="1420" spans="2:3">
-      <c r="B1420"/>
-      <c r="C1420"/>
+      <c r="B1420" s="1"/>
+      <c r="C1420" s="1"/>
     </row>
     <row r="1421" spans="2:3">
-      <c r="B1421"/>
-      <c r="C1421"/>
+      <c r="B1421" s="1"/>
+      <c r="C1421" s="1"/>
     </row>
     <row r="1422" spans="2:3">
-      <c r="B1422"/>
-      <c r="C1422"/>
+      <c r="B1422" s="1"/>
+      <c r="C1422" s="1"/>
     </row>
     <row r="1423" spans="2:3">
-      <c r="B1423"/>
-      <c r="C1423"/>
+      <c r="B1423" s="1"/>
+      <c r="C1423" s="1"/>
     </row>
     <row r="1424" spans="2:3">
-      <c r="B1424"/>
-      <c r="C1424"/>
+      <c r="B1424" s="1"/>
+      <c r="C1424" s="1"/>
     </row>
     <row r="1425" spans="2:3">
-      <c r="B1425"/>
-      <c r="C1425"/>
+      <c r="B1425" s="1"/>
+      <c r="C1425" s="1"/>
     </row>
     <row r="1426" spans="2:3">
-      <c r="B1426"/>
-      <c r="C1426"/>
+      <c r="B1426" s="1"/>
+      <c r="C1426" s="1"/>
     </row>
     <row r="1427" spans="2:3">
-      <c r="B1427"/>
-      <c r="C1427"/>
+      <c r="B1427" s="1"/>
+      <c r="C1427" s="1"/>
     </row>
     <row r="1428" spans="2:3">
-      <c r="B1428"/>
-      <c r="C1428"/>
+      <c r="B1428" s="1"/>
+      <c r="C1428" s="1"/>
     </row>
     <row r="1429" spans="2:3">
-      <c r="B1429"/>
-      <c r="C1429"/>
+      <c r="B1429" s="1"/>
+      <c r="C1429" s="1"/>
     </row>
     <row r="1430" spans="2:3">
-      <c r="B1430"/>
-      <c r="C1430"/>
+      <c r="B1430" s="1"/>
+      <c r="C1430" s="1"/>
     </row>
     <row r="1431" spans="2:3">
-      <c r="B1431"/>
-      <c r="C1431"/>
+      <c r="B1431" s="1"/>
+      <c r="C1431" s="1"/>
     </row>
     <row r="1432" spans="2:3">
-      <c r="B1432"/>
-      <c r="C1432"/>
+      <c r="B1432" s="1"/>
+      <c r="C1432" s="1"/>
     </row>
     <row r="1433" spans="2:3">
-      <c r="B1433"/>
-      <c r="C1433"/>
+      <c r="B1433" s="1"/>
+      <c r="C1433" s="1"/>
     </row>
     <row r="1434" spans="2:3">
-      <c r="B1434"/>
-      <c r="C1434"/>
+      <c r="B1434" s="1"/>
+      <c r="C1434" s="1"/>
     </row>
     <row r="1435" spans="2:3">
-      <c r="B1435"/>
-      <c r="C1435"/>
+      <c r="B1435" s="1"/>
+      <c r="C1435" s="1"/>
     </row>
     <row r="1436" spans="2:3">
-      <c r="B1436"/>
-      <c r="C1436"/>
+      <c r="B1436" s="1"/>
+      <c r="C1436" s="1"/>
     </row>
     <row r="1437" spans="2:3">
-      <c r="B1437"/>
-      <c r="C1437"/>
+      <c r="B1437" s="1"/>
+      <c r="C1437" s="1"/>
     </row>
     <row r="1438" spans="2:3">
-      <c r="B1438"/>
-      <c r="C1438"/>
+      <c r="B1438" s="1"/>
+      <c r="C1438" s="1"/>
     </row>
     <row r="1439" spans="2:3">
-      <c r="B1439"/>
-      <c r="C1439"/>
+      <c r="B1439" s="1"/>
+      <c r="C1439" s="1"/>
     </row>
     <row r="1440" spans="2:3">
-      <c r="B1440"/>
-      <c r="C1440"/>
+      <c r="B1440" s="1"/>
+      <c r="C1440" s="1"/>
     </row>
     <row r="1441" spans="2:3">
-      <c r="B1441"/>
-      <c r="C1441"/>
+      <c r="B1441" s="1"/>
+      <c r="C1441" s="1"/>
     </row>
     <row r="1442" spans="2:3">
-      <c r="B1442"/>
-      <c r="C1442"/>
+      <c r="B1442" s="1"/>
+      <c r="C1442" s="1"/>
     </row>
     <row r="1443" spans="2:3">
-      <c r="B1443"/>
-      <c r="C1443"/>
+      <c r="B1443" s="1"/>
+      <c r="C1443" s="1"/>
     </row>
     <row r="1444" spans="2:3">
-      <c r="B1444"/>
-      <c r="C1444"/>
+      <c r="B1444" s="1"/>
+      <c r="C1444" s="1"/>
     </row>
     <row r="1445" spans="2:3">
-      <c r="B1445"/>
-      <c r="C1445"/>
+      <c r="B1445" s="1"/>
+      <c r="C1445" s="1"/>
     </row>
     <row r="1446" spans="2:3">
-      <c r="B1446"/>
-      <c r="C1446"/>
+      <c r="B1446" s="1"/>
+      <c r="C1446" s="1"/>
     </row>
     <row r="1447" spans="2:3">
-      <c r="B1447"/>
-      <c r="C1447"/>
+      <c r="B1447" s="1"/>
+      <c r="C1447" s="1"/>
     </row>
     <row r="1448" spans="2:3">
-      <c r="B1448"/>
-      <c r="C1448"/>
+      <c r="B1448" s="1"/>
+      <c r="C1448" s="1"/>
     </row>
     <row r="1449" spans="2:3">
-      <c r="B1449"/>
-      <c r="C1449"/>
+      <c r="B1449" s="1"/>
+      <c r="C1449" s="1"/>
     </row>
     <row r="1450" spans="2:3">
-      <c r="B1450"/>
-      <c r="C1450"/>
+      <c r="B1450" s="1"/>
+      <c r="C1450" s="1"/>
     </row>
     <row r="1451" spans="2:3">
-      <c r="B1451"/>
-      <c r="C1451"/>
+      <c r="B1451" s="1"/>
+      <c r="C1451" s="1"/>
     </row>
     <row r="1452" spans="2:3">
-      <c r="B1452"/>
-      <c r="C1452"/>
+      <c r="B1452" s="1"/>
+      <c r="C1452" s="1"/>
     </row>
     <row r="1453" spans="2:3">
-      <c r="B1453"/>
-      <c r="C1453"/>
+      <c r="B1453" s="1"/>
+      <c r="C1453" s="1"/>
     </row>
     <row r="1454" spans="2:3">
-      <c r="B1454"/>
-      <c r="C1454"/>
+      <c r="B1454" s="1"/>
+      <c r="C1454" s="1"/>
     </row>
     <row r="1455" spans="2:3">
-      <c r="B1455"/>
-      <c r="C1455"/>
+      <c r="B1455" s="1"/>
+      <c r="C1455" s="1"/>
     </row>
     <row r="1456" spans="2:3">
-      <c r="B1456"/>
-      <c r="C1456"/>
+      <c r="B1456" s="1"/>
+      <c r="C1456" s="1"/>
     </row>
     <row r="1457" spans="2:3">
-      <c r="B1457"/>
-      <c r="C1457"/>
+      <c r="B1457" s="1"/>
+      <c r="C1457" s="1"/>
     </row>
     <row r="1458" spans="2:3">
-      <c r="B1458"/>
-      <c r="C1458"/>
+      <c r="B1458" s="1"/>
+      <c r="C1458" s="1"/>
     </row>
     <row r="1459" spans="2:3">
-      <c r="B1459"/>
-      <c r="C1459"/>
+      <c r="B1459" s="1"/>
+      <c r="C1459" s="1"/>
     </row>
     <row r="1460" spans="2:3">
-      <c r="B1460"/>
-      <c r="C1460"/>
+      <c r="B1460" s="1"/>
+      <c r="C1460" s="1"/>
     </row>
     <row r="1461" spans="2:3">
-      <c r="B1461"/>
-      <c r="C1461"/>
+      <c r="B1461" s="1"/>
+      <c r="C1461" s="1"/>
     </row>
     <row r="1462" spans="2:3">
-      <c r="B1462"/>
-      <c r="C1462"/>
+      <c r="B1462" s="1"/>
+      <c r="C1462" s="1"/>
     </row>
     <row r="1464" spans="2:3">
-      <c r="B1464"/>
-      <c r="C1464"/>
+      <c r="B1464" s="1"/>
+      <c r="C1464" s="1"/>
     </row>
     <row r="1465" spans="2:3">
-      <c r="B1465"/>
-      <c r="C1465"/>
+      <c r="B1465" s="1"/>
+      <c r="C1465" s="1"/>
     </row>
     <row r="1466" spans="2:3">
-      <c r="B1466"/>
-      <c r="C1466"/>
+      <c r="B1466" s="1"/>
+      <c r="C1466" s="1"/>
     </row>
     <row r="1467" spans="2:3">
-      <c r="B1467"/>
-      <c r="C1467"/>
+      <c r="B1467" s="1"/>
+      <c r="C1467" s="1"/>
     </row>
     <row r="1468" spans="2:3">
-      <c r="B1468"/>
-      <c r="C1468"/>
+      <c r="B1468" s="1"/>
+      <c r="C1468" s="1"/>
     </row>
     <row r="1469" spans="2:3">
-      <c r="B1469"/>
-      <c r="C1469"/>
+      <c r="B1469" s="1"/>
+      <c r="C1469" s="1"/>
     </row>
     <row r="1470" spans="2:3">
-      <c r="B1470"/>
-      <c r="C1470"/>
+      <c r="B1470" s="1"/>
+      <c r="C1470" s="1"/>
     </row>
     <row r="1471" spans="2:3">
-      <c r="B1471"/>
-      <c r="C1471"/>
+      <c r="B1471" s="1"/>
+      <c r="C1471" s="1"/>
     </row>
     <row r="1472" spans="2:3">
-      <c r="B1472"/>
-      <c r="C1472"/>
+      <c r="B1472" s="1"/>
+      <c r="C1472" s="1"/>
     </row>
     <row r="1473" spans="2:3">
-      <c r="B1473"/>
-      <c r="C1473"/>
+      <c r="B1473" s="1"/>
+      <c r="C1473" s="1"/>
     </row>
     <row r="1474" spans="2:3">
-      <c r="B1474"/>
-      <c r="C1474"/>
+      <c r="B1474" s="1"/>
+      <c r="C1474" s="1"/>
     </row>
     <row r="1475" spans="2:3">
-      <c r="B1475"/>
-      <c r="C1475"/>
+      <c r="B1475" s="1"/>
+      <c r="C1475" s="1"/>
     </row>
     <row r="1476" spans="2:3">
-      <c r="B1476"/>
-      <c r="C1476"/>
+      <c r="B1476" s="1"/>
+      <c r="C1476" s="1"/>
     </row>
     <row r="1477" spans="2:3">
-      <c r="B1477"/>
-      <c r="C1477"/>
+      <c r="B1477" s="1"/>
+      <c r="C1477" s="1"/>
     </row>
     <row r="1478" spans="2:3">
-      <c r="B1478"/>
-      <c r="C1478"/>
+      <c r="B1478" s="1"/>
+      <c r="C1478" s="1"/>
     </row>
     <row r="1479" spans="2:3">
-      <c r="B1479"/>
-      <c r="C1479"/>
+      <c r="B1479" s="1"/>
+      <c r="C1479" s="1"/>
     </row>
     <row r="1480" spans="2:3">
-      <c r="B1480"/>
-      <c r="C1480"/>
+      <c r="B1480" s="1"/>
+      <c r="C1480" s="1"/>
     </row>
     <row r="1481" spans="2:3">
-      <c r="B1481"/>
-      <c r="C1481"/>
+      <c r="B1481" s="1"/>
+      <c r="C1481" s="1"/>
     </row>
     <row r="1482" spans="2:3">
-      <c r="B1482"/>
-      <c r="C1482"/>
+      <c r="B1482" s="1"/>
+      <c r="C1482" s="1"/>
     </row>
     <row r="1483" spans="2:3">
-      <c r="B1483"/>
-      <c r="C1483"/>
+      <c r="B1483" s="1"/>
+      <c r="C1483" s="1"/>
     </row>
     <row r="1484" spans="2:3">
-      <c r="B1484"/>
-      <c r="C1484"/>
+      <c r="B1484" s="1"/>
+      <c r="C1484" s="1"/>
     </row>
     <row r="1485" spans="2:3">
-      <c r="B1485"/>
-      <c r="C1485"/>
+      <c r="B1485" s="1"/>
+      <c r="C1485" s="1"/>
     </row>
     <row r="1486" spans="2:3">
-      <c r="B1486"/>
-      <c r="C1486"/>
+      <c r="B1486" s="1"/>
+      <c r="C1486" s="1"/>
     </row>
     <row r="1487" spans="2:3">
-      <c r="B1487"/>
-      <c r="C1487"/>
+      <c r="B1487" s="1"/>
+      <c r="C1487" s="1"/>
     </row>
     <row r="1488" spans="2:3">
-      <c r="B1488"/>
-      <c r="C1488"/>
+      <c r="B1488" s="1"/>
+      <c r="C1488" s="1"/>
     </row>
     <row r="1489" spans="2:3">
-      <c r="B1489"/>
-      <c r="C1489"/>
+      <c r="B1489" s="1"/>
+      <c r="C1489" s="1"/>
     </row>
     <row r="1490" spans="2:3">
-      <c r="B1490"/>
-      <c r="C1490"/>
+      <c r="B1490" s="1"/>
+      <c r="C1490" s="1"/>
     </row>
     <row r="1491" spans="2:3">
-      <c r="B1491"/>
-      <c r="C1491"/>
+      <c r="B1491" s="1"/>
+      <c r="C1491" s="1"/>
     </row>
     <row r="1492" spans="2:3">
-      <c r="B1492"/>
-      <c r="C1492"/>
+      <c r="B1492" s="1"/>
+      <c r="C1492" s="1"/>
     </row>
     <row r="1493" spans="2:3">
-      <c r="B1493"/>
-      <c r="C1493"/>
+      <c r="B1493" s="1"/>
+      <c r="C1493" s="1"/>
     </row>
     <row r="1494" spans="2:3">
-      <c r="B1494"/>
-      <c r="C1494"/>
+      <c r="B1494" s="1"/>
+      <c r="C1494" s="1"/>
     </row>
     <row r="1495" spans="2:3">
-      <c r="B1495"/>
-      <c r="C1495"/>
+      <c r="B1495" s="1"/>
+      <c r="C1495" s="1"/>
     </row>
     <row r="1496" spans="2:3">
-      <c r="B1496"/>
-      <c r="C1496"/>
+      <c r="B1496" s="1"/>
+      <c r="C1496" s="1"/>
     </row>
     <row r="1497" spans="2:3">
-      <c r="B1497"/>
-      <c r="C1497"/>
+      <c r="B1497" s="1"/>
+      <c r="C1497" s="1"/>
     </row>
     <row r="1498" spans="2:3">
-      <c r="B1498"/>
-      <c r="C1498"/>
+      <c r="B1498" s="1"/>
+      <c r="C1498" s="1"/>
     </row>
     <row r="1499" spans="2:3">
-      <c r="B1499"/>
-      <c r="C1499"/>
+      <c r="B1499" s="1"/>
+      <c r="C1499" s="1"/>
     </row>
     <row r="1500" spans="2:3">
-      <c r="B1500"/>
-      <c r="C1500"/>
+      <c r="B1500" s="1"/>
+      <c r="C1500" s="1"/>
     </row>
     <row r="1501" spans="2:3">
-      <c r="B1501"/>
-      <c r="C1501"/>
+      <c r="B1501" s="1"/>
+      <c r="C1501" s="1"/>
     </row>
     <row r="1502" spans="2:3">
-      <c r="B1502"/>
-      <c r="C1502"/>
+      <c r="B1502" s="1"/>
+      <c r="C1502" s="1"/>
     </row>
     <row r="1503" spans="2:3">
-      <c r="B1503"/>
-      <c r="C1503"/>
+      <c r="B1503" s="1"/>
+      <c r="C1503" s="1"/>
     </row>
     <row r="1504" spans="2:3">
-      <c r="B1504"/>
-      <c r="C1504"/>
+      <c r="B1504" s="1"/>
+      <c r="C1504" s="1"/>
     </row>
     <row r="1505" spans="2:3">
-      <c r="B1505"/>
-      <c r="C1505"/>
+      <c r="B1505" s="1"/>
+      <c r="C1505" s="1"/>
     </row>
     <row r="1506" spans="2:3">
-      <c r="B1506"/>
-      <c r="C1506"/>
+      <c r="B1506" s="1"/>
+      <c r="C1506" s="1"/>
     </row>
     <row r="1507" spans="2:3">
-      <c r="B1507"/>
-      <c r="C1507"/>
+      <c r="B1507" s="1"/>
+      <c r="C1507" s="1"/>
     </row>
     <row r="1508" spans="2:3">
-      <c r="B1508"/>
-      <c r="C1508"/>
+      <c r="B1508" s="1"/>
+      <c r="C1508" s="1"/>
     </row>
     <row r="1509" spans="2:3">
-      <c r="B1509"/>
-      <c r="C1509"/>
+      <c r="B1509" s="1"/>
+      <c r="C1509" s="1"/>
     </row>
     <row r="1510" spans="2:3">
-      <c r="B1510"/>
-      <c r="C1510"/>
+      <c r="B1510" s="1"/>
+      <c r="C1510" s="1"/>
     </row>
     <row r="1511" spans="2:3">
-      <c r="B1511"/>
-      <c r="C1511"/>
+      <c r="B1511" s="1"/>
+      <c r="C1511" s="1"/>
     </row>
     <row r="1512" spans="2:3">
-      <c r="B1512"/>
-      <c r="C1512"/>
+      <c r="B1512" s="1"/>
+      <c r="C1512" s="1"/>
     </row>
     <row r="1513" spans="2:3">
-      <c r="B1513"/>
-      <c r="C1513"/>
+      <c r="B1513" s="1"/>
+      <c r="C1513" s="1"/>
     </row>
     <row r="1514" spans="2:3">
-      <c r="B1514"/>
-      <c r="C1514"/>
+      <c r="B1514" s="1"/>
+      <c r="C1514" s="1"/>
     </row>
     <row r="1515" spans="2:3">
-      <c r="B1515"/>
-      <c r="C1515"/>
+      <c r="B1515" s="1"/>
+      <c r="C1515" s="1"/>
     </row>
     <row r="1516" spans="2:3">
-      <c r="B1516"/>
-      <c r="C1516"/>
+      <c r="B1516" s="1"/>
+      <c r="C1516" s="1"/>
     </row>
     <row r="1517" spans="2:3">
-      <c r="B1517"/>
-      <c r="C1517"/>
+      <c r="B1517" s="1"/>
+      <c r="C1517" s="1"/>
     </row>
     <row r="1518" spans="2:3">
-      <c r="B1518"/>
-      <c r="C1518"/>
+      <c r="B1518" s="1"/>
+      <c r="C1518" s="1"/>
     </row>
     <row r="1519" spans="2:3">
-      <c r="B1519"/>
-      <c r="C1519"/>
+      <c r="B1519" s="1"/>
+      <c r="C1519" s="1"/>
     </row>
     <row r="1520" spans="2:3">
-      <c r="B1520"/>
-      <c r="C1520"/>
+      <c r="B1520" s="1"/>
+      <c r="C1520" s="1"/>
     </row>
     <row r="1521" spans="2:3">
-      <c r="B1521"/>
-      <c r="C1521"/>
+      <c r="B1521" s="1"/>
+      <c r="C1521" s="1"/>
     </row>
     <row r="1522" spans="2:3">
-      <c r="B1522"/>
-      <c r="C1522"/>
+      <c r="B1522" s="1"/>
+      <c r="C1522" s="1"/>
     </row>
     <row r="1523" spans="2:3">
-      <c r="B1523"/>
-      <c r="C1523"/>
+      <c r="B1523" s="1"/>
+      <c r="C1523" s="1"/>
     </row>
     <row r="1524" spans="2:3">
-      <c r="B1524"/>
-      <c r="C1524"/>
+      <c r="B1524" s="1"/>
+      <c r="C1524" s="1"/>
     </row>
     <row r="1525" spans="2:3">
-      <c r="B1525"/>
-      <c r="C1525"/>
+      <c r="B1525" s="1"/>
+      <c r="C1525" s="1"/>
     </row>
     <row r="1526" spans="2:3">
-      <c r="B1526"/>
-      <c r="C1526"/>
+      <c r="B1526" s="1"/>
+      <c r="C1526" s="1"/>
     </row>
     <row r="1527" spans="2:3">
-      <c r="B1527"/>
-      <c r="C1527"/>
+      <c r="B1527" s="1"/>
+      <c r="C1527" s="1"/>
     </row>
     <row r="1528" spans="2:3">
-      <c r="B1528"/>
-      <c r="C1528"/>
+      <c r="B1528" s="1"/>
+      <c r="C1528" s="1"/>
     </row>
     <row r="1529" spans="2:3">
-      <c r="B1529"/>
-      <c r="C1529"/>
+      <c r="B1529" s="1"/>
+      <c r="C1529" s="1"/>
     </row>
     <row r="1530" spans="2:3">
-      <c r="B1530"/>
-      <c r="C1530"/>
+      <c r="B1530" s="1"/>
+      <c r="C1530" s="1"/>
     </row>
     <row r="1531" spans="2:3">
-      <c r="B1531"/>
-      <c r="C1531"/>
+      <c r="B1531" s="1"/>
+      <c r="C1531" s="1"/>
     </row>
     <row r="1532" spans="2:3">
-      <c r="B1532"/>
-      <c r="C1532"/>
+      <c r="B1532" s="1"/>
+      <c r="C1532" s="1"/>
     </row>
     <row r="1533" spans="2:3">
-      <c r="B1533"/>
-      <c r="C1533"/>
+      <c r="B1533" s="1"/>
+      <c r="C1533" s="1"/>
     </row>
     <row r="1534" spans="2:3">
-      <c r="B1534"/>
-      <c r="C1534"/>
+      <c r="B1534" s="1"/>
+      <c r="C1534" s="1"/>
     </row>
     <row r="1535" spans="2:3">
-      <c r="B1535"/>
-      <c r="C1535"/>
+      <c r="B1535" s="1"/>
+      <c r="C1535" s="1"/>
     </row>
     <row r="1536" spans="2:3">
-      <c r="B1536"/>
-      <c r="C1536"/>
+      <c r="B1536" s="1"/>
+      <c r="C1536" s="1"/>
     </row>
     <row r="1537" spans="2:3">
-      <c r="B1537"/>
-      <c r="C1537"/>
+      <c r="B1537" s="1"/>
+      <c r="C1537" s="1"/>
     </row>
     <row r="1538" spans="2:3">
-      <c r="B1538"/>
-      <c r="C1538"/>
+      <c r="B1538" s="1"/>
+      <c r="C1538" s="1"/>
     </row>
     <row r="1539" spans="2:3">
-      <c r="B1539"/>
-      <c r="C1539"/>
+      <c r="B1539" s="1"/>
+      <c r="C1539" s="1"/>
     </row>
     <row r="1540" spans="2:3">
-      <c r="B1540"/>
-      <c r="C1540"/>
+      <c r="B1540" s="1"/>
+      <c r="C1540" s="1"/>
     </row>
     <row r="1541" spans="2:3">
-      <c r="B1541"/>
-      <c r="C1541"/>
+      <c r="B1541" s="1"/>
+      <c r="C1541" s="1"/>
     </row>
     <row r="1542" spans="2:3">
-      <c r="B1542"/>
-      <c r="C1542"/>
+      <c r="B1542" s="1"/>
+      <c r="C1542" s="1"/>
     </row>
     <row r="1543" spans="2:3">
-      <c r="B1543"/>
-      <c r="C1543"/>
+      <c r="B1543" s="1"/>
+      <c r="C1543" s="1"/>
     </row>
     <row r="1544" spans="2:3">
-      <c r="B1544"/>
-      <c r="C1544"/>
+      <c r="B1544" s="1"/>
+      <c r="C1544" s="1"/>
     </row>
     <row r="1545" spans="2:3">
-      <c r="B1545"/>
-      <c r="C1545"/>
+      <c r="B1545" s="1"/>
+      <c r="C1545" s="1"/>
     </row>
     <row r="1546" spans="2:3">
-      <c r="B1546"/>
-      <c r="C1546"/>
+      <c r="B1546" s="1"/>
+      <c r="C1546" s="1"/>
     </row>
     <row r="1547" spans="2:3">
-      <c r="B1547"/>
-      <c r="C1547"/>
+      <c r="B1547" s="1"/>
+      <c r="C1547" s="1"/>
     </row>
     <row r="1548" spans="2:3">
-      <c r="B1548"/>
-      <c r="C1548"/>
+      <c r="B1548" s="1"/>
+      <c r="C1548" s="1"/>
     </row>
     <row r="1549" spans="2:3">
-      <c r="B1549"/>
-      <c r="C1549"/>
+      <c r="B1549" s="1"/>
+      <c r="C1549" s="1"/>
     </row>
     <row r="1550" spans="2:3">
-      <c r="B1550"/>
-      <c r="C1550"/>
+      <c r="B1550" s="1"/>
+      <c r="C1550" s="1"/>
     </row>
     <row r="1551" spans="2:3">
-      <c r="B1551"/>
-      <c r="C1551"/>
+      <c r="B1551" s="1"/>
+      <c r="C1551" s="1"/>
     </row>
     <row r="1552" spans="2:3">
-      <c r="B1552"/>
-      <c r="C1552"/>
+      <c r="B1552" s="1"/>
+      <c r="C1552" s="1"/>
     </row>
     <row r="1553" spans="2:3">
-      <c r="B1553"/>
-      <c r="C1553"/>
+      <c r="B1553" s="1"/>
+      <c r="C1553" s="1"/>
     </row>
     <row r="1554" spans="2:3">
-      <c r="B1554"/>
-      <c r="C1554"/>
+      <c r="B1554" s="1"/>
+      <c r="C1554" s="1"/>
     </row>
     <row r="1555" spans="2:3">
-      <c r="B1555"/>
-      <c r="C1555"/>
+      <c r="B1555" s="1"/>
+      <c r="C1555" s="1"/>
     </row>
     <row r="1556" spans="2:3">
-      <c r="B1556"/>
-      <c r="C1556"/>
+      <c r="B1556" s="1"/>
+      <c r="C1556" s="1"/>
     </row>
     <row r="1557" spans="2:3">
-      <c r="B1557"/>
-      <c r="C1557"/>
+      <c r="B1557" s="1"/>
+      <c r="C1557" s="1"/>
     </row>
     <row r="1558" spans="2:3">
-      <c r="B1558"/>
-      <c r="C1558"/>
+      <c r="B1558" s="1"/>
+      <c r="C1558" s="1"/>
     </row>
     <row r="1559" spans="2:3">
-      <c r="B1559"/>
-      <c r="C1559"/>
+      <c r="B1559" s="1"/>
+      <c r="C1559" s="1"/>
     </row>
     <row r="1560" spans="2:3">
-      <c r="B1560"/>
-      <c r="C1560"/>
+      <c r="B1560" s="1"/>
+      <c r="C1560" s="1"/>
     </row>
     <row r="1561" spans="2:3">
-      <c r="B1561"/>
-      <c r="C1561"/>
+      <c r="B1561" s="1"/>
+      <c r="C1561" s="1"/>
     </row>
     <row r="1562" spans="2:3">
-      <c r="B1562"/>
-      <c r="C1562"/>
+      <c r="B1562" s="1"/>
+      <c r="C1562" s="1"/>
     </row>
     <row r="1563" spans="2:3">
-      <c r="B1563"/>
-      <c r="C1563"/>
+      <c r="B1563" s="1"/>
+      <c r="C1563" s="1"/>
     </row>
     <row r="1564" spans="2:3">
-      <c r="B1564"/>
-      <c r="C1564"/>
+      <c r="B1564" s="1"/>
+      <c r="C1564" s="1"/>
     </row>
     <row r="1565" spans="2:3">
-      <c r="B1565"/>
-      <c r="C1565"/>
+      <c r="B1565" s="1"/>
+      <c r="C1565" s="1"/>
     </row>
     <row r="1566" spans="2:3">
-      <c r="B1566"/>
-      <c r="C1566"/>
+      <c r="B1566" s="1"/>
+      <c r="C1566" s="1"/>
     </row>
     <row r="1567" spans="2:3">
-      <c r="B1567"/>
-      <c r="C1567"/>
+      <c r="B1567" s="1"/>
+      <c r="C1567" s="1"/>
     </row>
     <row r="1568" spans="2:3">
-      <c r="B1568"/>
-      <c r="C1568"/>
+      <c r="B1568" s="1"/>
+      <c r="C1568" s="1"/>
     </row>
     <row r="1569" spans="2:6">
-      <c r="B1569"/>
-      <c r="C1569"/>
+      <c r="B1569" s="1"/>
+      <c r="C1569" s="1"/>
     </row>
     <row r="1570" spans="2:6">
-      <c r="B1570"/>
-      <c r="C1570"/>
+      <c r="B1570" s="1"/>
+      <c r="C1570" s="1"/>
     </row>
     <row r="1571" spans="2:6">
-      <c r="B1571"/>
-      <c r="C1571"/>
+      <c r="B1571" s="1"/>
+      <c r="C1571" s="1"/>
     </row>
     <row r="1572" spans="2:6">
-      <c r="B1572"/>
-      <c r="C1572"/>
+      <c r="B1572" s="1"/>
+      <c r="C1572" s="1"/>
     </row>
     <row r="1573" spans="2:6">
-      <c r="B1573"/>
-      <c r="C1573"/>
+      <c r="B1573" s="1"/>
+      <c r="C1573" s="1"/>
     </row>
     <row r="1574" spans="2:6">
-      <c r="B1574"/>
-      <c r="C1574"/>
+      <c r="B1574" s="1"/>
+      <c r="C1574" s="1"/>
     </row>
     <row r="1575" spans="2:6">
-      <c r="B1575"/>
-      <c r="C1575"/>
+      <c r="B1575" s="1"/>
+      <c r="C1575" s="1"/>
     </row>
     <row r="1576" spans="2:6">
-      <c r="B1576"/>
-      <c r="C1576"/>
+      <c r="B1576" s="1"/>
+      <c r="C1576" s="1"/>
     </row>
     <row r="1577" spans="2:6">
-      <c r="B1577"/>
-      <c r="C1577"/>
+      <c r="B1577" s="1"/>
+      <c r="C1577" s="1"/>
     </row>
     <row r="1578" spans="2:6">
-      <c r="B1578"/>
-      <c r="C1578"/>
+      <c r="B1578" s="1"/>
+      <c r="C1578" s="1"/>
     </row>
     <row r="1579" spans="2:6">
-      <c r="B1579"/>
-      <c r="C1579"/>
+      <c r="B1579" s="1"/>
+      <c r="C1579" s="1"/>
     </row>
     <row r="1580" spans="2:6">
-      <c r="B1580"/>
-      <c r="C1580"/>
+      <c r="B1580" s="1"/>
+      <c r="C1580" s="1"/>
     </row>
     <row r="1581" spans="2:6">
-      <c r="B1581"/>
-      <c r="C1581"/>
+      <c r="B1581" s="1"/>
+      <c r="C1581" s="1"/>
     </row>
     <row r="1582" spans="2:6">
-      <c r="B1582"/>
-      <c r="C1582"/>
+      <c r="B1582" s="1"/>
+      <c r="C1582" s="1"/>
       <c r="F1582" s="6"/>
     </row>
     <row r="1583" spans="2:6">
-      <c r="B1583"/>
-      <c r="C1583"/>
+      <c r="B1583" s="1"/>
+      <c r="C1583" s="1"/>
       <c r="F1583" s="6"/>
     </row>
     <row r="1584" spans="2:6">
-      <c r="B1584"/>
-      <c r="C1584"/>
+      <c r="B1584" s="1"/>
+      <c r="C1584" s="1"/>
       <c r="F1584" s="6"/>
     </row>
     <row r="1585" spans="2:6">
-      <c r="B1585"/>
-      <c r="C1585"/>
+      <c r="B1585" s="1"/>
+      <c r="C1585" s="1"/>
       <c r="F1585" s="6"/>
     </row>
     <row r="1586" spans="2:6">
-      <c r="B1586"/>
-      <c r="C1586"/>
+      <c r="B1586" s="1"/>
+      <c r="C1586" s="1"/>
       <c r="F1586" s="6"/>
     </row>
     <row r="1587" spans="2:6">
-      <c r="B1587"/>
-      <c r="C1587"/>
+      <c r="B1587" s="1"/>
+      <c r="C1587" s="1"/>
       <c r="F1587" s="6"/>
     </row>
     <row r="1588" spans="2:6">
-      <c r="B1588"/>
-      <c r="C1588"/>
+      <c r="B1588" s="1"/>
+      <c r="C1588" s="1"/>
       <c r="F1588" s="6"/>
     </row>
     <row r="1589" spans="2:6">
-      <c r="B1589"/>
-      <c r="C1589"/>
+      <c r="B1589" s="1"/>
+      <c r="C1589" s="1"/>
       <c r="F1589" s="6"/>
     </row>
     <row r="1590" spans="2:6">
-      <c r="B1590"/>
-      <c r="C1590"/>
+      <c r="B1590" s="1"/>
+      <c r="C1590" s="1"/>
       <c r="F1590" s="6"/>
     </row>
     <row r="1591" spans="2:6">
-      <c r="B1591"/>
-      <c r="C1591"/>
+      <c r="B1591" s="1"/>
+      <c r="C1591" s="1"/>
       <c r="F1591" s="6"/>
     </row>
     <row r="1592" spans="2:6">
-      <c r="B1592"/>
-      <c r="C1592"/>
+      <c r="B1592" s="1"/>
+      <c r="C1592" s="1"/>
       <c r="F1592" s="6"/>
     </row>
     <row r="1593" spans="2:6">
-      <c r="B1593"/>
-      <c r="C1593"/>
+      <c r="B1593" s="1"/>
+      <c r="C1593" s="1"/>
       <c r="F1593" s="6"/>
     </row>
     <row r="1594" spans="2:6">
-      <c r="B1594"/>
-      <c r="C1594"/>
+      <c r="B1594" s="1"/>
+      <c r="C1594" s="1"/>
       <c r="F1594" s="6"/>
     </row>
     <row r="1595" spans="2:6">
-      <c r="B1595"/>
-      <c r="C1595"/>
+      <c r="B1595" s="1"/>
+      <c r="C1595" s="1"/>
       <c r="F1595" s="6"/>
     </row>
     <row r="1596" spans="2:6">
-      <c r="B1596"/>
-      <c r="C1596"/>
+      <c r="B1596" s="1"/>
+      <c r="C1596" s="1"/>
       <c r="F1596" s="6"/>
     </row>
     <row r="1597" spans="2:6">
-      <c r="B1597"/>
-      <c r="C1597"/>
+      <c r="B1597" s="1"/>
+      <c r="C1597" s="1"/>
     </row>
     <row r="1598" spans="2:6">
-      <c r="B1598"/>
-      <c r="C1598"/>
+      <c r="B1598" s="1"/>
+      <c r="C1598" s="1"/>
     </row>
     <row r="1599" spans="2:6">
-      <c r="B1599"/>
-      <c r="C1599"/>
+      <c r="B1599" s="1"/>
+      <c r="C1599" s="1"/>
     </row>
     <row r="1600" spans="2:6">
-      <c r="B1600"/>
-      <c r="C1600"/>
+      <c r="B1600" s="1"/>
+      <c r="C1600" s="1"/>
     </row>
     <row r="1601" spans="2:3">
-      <c r="B1601"/>
-      <c r="C1601"/>
+      <c r="B1601" s="1"/>
+      <c r="C1601" s="1"/>
     </row>
     <row r="1602" spans="2:3">
-      <c r="B1602"/>
-      <c r="C1602"/>
+      <c r="B1602" s="1"/>
+      <c r="C1602" s="1"/>
     </row>
     <row r="1603" spans="2:3">
-      <c r="B1603"/>
-      <c r="C1603"/>
+      <c r="B1603" s="1"/>
+      <c r="C1603" s="1"/>
     </row>
     <row r="1604" spans="2:3">
-      <c r="B1604"/>
-      <c r="C1604"/>
+      <c r="B1604" s="1"/>
+      <c r="C1604" s="1"/>
     </row>
     <row r="1605" spans="2:3">
-      <c r="B1605"/>
-      <c r="C1605"/>
+      <c r="B1605" s="1"/>
+      <c r="C1605" s="1"/>
     </row>
     <row r="1606" spans="2:3">
-      <c r="B1606"/>
-      <c r="C1606"/>
+      <c r="B1606" s="1"/>
+      <c r="C1606" s="1"/>
     </row>
     <row r="1607" spans="2:3">
-      <c r="B1607"/>
-      <c r="C1607"/>
+      <c r="B1607" s="1"/>
+      <c r="C1607" s="1"/>
     </row>
     <row r="1608" spans="2:3">
-      <c r="B1608"/>
-      <c r="C1608"/>
+      <c r="B1608" s="1"/>
+      <c r="C1608" s="1"/>
     </row>
     <row r="1609" spans="2:3">
-      <c r="B1609"/>
-      <c r="C1609"/>
+      <c r="B1609" s="1"/>
+      <c r="C1609" s="1"/>
     </row>
     <row r="1610" spans="2:3">
-      <c r="B1610"/>
-      <c r="C1610"/>
+      <c r="B1610" s="1"/>
+      <c r="C1610" s="1"/>
     </row>
     <row r="1611" spans="2:3">
-      <c r="B1611"/>
-      <c r="C1611"/>
+      <c r="B1611" s="1"/>
+      <c r="C1611" s="1"/>
     </row>
     <row r="1612" spans="2:3">
-      <c r="B1612"/>
-      <c r="C1612"/>
+      <c r="B1612" s="1"/>
+      <c r="C1612" s="1"/>
     </row>
     <row r="1613" spans="2:3">
-      <c r="B1613"/>
-      <c r="C1613"/>
+      <c r="B1613" s="1"/>
+      <c r="C1613" s="1"/>
     </row>
     <row r="1614" spans="2:3">
-      <c r="B1614"/>
-      <c r="C1614"/>
+      <c r="B1614" s="1"/>
+      <c r="C1614" s="1"/>
     </row>
     <row r="1615" spans="2:3">
-      <c r="B1615"/>
-      <c r="C1615"/>
+      <c r="B1615" s="1"/>
+      <c r="C1615" s="1"/>
     </row>
     <row r="1616" spans="2:3">
-      <c r="B1616"/>
-      <c r="C1616"/>
+      <c r="B1616" s="1"/>
+      <c r="C1616" s="1"/>
     </row>
     <row r="1617" spans="2:3">
-      <c r="B1617"/>
-      <c r="C1617"/>
+      <c r="B1617" s="1"/>
+      <c r="C1617" s="1"/>
     </row>
     <row r="1618" spans="2:3">
-      <c r="B1618"/>
-      <c r="C1618"/>
+      <c r="B1618" s="1"/>
+      <c r="C1618" s="1"/>
     </row>
     <row r="1619" spans="2:3">
-      <c r="B1619"/>
-      <c r="C1619"/>
+      <c r="B1619" s="1"/>
+      <c r="C1619" s="1"/>
     </row>
     <row r="1620" spans="2:3">
-      <c r="B1620"/>
-      <c r="C1620"/>
+      <c r="B1620" s="1"/>
+      <c r="C1620" s="1"/>
     </row>
     <row r="1621" spans="2:3">
-      <c r="B1621"/>
-      <c r="C1621"/>
+      <c r="B1621" s="1"/>
+      <c r="C1621" s="1"/>
     </row>
     <row r="1622" spans="2:3">
-      <c r="B1622"/>
-      <c r="C1622"/>
+      <c r="B1622" s="1"/>
+      <c r="C1622" s="1"/>
     </row>
     <row r="1623" spans="2:3">
-      <c r="B1623"/>
-      <c r="C1623"/>
+      <c r="B1623" s="1"/>
+      <c r="C1623" s="1"/>
     </row>
     <row r="1624" spans="2:3">
-      <c r="B1624"/>
-      <c r="C1624"/>
+      <c r="B1624" s="1"/>
+      <c r="C1624" s="1"/>
     </row>
     <row r="1625" spans="2:3">
-      <c r="B1625"/>
-      <c r="C1625"/>
+      <c r="B1625" s="1"/>
+      <c r="C1625" s="1"/>
     </row>
     <row r="1626" spans="2:3">
-      <c r="B1626"/>
-      <c r="C1626"/>
+      <c r="B1626" s="1"/>
+      <c r="C1626" s="1"/>
     </row>
     <row r="1627" spans="2:3">
-      <c r="B1627"/>
-      <c r="C1627"/>
+      <c r="B1627" s="1"/>
+      <c r="C1627" s="1"/>
     </row>
     <row r="1628" spans="2:3">
-      <c r="B1628"/>
-      <c r="C1628"/>
+      <c r="B1628" s="1"/>
+      <c r="C1628" s="1"/>
     </row>
     <row r="1629" spans="2:3">
-      <c r="B1629"/>
-      <c r="C1629"/>
+      <c r="B1629" s="1"/>
+      <c r="C1629" s="1"/>
     </row>
     <row r="1630" spans="2:3">
-      <c r="B1630"/>
-      <c r="C1630"/>
+      <c r="B1630" s="1"/>
+      <c r="C1630" s="1"/>
     </row>
     <row r="1631" spans="2:3">
-      <c r="B1631"/>
-      <c r="C1631"/>
+      <c r="B1631" s="1"/>
+      <c r="C1631" s="1"/>
     </row>
     <row r="1632" spans="2:3">
-      <c r="B1632"/>
-      <c r="C1632"/>
+      <c r="B1632" s="1"/>
+      <c r="C1632" s="1"/>
     </row>
     <row r="1633" spans="2:3">
-      <c r="B1633"/>
-      <c r="C1633"/>
+      <c r="B1633" s="1"/>
+      <c r="C1633" s="1"/>
     </row>
     <row r="1634" spans="2:3">
-      <c r="B1634"/>
-      <c r="C1634"/>
+      <c r="B1634" s="1"/>
+      <c r="C1634" s="1"/>
     </row>
     <row r="1635" spans="2:3">
-      <c r="B1635"/>
-      <c r="C1635"/>
+      <c r="B1635" s="1"/>
+      <c r="C1635" s="1"/>
     </row>
     <row r="1636" spans="2:3">
-      <c r="B1636"/>
-      <c r="C1636"/>
+      <c r="B1636" s="1"/>
+      <c r="C1636" s="1"/>
     </row>
     <row r="1637" spans="2:3">
-      <c r="B1637"/>
-      <c r="C1637"/>
+      <c r="B1637" s="1"/>
+      <c r="C1637" s="1"/>
     </row>
     <row r="1638" spans="2:3">
-      <c r="B1638"/>
-      <c r="C1638"/>
+      <c r="B1638" s="1"/>
+      <c r="C1638" s="1"/>
     </row>
     <row r="1639" spans="2:3">
-      <c r="B1639"/>
-      <c r="C1639"/>
+      <c r="B1639" s="1"/>
+      <c r="C1639" s="1"/>
     </row>
     <row r="1640" spans="2:3">
-      <c r="B1640"/>
-      <c r="C1640"/>
+      <c r="B1640" s="1"/>
+      <c r="C1640" s="1"/>
     </row>
     <row r="1641" spans="2:3">
-      <c r="B1641"/>
-      <c r="C1641"/>
+      <c r="B1641" s="1"/>
+      <c r="C1641" s="1"/>
     </row>
     <row r="1642" spans="2:3">
-      <c r="B1642"/>
-      <c r="C1642"/>
+      <c r="B1642" s="1"/>
+      <c r="C1642" s="1"/>
     </row>
     <row r="1643" spans="2:3">
-      <c r="B1643"/>
-      <c r="C1643"/>
+      <c r="B1643" s="1"/>
+      <c r="C1643" s="1"/>
     </row>
     <row r="1644" spans="2:3">
-      <c r="B1644"/>
-      <c r="C1644"/>
+      <c r="B1644" s="1"/>
+      <c r="C1644" s="1"/>
     </row>
     <row r="1645" spans="2:3">
-      <c r="B1645"/>
-      <c r="C1645"/>
+      <c r="B1645" s="1"/>
+      <c r="C1645" s="1"/>
     </row>
     <row r="1646" spans="2:3">
-      <c r="B1646"/>
-      <c r="C1646"/>
+      <c r="B1646" s="1"/>
+      <c r="C1646" s="1"/>
     </row>
     <row r="1647" spans="2:3">
-      <c r="B1647"/>
-      <c r="C1647"/>
+      <c r="B1647" s="1"/>
+      <c r="C1647" s="1"/>
     </row>
     <row r="1648" spans="2:3">
-      <c r="B1648"/>
-      <c r="C1648"/>
+      <c r="B1648" s="1"/>
+      <c r="C1648" s="1"/>
     </row>
     <row r="1649" spans="2:3">
-      <c r="B1649"/>
-      <c r="C1649"/>
+      <c r="B1649" s="1"/>
+      <c r="C1649" s="1"/>
     </row>
     <row r="1650" spans="2:3">
-      <c r="B1650"/>
-      <c r="C1650"/>
+      <c r="B1650" s="1"/>
+      <c r="C1650" s="1"/>
     </row>
     <row r="1651" spans="2:3">
-      <c r="B1651"/>
-      <c r="C1651"/>
+      <c r="B1651" s="1"/>
+      <c r="C1651" s="1"/>
     </row>
     <row r="1652" spans="2:3">
-      <c r="B1652"/>
-      <c r="C1652"/>
+      <c r="B1652" s="1"/>
+      <c r="C1652" s="1"/>
     </row>
     <row r="1653" spans="2:3">
-      <c r="B1653"/>
-      <c r="C1653"/>
+      <c r="B1653" s="1"/>
+      <c r="C1653" s="1"/>
     </row>
     <row r="1654" spans="2:3">
-      <c r="B1654"/>
-      <c r="C1654"/>
+      <c r="B1654" s="1"/>
+      <c r="C1654" s="1"/>
     </row>
     <row r="1655" spans="2:3">
-      <c r="B1655"/>
-      <c r="C1655"/>
+      <c r="B1655" s="1"/>
+      <c r="C1655" s="1"/>
     </row>
     <row r="1656" spans="2:3">
-      <c r="B1656"/>
-      <c r="C1656"/>
+      <c r="B1656" s="1"/>
+      <c r="C1656" s="1"/>
     </row>
     <row r="1657" spans="2:3">
-      <c r="B1657"/>
-      <c r="C1657"/>
+      <c r="B1657" s="1"/>
+      <c r="C1657" s="1"/>
     </row>
     <row r="1658" spans="2:3">
-      <c r="B1658"/>
-      <c r="C1658"/>
+      <c r="B1658" s="1"/>
+      <c r="C1658" s="1"/>
     </row>
     <row r="1659" spans="2:3">
-      <c r="B1659"/>
-      <c r="C1659"/>
+      <c r="B1659" s="1"/>
+      <c r="C1659" s="1"/>
     </row>
     <row r="1660" spans="2:3">
-      <c r="B1660"/>
-      <c r="C1660"/>
+      <c r="B1660" s="1"/>
+      <c r="C1660" s="1"/>
     </row>
     <row r="1661" spans="2:3">
-      <c r="B1661"/>
-      <c r="C1661"/>
+      <c r="B1661" s="1"/>
+      <c r="C1661" s="1"/>
     </row>
     <row r="1662" spans="2:3">
-      <c r="B1662"/>
-      <c r="C1662"/>
+      <c r="B1662" s="1"/>
+      <c r="C1662" s="1"/>
     </row>
     <row r="1663" spans="2:3">
-      <c r="B1663"/>
-      <c r="C1663"/>
+      <c r="B1663" s="1"/>
+      <c r="C1663" s="1"/>
     </row>
     <row r="1664" spans="2:3">
-      <c r="B1664"/>
-      <c r="C1664"/>
+      <c r="B1664" s="1"/>
+      <c r="C1664" s="1"/>
     </row>
     <row r="1665" spans="2:3">
-      <c r="B1665"/>
-      <c r="C1665"/>
+      <c r="B1665" s="1"/>
+      <c r="C1665" s="1"/>
     </row>
     <row r="1666" spans="2:3">
-      <c r="B1666"/>
-      <c r="C1666"/>
+      <c r="B1666" s="1"/>
+      <c r="C1666" s="1"/>
     </row>
     <row r="1667" spans="2:3">
-      <c r="B1667"/>
-      <c r="C1667"/>
+      <c r="B1667" s="1"/>
+      <c r="C1667" s="1"/>
     </row>
     <row r="1668" spans="2:3">
-      <c r="B1668"/>
-      <c r="C1668"/>
+      <c r="B1668" s="1"/>
+      <c r="C1668" s="1"/>
     </row>
     <row r="1669" spans="2:3">
-      <c r="B1669"/>
-      <c r="C1669"/>
+      <c r="B1669" s="1"/>
+      <c r="C1669" s="1"/>
     </row>
     <row r="1670" spans="2:3">
-      <c r="B1670"/>
-      <c r="C1670"/>
+      <c r="B1670" s="1"/>
+      <c r="C1670" s="1"/>
     </row>
     <row r="1671" spans="2:3">
-      <c r="B1671"/>
-      <c r="C1671"/>
+      <c r="B1671" s="1"/>
+      <c r="C1671" s="1"/>
     </row>
     <row r="1672" spans="2:3">
-      <c r="B1672"/>
-      <c r="C1672"/>
+      <c r="B1672" s="1"/>
+      <c r="C1672" s="1"/>
     </row>
     <row r="1673" spans="2:3">
-      <c r="B1673"/>
-      <c r="C1673"/>
+      <c r="B1673" s="1"/>
+      <c r="C1673" s="1"/>
     </row>
     <row r="1674" spans="2:3">
-      <c r="B1674"/>
-      <c r="C1674"/>
+      <c r="B1674" s="1"/>
+      <c r="C1674" s="1"/>
     </row>
     <row r="1675" spans="2:3">
-      <c r="B1675"/>
-      <c r="C1675"/>
+      <c r="B1675" s="1"/>
+      <c r="C1675" s="1"/>
     </row>
     <row r="1676" spans="2:3">
-      <c r="B1676"/>
-      <c r="C1676"/>
+      <c r="B1676" s="1"/>
+      <c r="C1676" s="1"/>
     </row>
     <row r="1677" spans="2:3">
-      <c r="B1677"/>
-      <c r="C1677"/>
+      <c r="B1677" s="1"/>
+      <c r="C1677" s="1"/>
     </row>
     <row r="1678" spans="2:3">
-      <c r="B1678"/>
-      <c r="C1678"/>
+      <c r="B1678" s="1"/>
+      <c r="C1678" s="1"/>
     </row>
     <row r="1679" spans="2:3">
-      <c r="B1679"/>
-      <c r="C1679"/>
+      <c r="B1679" s="1"/>
+      <c r="C1679" s="1"/>
     </row>
     <row r="1680" spans="2:3">
-      <c r="B1680"/>
-      <c r="C1680"/>
+      <c r="B1680" s="1"/>
+      <c r="C1680" s="1"/>
     </row>
     <row r="1681" spans="2:3">
-      <c r="B1681"/>
-      <c r="C1681"/>
+      <c r="B1681" s="1"/>
+      <c r="C1681" s="1"/>
     </row>
     <row r="1682" spans="2:3">
-      <c r="B1682"/>
-      <c r="C1682"/>
+      <c r="B1682" s="1"/>
+      <c r="C1682" s="1"/>
     </row>
     <row r="1683" spans="2:3">
-      <c r="B1683"/>
-      <c r="C1683"/>
+      <c r="B1683" s="1"/>
+      <c r="C1683" s="1"/>
     </row>
     <row r="1684" spans="2:3">
-      <c r="B1684"/>
-      <c r="C1684"/>
+      <c r="B1684" s="1"/>
+      <c r="C1684" s="1"/>
     </row>
     <row r="1685" spans="2:3">
-      <c r="B1685"/>
-      <c r="C1685"/>
+      <c r="B1685" s="1"/>
+      <c r="C1685" s="1"/>
     </row>
     <row r="1686" spans="2:3">
-      <c r="B1686"/>
-      <c r="C1686"/>
+      <c r="B1686" s="1"/>
+      <c r="C1686" s="1"/>
     </row>
     <row r="1687" spans="2:3">
-      <c r="B1687"/>
-      <c r="C1687"/>
+      <c r="B1687" s="1"/>
+      <c r="C1687" s="1"/>
     </row>
     <row r="1688" spans="2:3">
-      <c r="B1688"/>
-      <c r="C1688"/>
+      <c r="B1688" s="1"/>
+      <c r="C1688" s="1"/>
     </row>
     <row r="1689" spans="2:3">
-      <c r="B1689"/>
-      <c r="C1689"/>
+      <c r="B1689" s="1"/>
+      <c r="C1689" s="1"/>
     </row>
     <row r="1690" spans="2:3">
-      <c r="B1690"/>
-      <c r="C1690"/>
+      <c r="B1690" s="1"/>
+      <c r="C1690" s="1"/>
     </row>
     <row r="1691" spans="2:3">
-      <c r="B1691"/>
-      <c r="C1691"/>
+      <c r="B1691" s="1"/>
+      <c r="C1691" s="1"/>
     </row>
     <row r="1692" spans="2:3">
-      <c r="B1692"/>
-      <c r="C1692"/>
+      <c r="B1692" s="1"/>
+      <c r="C1692" s="1"/>
     </row>
     <row r="1693" spans="2:3">
-      <c r="B1693"/>
-      <c r="C1693"/>
+      <c r="B1693" s="1"/>
+      <c r="C1693" s="1"/>
     </row>
     <row r="1694" spans="2:3">
-      <c r="B1694"/>
-      <c r="C1694"/>
+      <c r="B1694" s="1"/>
+      <c r="C1694" s="1"/>
     </row>
     <row r="1695" spans="2:3">
-      <c r="B1695"/>
-      <c r="C1695"/>
+      <c r="B1695" s="1"/>
+      <c r="C1695" s="1"/>
     </row>
     <row r="1696" spans="2:3">
-      <c r="B1696"/>
-      <c r="C1696"/>
+      <c r="B1696" s="1"/>
+      <c r="C1696" s="1"/>
     </row>
     <row r="1697" spans="2:3">
-      <c r="B1697"/>
-      <c r="C1697"/>
+      <c r="B1697" s="1"/>
+      <c r="C1697" s="1"/>
     </row>
     <row r="1698" spans="2:3">
-      <c r="B1698"/>
-      <c r="C1698"/>
+      <c r="B1698" s="1"/>
+      <c r="C1698" s="1"/>
     </row>
     <row r="1699" spans="2:3">
-      <c r="B1699"/>
-      <c r="C1699"/>
+      <c r="B1699" s="1"/>
+      <c r="C1699" s="1"/>
     </row>
     <row r="1700" spans="2:3">
-      <c r="B1700"/>
-      <c r="C1700"/>
+      <c r="B1700" s="1"/>
+      <c r="C1700" s="1"/>
     </row>
     <row r="1701" spans="2:3">
-      <c r="B1701"/>
-      <c r="C1701"/>
+      <c r="B1701" s="1"/>
+      <c r="C1701" s="1"/>
     </row>
     <row r="1702" spans="2:3">
-      <c r="B1702"/>
-      <c r="C1702"/>
+      <c r="B1702" s="1"/>
+      <c r="C1702" s="1"/>
     </row>
     <row r="1703" spans="2:3">
-      <c r="B1703"/>
-      <c r="C1703"/>
+      <c r="B1703" s="1"/>
+      <c r="C1703" s="1"/>
     </row>
     <row r="1704" spans="2:3">
-      <c r="B1704"/>
-      <c r="C1704"/>
+      <c r="B1704" s="1"/>
+      <c r="C1704" s="1"/>
     </row>
     <row r="2260" spans="3:5">
       <c r="C2260" s="4"/>
@@ -8147,7 +8367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/stakeholderinterviews.xlsx
+++ b/stakeholderinterviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/stakeholderinterviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24CBE4D-ADCF-E345-A8B0-A7C136D43623}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7D1B23-2A6D-9D4F-93EF-DE16D77FC1FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="460" windowWidth="38500" windowHeight="28340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="45240" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="173">
   <si>
     <t>type</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Name of interviewee</t>
   </si>
   <si>
-    <t>Enter full name of interviewee</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -128,12 +125,6 @@
     <t>Service provider</t>
   </si>
   <si>
-    <t>Beneficiaries</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>interviewee_name</t>
   </si>
   <si>
@@ -146,34 +137,22 @@
     <t>Department/organisation of interviewee</t>
   </si>
   <si>
-    <t>Enter the name of department or organisation the interviewee is affiliated with</t>
-  </si>
-  <si>
     <t>interviewee_position</t>
   </si>
   <si>
     <t>Position of interviewee</t>
   </si>
   <si>
-    <t>Enter the position of the interviewee in the department or organisation</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
     <t>interview_preamble</t>
   </si>
   <si>
-    <t>You are now going to interview ${interviewee_name}.</t>
-  </si>
-  <si>
     <t>audio</t>
   </si>
   <si>
     <t>interview_audio</t>
-  </si>
-  <si>
-    <t>Start interview</t>
   </si>
   <si>
     <t>interview_end</t>
@@ -181,6 +160,431 @@
   <si>
     <t>Interview finished.
 Thank ${interviewee_name}.</t>
+  </si>
+  <si>
+    <t>**REQUIRED:** Enter full name of interviewee</t>
+  </si>
+  <si>
+    <t>**REQUIRED:** Enter the name of department or organisation the interviewee is affiliated with</t>
+  </si>
+  <si>
+    <t>Policymaker</t>
+  </si>
+  <si>
+    <t>Community leader</t>
+  </si>
+  <si>
+    <t>Pregnant women</t>
+  </si>
+  <si>
+    <t>Mothers</t>
+  </si>
+  <si>
+    <t>Fathers</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>pis_policymaker1</t>
+  </si>
+  <si>
+    <t>acknowledge</t>
+  </si>
+  <si>
+    <t>pis_policymaker2</t>
+  </si>
+  <si>
+    <t>All question/s regarding the study have been addressed.</t>
+  </si>
+  <si>
+    <t>pis_policymaker3</t>
+  </si>
+  <si>
+    <t>All question/s that have not been addressed have been noted and will be referred to appropriate team member.</t>
+  </si>
+  <si>
+    <t>My name is ${interviewee_name}.
+1. I have read the information sheet and have had the opportunity to ask questions and received satisfactory answers.
+2. I understand that this research project has been reviewed by the relevant ethical authorities, and received ethics approval through, the University of Papua New Guinea the Ethics Committee and the Faculty of Tropical Medicine and the University of Oxford Research Ethics Committee.
+3. I have agreed to participate voluntarily and can refuse to answer questions or terminate the interview at any time without giving a reason and without any consequence.
+4. I understand that participation will involve an interview, as summarized in the Participant Information Sheet.
+5. I understand that any information I choose to disclose will be recorded anonymously and held confidentially and I am aware who will have access to personal data provided.
+6. I understand the research results will be shared with other scientist and health-workers nationally and internationally.
+7. I understand that I can raise concerns or make a complaint any time necessary.
+8. I have had the study explained to me. I have understood all that has been read and had my questions answered satisfactorily.</t>
+  </si>
+  <si>
+    <t>consent1</t>
+  </si>
+  <si>
+    <t>I do not agree to be interviewed</t>
+  </si>
+  <si>
+    <t>Not sure</t>
+  </si>
+  <si>
+    <t>I agree to the use of anonymous quotes in future publications</t>
+  </si>
+  <si>
+    <t>consent2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, as long as any information that might be used to identify me remains anonymous </t>
+  </si>
+  <si>
+    <t>Yes, as long as I review the quote before it is used</t>
+  </si>
+  <si>
+    <t>No, but the information I provide may be used to inform the overall analysis.</t>
+  </si>
+  <si>
+    <t>Other stipulations</t>
+  </si>
+  <si>
+    <t>end_no_consent</t>
+  </si>
+  <si>
+    <t>${interviewee_name} has not provided consent. Stop interview. Thank ${interviewee_name}.</t>
+  </si>
+  <si>
+    <t>end_unsure_consent</t>
+  </si>
+  <si>
+    <t>${interviewee_name} unsure of consent. Stop interview. Thank ${interviewee_name} and ask when you can call back to confirm consent.</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>${interviewee_type} = '1' or ${interviewee_type} = '2' or ${interviewee_type} = '3'</t>
+  </si>
+  <si>
+    <t>interview_no_audio</t>
+  </si>
+  <si>
+    <t>${interviewee_name} has not consented to auido recording of interview.
+Start taking notes of the interview.</t>
+  </si>
+  <si>
+    <t>select_one consent1</t>
+  </si>
+  <si>
+    <t>select_one consent2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>select_one interviewer</t>
+  </si>
+  <si>
+    <t>interviewer_name</t>
+  </si>
+  <si>
+    <t>Name of interviewer</t>
+  </si>
+  <si>
+    <t>interviewer</t>
+  </si>
+  <si>
+    <t>Laura Naidi</t>
+  </si>
+  <si>
+    <t>Interviewer 2</t>
+  </si>
+  <si>
+    <t>Interviewer 3</t>
+  </si>
+  <si>
+    <t>Interviewer 4</t>
+  </si>
+  <si>
+    <t>Good morining/Good afternoon.
+My name is ${interviewer_name} and I am a researcher for a study entitled **Maternal and newborn health in Papua New Guinea: A synthesis of evidence and identification of gaps**.
+I am here to interview you as a relevant stakeholder on the topic of maternal and neonatal health in Papua New Guinea.</t>
+  </si>
+  <si>
+    <t>consent_introduction</t>
+  </si>
+  <si>
+    <t>I am now going to show you the consent form for this interview where you can review what you are agreeing to if you consent to being a participant in this study and be interviewed.</t>
+  </si>
+  <si>
+    <t>I agree to be interviewed and for the interview to be digitally recorded</t>
+  </si>
+  <si>
+    <t>I agree to be intervivewed but **not** for the interview to be digitally recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consent for interview and for interview to be recorded. </t>
+  </si>
+  <si>
+    <t>consent_signature</t>
+  </si>
+  <si>
+    <t>${interviewee_name} has consented to audio recording of the interview.
+Start interview recording.</t>
+  </si>
+  <si>
+    <t>Type in notes from the interview.</t>
+  </si>
+  <si>
+    <t>You are now going to interview ${interviewee_name}.
+Make sure you cover all of the topics indicated in the interview guide.</t>
+  </si>
+  <si>
+    <t>interviewee_individual</t>
+  </si>
+  <si>
+    <t>Individual interviews for policymaker, service provider or community leader</t>
+  </si>
+  <si>
+    <t>Group interviews for pregnant women, mothers or fathers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${interviewee_type} = '4' or ${interviewee_type} = '5' or ${interviewee_type} = '6' </t>
+  </si>
+  <si>
+    <t>Your are now going to conduct a focus group discussion.
+Make sure you cover all of the topics indicated in the interview guide.</t>
+  </si>
+  <si>
+    <t>interview_group_audio</t>
+  </si>
+  <si>
+    <t>interview_group_preamble</t>
+  </si>
+  <si>
+    <t>pis_individual</t>
+  </si>
+  <si>
+    <t>Participant Information Sheet - Individual interviewee</t>
+  </si>
+  <si>
+    <t>consent_group1</t>
+  </si>
+  <si>
+    <t>consent_group2</t>
+  </si>
+  <si>
+    <t>consent_group3</t>
+  </si>
+  <si>
+    <t>${consent_group2} = '1' or ${consent_group2} = '2'</t>
+  </si>
+  <si>
+    <t>consent_individual1</t>
+  </si>
+  <si>
+    <t>consent_individual2</t>
+  </si>
+  <si>
+    <t>consent_individual3</t>
+  </si>
+  <si>
+    <t>${consent_individual2} = '1' or ${consent_individual2} = '2'</t>
+  </si>
+  <si>
+    <t>${consent_individual2} = '1'</t>
+  </si>
+  <si>
+    <t>${consent_individual2} = '2'</t>
+  </si>
+  <si>
+    <t>pis_group</t>
+  </si>
+  <si>
+    <t>Participant Information Sheet - Focus Group Discussion</t>
+  </si>
+  <si>
+    <t>interview_group</t>
+  </si>
+  <si>
+    <t>interviewee_group1</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>group_number</t>
+  </si>
+  <si>
+    <t>${group_number}</t>
+  </si>
+  <si>
+    <t>individual_introduction</t>
+  </si>
+  <si>
+    <t>group_introduction</t>
+  </si>
+  <si>
+    <t>group_introduction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Why are we doing a study and what is it about?**
+Papua New Guinea has made considerable efforts to reduce maternal and newborn deaths. Despite achieving reductions in maternal deaths, maternal and newborn deaths remain unacceptably high compared to other parts of the world. We are conducting this research to better understand the factors that contribute to the high rates of deaths in mothers and their newborns. Information we gain from this research will be help inform national policies and programmes that aim to improve maternal and neonatal health in PNG. </t>
+  </si>
+  <si>
+    <t>group_introduction_2</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>interviewee_type_name</t>
+  </si>
+  <si>
+    <t>How many ${interviewee_type_name} are part of the focus group discussion?</t>
+  </si>
+  <si>
+    <t>Good morining/Good afternoon.
+My name is ${interviewer_name} and I am a researcher for a study entitled **Maternal and newborn health in Papua New Guinea: A synthesis of evidence and identification of gaps**.
+I am here to invite you as a relevant stakeholder on the topic of maternal and neonatal health in Papua New Guinea for a focus group discussion for ${interviewee_type_name}.</t>
+  </si>
+  <si>
+    <t>**Do I have to take part?**
+You do not have to take part. Your participation is entirely voluntary and will not in any way affect the care or services provided to you and your children. You can ask questions before deciding to participate. You may decide now or at any time that you no longer want to participate and if so, do not need to provide any reason for leaving. If you choose not to participate, or if you choose to withdraw from the study at any time, this will not affect the care you receive from any health service.</t>
+  </si>
+  <si>
+    <t>group_introduction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Who are the other participants of this study?**
+We will invite different groups of participants to take part in interviews or focus group discussions. These include mothers and fathers, community leaders, healthcare providers, policy makers and others involved in maternal and newborn health. </t>
+  </si>
+  <si>
+    <t>group_introduction_4</t>
+  </si>
+  <si>
+    <t>**What will happen in the research study?**
+If you choose to participate in the research study, you will first be asked to sign a consent form.  We will then ask you to complete a brief set of questions about yourself, your schooling, work, your family and household, social support and past experiences with your pregnancy and delivery. After that we will invite you to sit together with a small group of women or men of your age to talk about your experience and views on maternal and newborn care in PNG. A researcher will be there to take notes of your discussion. The session will be recorded.  This will take approximately 1.5 hours. You are free to stop or leave the discussion at any point.</t>
+  </si>
+  <si>
+    <t>group_introduction_5</t>
+  </si>
+  <si>
+    <t>**Are there any potential risks in taking part on this study?**
+No. If you become distressed or sad as a result of the interview or the discussions, you can decide to stop at any time.</t>
+  </si>
+  <si>
+    <t>group_introduction_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**What happens to the research data provided?**
+We will speak to you in groups in a private room. We will not share information you have provided with anyone else. Each participant will be assigned an identification number to preserve anonymity. In this way, everything you say will remain anonymous. The recordings will be destroyed once the transcripts have been checked for accuracy. Only the study staff will have access to your information. </t>
+  </si>
+  <si>
+    <t>group_introduction_7</t>
+  </si>
+  <si>
+    <t>**How will the information be used?**
+We will share what we find with local authorities and with other healthcare providers on maternal and newborn care in PNG in order to help improve services and interventions for maternal and newborn health.  We may also share our results with other researchers and scientists by publishing the report in a journal and international conferences. Again, we will never identify you by your name or any other personal data.</t>
+  </si>
+  <si>
+    <t>group_introduction_8</t>
+  </si>
+  <si>
+    <t>**Who has reviewed this project?**
+This project has been reviewed by two separate ethics committees: the University of Papua New Guinea, School of Medicine and Health Science ethics committee, and the ethics committee of the University of Oxford Tropical Research.</t>
+  </si>
+  <si>
+    <t>group_introduction_9</t>
+  </si>
+  <si>
+    <t>**Would I receive any compensation if I take part?**
+There are no personal benefits to taking part, but your responses will contribute to knowledge that may help to improve the services offered for women in perinatal period and newborns here in PNG. You will be reimbursed for the transport cost incurred when you travel to and from study meetings and compensated for time lost during the discussions.</t>
+  </si>
+  <si>
+    <t>group_introduction_10</t>
+  </si>
+  <si>
+    <t>**Who do I contact if I have a concern about the study or I wish to complain?**
+If you have a concern about any aspect of this project, please contact Dr Vivienne Kuma (tel +675 72143853). We will do our best to answer any of your queries. If you have not been treated as stated above or wish to know participants’ rights, please contact: 
+University of Papua New Guinea, School of Medicine and Health Science Ethics Committee. Contact Details: ***</t>
+  </si>
+  <si>
+    <t>group_introduction_11</t>
+  </si>
+  <si>
+    <t>**Who is doing this study, where would it be done and by whom is it sponsored?**
+The Principal Investigator is Dr Proochista Ariana from Oxford University. She is supported by a team of local and international researchers in collaboration with local health authorities. All research by Oxford University has to be approved before it begins by several committees include the University’s ethical group and local committee in the country where the research is being carried out. These committees carefully review planned work to agree that the research is important, relevant to the local country and follows nationally and internationally agreed guidelines. This includes ensuring that all participants’ safety and rights are respected. 
+The research is sponsored by a Global Challenges Research Fund, University of Oxford.</t>
+  </si>
+  <si>
+    <t>interviewee_group_name</t>
+  </si>
+  <si>
+    <t>If interviewee unable to read, read the consent form to the interviewee.</t>
+  </si>
+  <si>
+    <t>pis_group1</t>
+  </si>
+  <si>
+    <t>pis_group2</t>
+  </si>
+  <si>
+    <t>pis_group3</t>
+  </si>
+  <si>
+    <t>consent_group_introduction</t>
+  </si>
+  <si>
+    <t>consent_group_signature</t>
+  </si>
+  <si>
+    <t>${consent_group2} = '3'</t>
+  </si>
+  <si>
+    <t>${consent_group2} = '4'</t>
+  </si>
+  <si>
+    <t>${consent_individual2} = '3'</t>
+  </si>
+  <si>
+    <t>end_no_consent_group</t>
+  </si>
+  <si>
+    <t>end_unsure_consent_group</t>
+  </si>
+  <si>
+    <t>${consent_individual2} = '4'</t>
+  </si>
+  <si>
+    <t>if(${interviewee_type} = '1', 'policymaker', if(${interviewee_type} = '2', 'service provider', if(${interviewee_type} = '3', 'community leader', if(${interviewee_type} = '4', 'pregnant women', if(${interviewee_type} = '5', 'mothers',  'fathers')))))</t>
+  </si>
+  <si>
+    <t>Do you have any questions regarding the study based on the participant information sheet we have provided you earlier?
+&lt;small&gt;If participant has any questions, address them accordingly. If a question has been raised that you feel you are unable to answer or requires someone else from the team to answer, inform the participant that you will refer his/her question to the appropriate team member.&lt;/small&gt;</t>
+  </si>
+  <si>
+    <t>**REQUIRED:** Enter the position of the interviewee in the department or organisation</t>
+  </si>
+  <si>
+    <t>Start focus group discussion recording.</t>
+  </si>
+  <si>
+    <t>${interviewee_name} has not provided consent. Stop interview.</t>
+  </si>
+  <si>
+    <t>My name is ${interviewee_group_name}.
+1. I have read the information sheet and have had the opportunity to ask questions and received satisfactory answers.
+2. I understand that this research project has been reviewed by the relevant ethical authorities, and received ethics approval through, the University of Papua New Guinea the Ethics Committee and the Faculty of Tropical Medicine and the University of Oxford Research Ethics Committee.
+3. I have agreed to participate voluntarily and can refuse to answer questions or terminate the interview at any time without giving a reason and without any consequence.
+4. I understand that participation will involve an interview, as summarized in the Participant Information Sheet.
+5. I understand that any information I choose to disclose will be recorded anonymously and held confidentially and I am aware who will have access to personal data provided.
+6. I understand the research results will be shared with other scientist and health-workers nationally and internationally.
+7. I understand that I can raise concerns or make a complaint any time necessary.
+8. I have had the study explained to me. I have understood all that has been read and had my questions answered satisfactorily.</t>
   </si>
 </sst>
 </file>
@@ -220,7 +624,7 @@
       <name val="Menlo Regular"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +634,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -263,11 +679,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,13 +1052,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -629,67 +1071,67 @@
     <col min="8" max="9" width="18.83203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="25.83203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="40.83203125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="18.83203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="50.83203125" style="3" customWidth="1"/>
+    <col min="13" max="14" width="18.83203125" style="3" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>84</v>
+      </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -697,187 +1139,1127 @@
         <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="112">
+      <c r="A5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="L5" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="48">
+      <c r="A7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="198" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" ht="218" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="32">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="48">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="32">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="48">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="48">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="80">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="409.6">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="32">
+      <c r="A17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="32">
+      <c r="A18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="K18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="32">
+      <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="32">
+      <c r="A22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="85" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="64">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="64">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="48">
+      <c r="A28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="C29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" ht="32">
+      <c r="A30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="K30" s="4"/>
+      <c r="M30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="32">
+      <c r="A32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="14" customFormat="1" ht="218" customHeight="1">
+      <c r="A33" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" ht="280" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" ht="240">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" ht="160">
+      <c r="A36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" ht="336">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" ht="112">
+      <c r="A38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="240">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" ht="208">
+      <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" ht="144">
+      <c r="A41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" ht="208">
+      <c r="A42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" ht="224">
+      <c r="A43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" ht="400">
+      <c r="A44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" ht="208">
+      <c r="A45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="32">
+      <c r="A46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="M46" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="48">
+      <c r="A47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="M47" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="32">
+      <c r="A48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="48">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="49" spans="1:14" ht="80">
+      <c r="A49" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="32">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="409.6">
+      <c r="A50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" ht="32">
+      <c r="A51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="M51" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="32">
+      <c r="A52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="K52" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="32">
+      <c r="A53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="48">
+      <c r="A54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="K54" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="64">
+      <c r="A55" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="K55" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="G57" s="3"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" ht="48">
+      <c r="A60" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+    </row>
+    <row r="61" spans="1:14" ht="80">
+      <c r="A61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B62" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" ht="32">
+      <c r="A65" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="K65" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="C66" s="4"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" ht="64">
+      <c r="A67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="K67" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" ht="48">
+      <c r="A69" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="53" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="48">
-      <c r="A8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="170" customHeight="1">
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="3" customFormat="1"/>
-    <row r="18" s="3" customFormat="1"/>
-    <row r="19" s="3" customFormat="1"/>
-    <row r="20" s="3" customFormat="1"/>
-    <row r="21" s="3" customFormat="1"/>
-    <row r="22" s="3" customFormat="1"/>
-    <row r="23" s="3" customFormat="1"/>
-    <row r="24" s="3" customFormat="1"/>
-    <row r="25" s="3" customFormat="1"/>
-    <row r="26" s="3" customFormat="1" ht="35" customHeight="1"/>
-    <row r="27" s="3" customFormat="1"/>
-    <row r="28" s="3" customFormat="1"/>
-    <row r="29" s="3" customFormat="1"/>
-    <row r="30" s="3" customFormat="1"/>
-    <row r="31" s="3" customFormat="1"/>
-    <row r="32" s="3" customFormat="1"/>
-    <row r="33" s="3" customFormat="1"/>
-    <row r="34" s="3" customFormat="1"/>
-    <row r="35" s="3" customFormat="1"/>
-    <row r="36" s="3" customFormat="1"/>
-    <row r="37" s="3" customFormat="1"/>
-    <row r="38" s="3" customFormat="1"/>
-    <row r="39" s="3" customFormat="1"/>
-    <row r="40" s="3" customFormat="1"/>
-    <row r="41" s="3" customFormat="1"/>
-    <row r="42" s="3" customFormat="1"/>
-    <row r="43" s="3" customFormat="1"/>
-    <row r="44" s="3" customFormat="1"/>
-    <row r="45" s="3" customFormat="1"/>
-    <row r="46" s="3" customFormat="1"/>
-    <row r="47" s="3" customFormat="1"/>
-    <row r="48" s="3" customFormat="1"/>
-    <row r="49" s="3" customFormat="1"/>
-    <row r="50" s="3" customFormat="1"/>
-    <row r="51" s="3" customFormat="1"/>
-    <row r="52" s="3" customFormat="1"/>
-    <row r="53" s="3" customFormat="1"/>
-    <row r="54" s="3" customFormat="1"/>
-    <row r="55" s="3" customFormat="1"/>
-    <row r="56" s="3" customFormat="1"/>
-    <row r="57" s="3" customFormat="1"/>
-    <row r="58" s="3" customFormat="1"/>
-    <row r="59" s="3" customFormat="1"/>
-    <row r="60" s="3" customFormat="1"/>
-    <row r="61" s="3" customFormat="1"/>
-    <row r="62" s="3" customFormat="1"/>
-    <row r="63" s="3" customFormat="1"/>
-    <row r="64" s="3" customFormat="1"/>
-    <row r="65" s="3" customFormat="1"/>
-    <row r="66" s="3" customFormat="1"/>
-    <row r="67" s="3" customFormat="1"/>
-    <row r="68" s="3" customFormat="1"/>
-    <row r="69" s="3" customFormat="1"/>
-    <row r="70" s="3" customFormat="1"/>
-    <row r="71" s="3" customFormat="1"/>
-    <row r="72" s="3" customFormat="1"/>
-    <row r="73" s="3" customFormat="1"/>
-    <row r="74" s="3" customFormat="1"/>
-    <row r="75" s="3" customFormat="1"/>
-    <row r="76" s="3" customFormat="1"/>
-    <row r="77" s="3" customFormat="1"/>
-    <row r="78" s="3" customFormat="1"/>
-    <row r="79" s="3" customFormat="1"/>
-    <row r="80" s="3" customFormat="1"/>
-    <row r="81" s="3" customFormat="1"/>
-    <row r="82" s="3" customFormat="1"/>
-    <row r="83" s="3" customFormat="1"/>
-    <row r="84" s="3" customFormat="1"/>
-    <row r="85" s="3" customFormat="1"/>
-    <row r="86" s="3" customFormat="1"/>
-    <row r="87" s="3" customFormat="1"/>
-    <row r="88" s="3" customFormat="1"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="G75" s="3"/>
+      <c r="K75" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="7:7">
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="7:7" ht="35" customHeight="1">
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="7:7">
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="7:7">
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="7:7">
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="7:7">
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="7:7">
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="7:7">
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="7:7">
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="7:7">
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="7:7">
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="7:7">
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="7:7">
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="7:7">
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="7:7">
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="7:7">
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="7:7">
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="7:7">
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="7:7">
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="7:7">
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="7:7">
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="7:7">
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="7:7">
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="7:7">
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="7:7">
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="7:7">
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="7:7">
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="7:7">
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="7:7">
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="7:7">
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="7:7">
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="7:7">
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="7:7">
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="7:7">
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="7:7">
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="7:7">
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="7:7">
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="7:7">
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="7:7">
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="7:7">
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="7:7">
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="7:7">
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="7:7">
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="7:7">
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="7:7">
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="7:7">
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="7:7">
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="7:7">
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="7:7">
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="7:7">
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="7:7">
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="7:7">
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="7:7">
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="7:7">
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="7:7">
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="7:7">
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="7:7">
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="7:7">
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="7:7">
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="7:7">
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="7:7">
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="7:7">
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="7:7">
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="7:7">
+      <c r="G144" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -891,10 +2273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2679"/>
+  <dimension ref="A1:F2680"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -922,84 +2304,223 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="32">
+      <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C9" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="48">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C10" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1"/>
-    <row r="6" spans="1:3" s="1" customFormat="1"/>
-    <row r="7" spans="1:3" s="1" customFormat="1"/>
-    <row r="8" spans="1:3" s="1" customFormat="1"/>
-    <row r="9" spans="1:3" s="1" customFormat="1"/>
-    <row r="10" spans="1:3" s="1" customFormat="1"/>
-    <row r="11" spans="1:3" s="1" customFormat="1"/>
-    <row r="12" spans="1:3" s="1" customFormat="1"/>
-    <row r="13" spans="1:3" s="1" customFormat="1"/>
-    <row r="14" spans="1:3" s="1" customFormat="1"/>
-    <row r="15" spans="1:3" s="1" customFormat="1"/>
-    <row r="16" spans="1:3" s="1" customFormat="1"/>
-    <row r="17" spans="3:5" s="1" customFormat="1"/>
-    <row r="18" spans="3:5" s="1" customFormat="1"/>
-    <row r="19" spans="3:5" s="1" customFormat="1"/>
-    <row r="20" spans="3:5" s="1" customFormat="1"/>
-    <row r="21" spans="3:5" s="1" customFormat="1"/>
-    <row r="22" spans="3:5" s="1" customFormat="1"/>
-    <row r="23" spans="3:5" s="1" customFormat="1"/>
-    <row r="24" spans="3:5" s="1" customFormat="1"/>
-    <row r="25" spans="3:5" s="1" customFormat="1"/>
-    <row r="26" spans="3:5">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="3:5">
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="48">
+      <c r="A14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="32">
+      <c r="A15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="32">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+    <row r="28" spans="1:5">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="4"/>
@@ -1087,6 +2608,7 @@
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="3:5">
+      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
@@ -1140,11 +2662,11 @@
     </row>
     <row r="65" spans="4:5">
       <c r="D65" s="4"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="4:5">
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="4:5">
       <c r="D67" s="4"/>
@@ -1176,11 +2698,11 @@
     </row>
     <row r="74" spans="4:5">
       <c r="D74" s="4"/>
-      <c r="E74" s="5"/>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="4:5">
       <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="4:5">
       <c r="D76" s="4"/>
@@ -1286,8 +2808,9 @@
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="200" spans="3:3">
-      <c r="C200" s="6"/>
+    <row r="102" spans="4:5">
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
     </row>
     <row r="201" spans="3:3">
       <c r="C201" s="6"/>
@@ -1331,12 +2854,8 @@
     <row r="214" spans="3:3">
       <c r="C214" s="6"/>
     </row>
-    <row r="324" spans="1:6">
-      <c r="A324" s="6"/>
-      <c r="B324" s="6"/>
-      <c r="C324" s="6"/>
-      <c r="D324" s="6"/>
-      <c r="F324" s="6"/>
+    <row r="215" spans="3:3">
+      <c r="C215" s="6"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="6"/>
@@ -1347,71 +2866,53 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="6"/>
-      <c r="B326" s="1"/>
-      <c r="C326" s="1"/>
+      <c r="B326" s="6"/>
+      <c r="C326" s="6"/>
       <c r="D326" s="6"/>
       <c r="F326" s="6"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="6"/>
-      <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
       <c r="D327" s="6"/>
       <c r="F327" s="6"/>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="6"/>
-      <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
       <c r="D328" s="6"/>
       <c r="F328" s="6"/>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="6"/>
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
       <c r="D329" s="6"/>
       <c r="F329" s="6"/>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="6"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
       <c r="D330" s="6"/>
       <c r="F330" s="6"/>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="6"/>
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
       <c r="D331" s="6"/>
       <c r="F331" s="6"/>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="6"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
       <c r="D332" s="6"/>
       <c r="F332" s="6"/>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="6"/>
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
       <c r="D333" s="6"/>
       <c r="F333" s="6"/>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="6"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
       <c r="D334" s="6"/>
       <c r="F334" s="6"/>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="6"/>
-      <c r="B335" s="6"/>
-      <c r="C335" s="6"/>
       <c r="D335" s="6"/>
       <c r="F335" s="6"/>
     </row>
@@ -1601,6 +3102,7 @@
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
+      <c r="D362" s="6"/>
       <c r="F362" s="6"/>
     </row>
     <row r="363" spans="1:6">
@@ -1623,14 +3125,12 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="6"/>
-      <c r="B366" s="1"/>
-      <c r="C366" s="1"/>
+      <c r="B366" s="6"/>
+      <c r="C366" s="6"/>
       <c r="F366" s="6"/>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="6"/>
-      <c r="B367" s="6"/>
-      <c r="C367" s="6"/>
       <c r="F367" s="6"/>
     </row>
     <row r="368" spans="1:6">
@@ -1725,26 +3225,24 @@
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="6"/>
-      <c r="B383" s="1"/>
-      <c r="C383" s="1"/>
+      <c r="B383" s="6"/>
+      <c r="C383" s="6"/>
       <c r="F383" s="6"/>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="6"/>
-      <c r="B384" s="6"/>
-      <c r="C384" s="6"/>
       <c r="F384" s="6"/>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="6"/>
-      <c r="B385" s="7"/>
-      <c r="C385" s="7"/>
+      <c r="B385" s="6"/>
+      <c r="C385" s="6"/>
       <c r="F385" s="6"/>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="6"/>
-      <c r="B386" s="7"/>
-      <c r="C386" s="7"/>
+      <c r="B386" s="6"/>
+      <c r="C386" s="6"/>
       <c r="F386" s="6"/>
     </row>
     <row r="387" spans="1:6">
@@ -1761,32 +3259,26 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="6"/>
-      <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
+      <c r="B389" s="6"/>
+      <c r="C389" s="6"/>
       <c r="F389" s="6"/>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="6"/>
-      <c r="B390" s="1"/>
-      <c r="C390" s="1"/>
       <c r="F390" s="6"/>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="6"/>
-      <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
       <c r="F391" s="6"/>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="6"/>
-      <c r="B392" s="7"/>
-      <c r="C392" s="7"/>
       <c r="F392" s="6"/>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="6"/>
-      <c r="B393" s="7"/>
-      <c r="C393" s="7"/>
+      <c r="B393" s="6"/>
+      <c r="C393" s="6"/>
       <c r="F393" s="6"/>
     </row>
     <row r="394" spans="1:6">
@@ -1881,14 +3373,12 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="6"/>
-      <c r="B409" s="1"/>
-      <c r="C409" s="1"/>
+      <c r="B409" s="6"/>
+      <c r="C409" s="6"/>
       <c r="F409" s="6"/>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="6"/>
-      <c r="B410" s="6"/>
-      <c r="C410" s="6"/>
       <c r="F410" s="6"/>
     </row>
     <row r="411" spans="1:6">
@@ -2175,14 +3665,12 @@
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="6"/>
-      <c r="B458" s="1"/>
-      <c r="C458" s="1"/>
+      <c r="B458" s="6"/>
+      <c r="C458" s="6"/>
       <c r="F458" s="6"/>
     </row>
     <row r="459" spans="1:6">
       <c r="A459" s="6"/>
-      <c r="B459" s="6"/>
-      <c r="C459" s="6"/>
       <c r="F459" s="6"/>
     </row>
     <row r="460" spans="1:6">
@@ -2193,14 +3681,12 @@
     </row>
     <row r="461" spans="1:6">
       <c r="A461" s="6"/>
-      <c r="B461" s="1"/>
-      <c r="C461" s="1"/>
+      <c r="B461" s="6"/>
+      <c r="C461" s="6"/>
       <c r="F461" s="6"/>
     </row>
     <row r="462" spans="1:6">
       <c r="A462" s="6"/>
-      <c r="B462" s="6"/>
-      <c r="C462" s="6"/>
       <c r="F462" s="6"/>
     </row>
     <row r="463" spans="1:6">
@@ -4075,10 +5561,11 @@
       <c r="C774" s="6"/>
       <c r="F774" s="6"/>
     </row>
-    <row r="776" spans="1:6">
-      <c r="A776" s="6"/>
-      <c r="B776" s="6"/>
-      <c r="C776" s="6"/>
+    <row r="775" spans="1:6">
+      <c r="A775" s="6"/>
+      <c r="B775" s="6"/>
+      <c r="C775" s="6"/>
+      <c r="F775" s="6"/>
     </row>
     <row r="777" spans="1:6">
       <c r="A777" s="6"/>
@@ -6300,1968 +7787,100 @@
       <c r="B1220" s="6"/>
       <c r="C1220" s="6"/>
     </row>
-    <row r="1222" spans="1:3">
-      <c r="B1222" s="1"/>
-      <c r="C1222" s="1"/>
-    </row>
-    <row r="1223" spans="1:3">
-      <c r="B1223" s="1"/>
-      <c r="C1223" s="1"/>
-    </row>
-    <row r="1224" spans="1:3">
-      <c r="B1224" s="1"/>
-      <c r="C1224" s="1"/>
-    </row>
-    <row r="1225" spans="1:3">
-      <c r="B1225" s="1"/>
-      <c r="C1225" s="1"/>
-    </row>
-    <row r="1226" spans="1:3">
-      <c r="B1226" s="1"/>
-      <c r="C1226" s="1"/>
-    </row>
-    <row r="1227" spans="1:3">
-      <c r="B1227" s="1"/>
-      <c r="C1227" s="1"/>
-    </row>
-    <row r="1228" spans="1:3">
-      <c r="B1228" s="1"/>
-      <c r="C1228" s="1"/>
-    </row>
-    <row r="1229" spans="1:3">
-      <c r="B1229" s="1"/>
-      <c r="C1229" s="1"/>
-    </row>
-    <row r="1230" spans="1:3">
-      <c r="B1230" s="1"/>
-      <c r="C1230" s="1"/>
-    </row>
-    <row r="1231" spans="1:3">
-      <c r="B1231" s="1"/>
-      <c r="C1231" s="1"/>
-    </row>
-    <row r="1232" spans="1:3">
-      <c r="B1232" s="1"/>
-      <c r="C1232" s="1"/>
-    </row>
-    <row r="1233" spans="2:3">
-      <c r="B1233" s="1"/>
-      <c r="C1233" s="1"/>
-    </row>
-    <row r="1234" spans="2:3">
-      <c r="B1234" s="1"/>
-      <c r="C1234" s="1"/>
-    </row>
-    <row r="1235" spans="2:3">
-      <c r="B1235" s="1"/>
-      <c r="C1235" s="1"/>
-    </row>
-    <row r="1236" spans="2:3">
-      <c r="B1236" s="1"/>
-      <c r="C1236" s="1"/>
-    </row>
-    <row r="1237" spans="2:3">
-      <c r="B1237" s="1"/>
-      <c r="C1237" s="1"/>
-    </row>
-    <row r="1238" spans="2:3">
-      <c r="B1238" s="1"/>
-      <c r="C1238" s="1"/>
-    </row>
-    <row r="1239" spans="2:3">
-      <c r="B1239" s="1"/>
-      <c r="C1239" s="1"/>
-    </row>
-    <row r="1240" spans="2:3">
-      <c r="B1240" s="1"/>
-      <c r="C1240" s="1"/>
-    </row>
-    <row r="1241" spans="2:3">
-      <c r="B1241" s="1"/>
-      <c r="C1241" s="1"/>
-    </row>
-    <row r="1242" spans="2:3">
-      <c r="B1242" s="1"/>
-      <c r="C1242" s="1"/>
-    </row>
-    <row r="1243" spans="2:3">
-      <c r="B1243" s="1"/>
-      <c r="C1243" s="1"/>
-    </row>
-    <row r="1244" spans="2:3">
-      <c r="B1244" s="1"/>
-      <c r="C1244" s="1"/>
-    </row>
-    <row r="1245" spans="2:3">
-      <c r="B1245" s="1"/>
-      <c r="C1245" s="1"/>
-    </row>
-    <row r="1246" spans="2:3">
-      <c r="B1246" s="1"/>
-      <c r="C1246" s="1"/>
-    </row>
-    <row r="1247" spans="2:3">
-      <c r="B1247" s="1"/>
-      <c r="C1247" s="1"/>
-    </row>
-    <row r="1248" spans="2:3">
-      <c r="B1248" s="1"/>
-      <c r="C1248" s="1"/>
-    </row>
-    <row r="1249" spans="2:3">
-      <c r="B1249" s="1"/>
-      <c r="C1249" s="1"/>
-    </row>
-    <row r="1250" spans="2:3">
-      <c r="B1250" s="1"/>
-      <c r="C1250" s="1"/>
-    </row>
-    <row r="1251" spans="2:3">
-      <c r="B1251" s="1"/>
-      <c r="C1251" s="1"/>
-    </row>
-    <row r="1252" spans="2:3">
-      <c r="B1252" s="1"/>
-      <c r="C1252" s="1"/>
-    </row>
-    <row r="1253" spans="2:3">
-      <c r="B1253" s="1"/>
-      <c r="C1253" s="1"/>
-    </row>
-    <row r="1254" spans="2:3">
-      <c r="B1254" s="1"/>
-      <c r="C1254" s="1"/>
-    </row>
-    <row r="1255" spans="2:3">
-      <c r="B1255" s="1"/>
-      <c r="C1255" s="1"/>
-    </row>
-    <row r="1256" spans="2:3">
-      <c r="B1256" s="1"/>
-      <c r="C1256" s="1"/>
-    </row>
-    <row r="1257" spans="2:3">
-      <c r="B1257" s="1"/>
-      <c r="C1257" s="1"/>
-    </row>
-    <row r="1258" spans="2:3">
-      <c r="B1258" s="1"/>
-      <c r="C1258" s="1"/>
-    </row>
-    <row r="1259" spans="2:3">
-      <c r="B1259" s="1"/>
-      <c r="C1259" s="1"/>
-    </row>
-    <row r="1260" spans="2:3">
-      <c r="B1260" s="1"/>
-      <c r="C1260" s="1"/>
-    </row>
-    <row r="1261" spans="2:3">
-      <c r="B1261" s="1"/>
-      <c r="C1261" s="1"/>
-    </row>
-    <row r="1262" spans="2:3">
-      <c r="B1262" s="1"/>
-      <c r="C1262" s="1"/>
-    </row>
-    <row r="1263" spans="2:3">
-      <c r="B1263" s="1"/>
-      <c r="C1263" s="1"/>
-    </row>
-    <row r="1264" spans="2:3">
-      <c r="B1264" s="1"/>
-      <c r="C1264" s="1"/>
-    </row>
-    <row r="1265" spans="2:3">
-      <c r="B1265" s="1"/>
-      <c r="C1265" s="1"/>
-    </row>
-    <row r="1266" spans="2:3">
-      <c r="B1266" s="1"/>
-      <c r="C1266" s="1"/>
-    </row>
-    <row r="1267" spans="2:3">
-      <c r="B1267" s="1"/>
-      <c r="C1267" s="1"/>
-    </row>
-    <row r="1268" spans="2:3">
-      <c r="B1268" s="1"/>
-      <c r="C1268" s="1"/>
-    </row>
-    <row r="1269" spans="2:3">
-      <c r="B1269" s="1"/>
-      <c r="C1269" s="1"/>
-    </row>
-    <row r="1270" spans="2:3">
-      <c r="B1270" s="1"/>
-      <c r="C1270" s="1"/>
-    </row>
-    <row r="1271" spans="2:3">
-      <c r="B1271" s="1"/>
-      <c r="C1271" s="1"/>
-    </row>
-    <row r="1272" spans="2:3">
-      <c r="B1272" s="1"/>
-      <c r="C1272" s="1"/>
-    </row>
-    <row r="1273" spans="2:3">
-      <c r="B1273" s="1"/>
-      <c r="C1273" s="1"/>
-    </row>
-    <row r="1274" spans="2:3">
-      <c r="B1274" s="1"/>
-      <c r="C1274" s="1"/>
-    </row>
-    <row r="1275" spans="2:3">
-      <c r="B1275" s="1"/>
-      <c r="C1275" s="1"/>
-    </row>
-    <row r="1276" spans="2:3">
-      <c r="B1276" s="1"/>
-      <c r="C1276" s="1"/>
-    </row>
-    <row r="1277" spans="2:3">
-      <c r="B1277" s="1"/>
-      <c r="C1277" s="1"/>
-    </row>
-    <row r="1278" spans="2:3">
-      <c r="B1278" s="1"/>
-      <c r="C1278" s="1"/>
-    </row>
-    <row r="1279" spans="2:3">
-      <c r="B1279" s="1"/>
-      <c r="C1279" s="1"/>
-    </row>
-    <row r="1280" spans="2:3">
-      <c r="B1280" s="1"/>
-      <c r="C1280" s="1"/>
-    </row>
-    <row r="1281" spans="2:3">
-      <c r="B1281" s="1"/>
-      <c r="C1281" s="1"/>
-    </row>
-    <row r="1282" spans="2:3">
-      <c r="B1282" s="1"/>
-      <c r="C1282" s="1"/>
-    </row>
-    <row r="1283" spans="2:3">
-      <c r="B1283" s="1"/>
-      <c r="C1283" s="1"/>
-    </row>
-    <row r="1284" spans="2:3">
-      <c r="B1284" s="1"/>
-      <c r="C1284" s="1"/>
-    </row>
-    <row r="1285" spans="2:3">
-      <c r="B1285" s="1"/>
-      <c r="C1285" s="1"/>
-    </row>
-    <row r="1286" spans="2:3">
-      <c r="B1286" s="1"/>
-      <c r="C1286" s="1"/>
-    </row>
-    <row r="1287" spans="2:3">
-      <c r="B1287" s="1"/>
-      <c r="C1287" s="1"/>
-    </row>
-    <row r="1288" spans="2:3">
-      <c r="B1288" s="1"/>
-      <c r="C1288" s="1"/>
-    </row>
-    <row r="1289" spans="2:3">
-      <c r="B1289" s="1"/>
-      <c r="C1289" s="1"/>
-    </row>
-    <row r="1290" spans="2:3">
-      <c r="B1290" s="1"/>
-      <c r="C1290" s="1"/>
-    </row>
-    <row r="1291" spans="2:3">
-      <c r="B1291" s="1"/>
-      <c r="C1291" s="1"/>
-    </row>
-    <row r="1292" spans="2:3">
-      <c r="B1292" s="1"/>
-      <c r="C1292" s="1"/>
-    </row>
-    <row r="1293" spans="2:3">
-      <c r="B1293" s="1"/>
-      <c r="C1293" s="1"/>
-    </row>
-    <row r="1294" spans="2:3">
-      <c r="B1294" s="1"/>
-      <c r="C1294" s="1"/>
-    </row>
-    <row r="1295" spans="2:3">
-      <c r="B1295" s="1"/>
-      <c r="C1295" s="1"/>
-    </row>
-    <row r="1296" spans="2:3">
-      <c r="B1296" s="1"/>
-      <c r="C1296" s="1"/>
-    </row>
-    <row r="1297" spans="2:3">
-      <c r="B1297" s="1"/>
-      <c r="C1297" s="1"/>
-    </row>
-    <row r="1298" spans="2:3">
-      <c r="B1298" s="1"/>
-      <c r="C1298" s="1"/>
-    </row>
-    <row r="1299" spans="2:3">
-      <c r="B1299" s="1"/>
-      <c r="C1299" s="1"/>
-    </row>
-    <row r="1300" spans="2:3">
-      <c r="B1300" s="1"/>
-      <c r="C1300" s="1"/>
-    </row>
-    <row r="1301" spans="2:3">
-      <c r="B1301" s="1"/>
-      <c r="C1301" s="1"/>
-    </row>
-    <row r="1302" spans="2:3">
-      <c r="B1302" s="1"/>
-      <c r="C1302" s="1"/>
-    </row>
-    <row r="1303" spans="2:3">
-      <c r="B1303" s="1"/>
-      <c r="C1303" s="1"/>
-    </row>
-    <row r="1304" spans="2:3">
-      <c r="B1304" s="1"/>
-      <c r="C1304" s="1"/>
-    </row>
-    <row r="1305" spans="2:3">
-      <c r="B1305" s="1"/>
-      <c r="C1305" s="1"/>
-    </row>
-    <row r="1306" spans="2:3">
-      <c r="B1306" s="1"/>
-      <c r="C1306" s="1"/>
-    </row>
-    <row r="1307" spans="2:3">
-      <c r="B1307" s="1"/>
-      <c r="C1307" s="1"/>
-    </row>
-    <row r="1308" spans="2:3">
-      <c r="B1308" s="1"/>
-      <c r="C1308" s="1"/>
-    </row>
-    <row r="1309" spans="2:3">
-      <c r="B1309" s="1"/>
-      <c r="C1309" s="1"/>
-    </row>
-    <row r="1310" spans="2:3">
-      <c r="B1310" s="1"/>
-      <c r="C1310" s="1"/>
-    </row>
-    <row r="1311" spans="2:3">
-      <c r="B1311" s="1"/>
-      <c r="C1311" s="1"/>
-    </row>
-    <row r="1312" spans="2:3">
-      <c r="B1312" s="1"/>
-      <c r="C1312" s="1"/>
-    </row>
-    <row r="1313" spans="2:3">
-      <c r="B1313" s="1"/>
-      <c r="C1313" s="1"/>
-    </row>
-    <row r="1314" spans="2:3">
-      <c r="B1314" s="1"/>
-      <c r="C1314" s="1"/>
-    </row>
-    <row r="1315" spans="2:3">
-      <c r="B1315" s="1"/>
-      <c r="C1315" s="1"/>
-    </row>
-    <row r="1316" spans="2:3">
-      <c r="B1316" s="1"/>
-      <c r="C1316" s="1"/>
-    </row>
-    <row r="1317" spans="2:3">
-      <c r="B1317" s="1"/>
-      <c r="C1317" s="1"/>
-    </row>
-    <row r="1318" spans="2:3">
-      <c r="B1318" s="1"/>
-      <c r="C1318" s="1"/>
-    </row>
-    <row r="1319" spans="2:3">
-      <c r="B1319" s="1"/>
-      <c r="C1319" s="1"/>
-    </row>
-    <row r="1320" spans="2:3">
-      <c r="B1320" s="1"/>
-      <c r="C1320" s="1"/>
-    </row>
-    <row r="1321" spans="2:3">
-      <c r="B1321" s="1"/>
-      <c r="C1321" s="1"/>
-    </row>
-    <row r="1322" spans="2:3">
-      <c r="B1322" s="1"/>
-      <c r="C1322" s="1"/>
-    </row>
-    <row r="1323" spans="2:3">
-      <c r="B1323" s="1"/>
-      <c r="C1323" s="1"/>
-    </row>
-    <row r="1324" spans="2:3">
-      <c r="B1324" s="1"/>
-      <c r="C1324" s="1"/>
-    </row>
-    <row r="1325" spans="2:3">
-      <c r="B1325" s="1"/>
-      <c r="C1325" s="1"/>
-    </row>
-    <row r="1326" spans="2:3">
-      <c r="B1326" s="1"/>
-      <c r="C1326" s="1"/>
-    </row>
-    <row r="1327" spans="2:3">
-      <c r="B1327" s="1"/>
-      <c r="C1327" s="1"/>
-    </row>
-    <row r="1328" spans="2:3">
-      <c r="B1328" s="1"/>
-      <c r="C1328" s="1"/>
-    </row>
-    <row r="1329" spans="2:6">
-      <c r="B1329" s="1"/>
-      <c r="C1329" s="1"/>
-    </row>
-    <row r="1330" spans="2:6">
-      <c r="B1330" s="1"/>
-      <c r="C1330" s="1"/>
-    </row>
-    <row r="1331" spans="2:6">
-      <c r="B1331" s="1"/>
-      <c r="C1331" s="1"/>
-    </row>
-    <row r="1332" spans="2:6">
-      <c r="B1332" s="1"/>
-      <c r="C1332" s="1"/>
-    </row>
-    <row r="1333" spans="2:6">
-      <c r="B1333" s="1"/>
-      <c r="C1333" s="1"/>
-    </row>
-    <row r="1334" spans="2:6">
-      <c r="B1334" s="1"/>
-      <c r="C1334" s="1"/>
-    </row>
-    <row r="1335" spans="2:6">
-      <c r="B1335" s="1"/>
-      <c r="C1335" s="1"/>
-    </row>
-    <row r="1336" spans="2:6">
-      <c r="B1336" s="1"/>
-      <c r="C1336" s="1"/>
-    </row>
-    <row r="1337" spans="2:6">
-      <c r="B1337" s="1"/>
-      <c r="C1337" s="1"/>
-    </row>
-    <row r="1338" spans="2:6">
-      <c r="B1338" s="1"/>
-      <c r="C1338" s="1"/>
-    </row>
-    <row r="1339" spans="2:6">
-      <c r="B1339" s="1"/>
-      <c r="C1339" s="1"/>
-    </row>
-    <row r="1340" spans="2:6">
-      <c r="B1340" s="1"/>
-      <c r="C1340" s="1"/>
-      <c r="F1340" s="6"/>
-    </row>
-    <row r="1341" spans="2:6">
-      <c r="B1341" s="1"/>
-      <c r="C1341" s="1"/>
+    <row r="1221" spans="1:3">
+      <c r="A1221" s="6"/>
+      <c r="B1221" s="6"/>
+      <c r="C1221" s="6"/>
+    </row>
+    <row r="1341" spans="6:6">
       <c r="F1341" s="6"/>
     </row>
-    <row r="1342" spans="2:6">
-      <c r="B1342" s="1"/>
-      <c r="C1342" s="1"/>
+    <row r="1342" spans="6:6">
       <c r="F1342" s="6"/>
     </row>
-    <row r="1343" spans="2:6">
-      <c r="B1343" s="1"/>
-      <c r="C1343" s="1"/>
+    <row r="1343" spans="6:6">
       <c r="F1343" s="6"/>
     </row>
-    <row r="1344" spans="2:6">
-      <c r="B1344" s="1"/>
-      <c r="C1344" s="1"/>
+    <row r="1344" spans="6:6">
       <c r="F1344" s="6"/>
     </row>
-    <row r="1345" spans="2:6">
-      <c r="B1345" s="1"/>
-      <c r="C1345" s="1"/>
+    <row r="1345" spans="6:6">
       <c r="F1345" s="6"/>
     </row>
-    <row r="1346" spans="2:6">
-      <c r="B1346" s="1"/>
-      <c r="C1346" s="1"/>
+    <row r="1346" spans="6:6">
       <c r="F1346" s="6"/>
     </row>
-    <row r="1347" spans="2:6">
-      <c r="B1347" s="1"/>
-      <c r="C1347" s="1"/>
+    <row r="1347" spans="6:6">
       <c r="F1347" s="6"/>
     </row>
-    <row r="1348" spans="2:6">
-      <c r="B1348" s="1"/>
-      <c r="C1348" s="1"/>
+    <row r="1348" spans="6:6">
       <c r="F1348" s="6"/>
     </row>
-    <row r="1349" spans="2:6">
-      <c r="B1349" s="1"/>
-      <c r="C1349" s="1"/>
+    <row r="1349" spans="6:6">
       <c r="F1349" s="6"/>
     </row>
-    <row r="1350" spans="2:6">
-      <c r="B1350" s="1"/>
-      <c r="C1350" s="1"/>
+    <row r="1350" spans="6:6">
       <c r="F1350" s="6"/>
     </row>
-    <row r="1351" spans="2:6">
-      <c r="B1351" s="1"/>
-      <c r="C1351" s="1"/>
+    <row r="1351" spans="6:6">
       <c r="F1351" s="6"/>
     </row>
-    <row r="1352" spans="2:6">
-      <c r="B1352" s="1"/>
-      <c r="C1352" s="1"/>
+    <row r="1352" spans="6:6">
       <c r="F1352" s="6"/>
     </row>
-    <row r="1353" spans="2:6">
-      <c r="B1353" s="1"/>
-      <c r="C1353" s="1"/>
+    <row r="1353" spans="6:6">
       <c r="F1353" s="6"/>
     </row>
-    <row r="1354" spans="2:6">
-      <c r="B1354" s="1"/>
-      <c r="C1354" s="1"/>
+    <row r="1354" spans="6:6">
       <c r="F1354" s="6"/>
     </row>
-    <row r="1355" spans="2:6">
-      <c r="B1355" s="1"/>
-      <c r="C1355" s="1"/>
-    </row>
-    <row r="1356" spans="2:6">
-      <c r="B1356" s="1"/>
-      <c r="C1356" s="1"/>
-    </row>
-    <row r="1357" spans="2:6">
-      <c r="B1357" s="1"/>
-      <c r="C1357" s="1"/>
-    </row>
-    <row r="1358" spans="2:6">
-      <c r="B1358" s="1"/>
-      <c r="C1358" s="1"/>
-    </row>
-    <row r="1359" spans="2:6">
-      <c r="B1359" s="1"/>
-      <c r="C1359" s="1"/>
-    </row>
-    <row r="1360" spans="2:6">
-      <c r="B1360" s="1"/>
-      <c r="C1360" s="1"/>
-    </row>
-    <row r="1361" spans="2:3">
-      <c r="B1361" s="1"/>
-      <c r="C1361" s="1"/>
-    </row>
-    <row r="1362" spans="2:3">
-      <c r="B1362" s="1"/>
-      <c r="C1362" s="1"/>
-    </row>
-    <row r="1363" spans="2:3">
-      <c r="B1363" s="1"/>
-      <c r="C1363" s="1"/>
-    </row>
-    <row r="1364" spans="2:3">
-      <c r="B1364" s="1"/>
-      <c r="C1364" s="1"/>
-    </row>
-    <row r="1365" spans="2:3">
-      <c r="B1365" s="1"/>
-      <c r="C1365" s="1"/>
-    </row>
-    <row r="1366" spans="2:3">
-      <c r="B1366" s="1"/>
-      <c r="C1366" s="1"/>
-    </row>
-    <row r="1367" spans="2:3">
-      <c r="B1367" s="1"/>
-      <c r="C1367" s="1"/>
-    </row>
-    <row r="1368" spans="2:3">
-      <c r="B1368" s="1"/>
-      <c r="C1368" s="1"/>
-    </row>
-    <row r="1369" spans="2:3">
-      <c r="B1369" s="1"/>
-      <c r="C1369" s="1"/>
-    </row>
-    <row r="1370" spans="2:3">
-      <c r="B1370" s="1"/>
-      <c r="C1370" s="1"/>
-    </row>
-    <row r="1371" spans="2:3">
-      <c r="B1371" s="1"/>
-      <c r="C1371" s="1"/>
-    </row>
-    <row r="1372" spans="2:3">
-      <c r="B1372" s="1"/>
-      <c r="C1372" s="1"/>
-    </row>
-    <row r="1373" spans="2:3">
-      <c r="B1373" s="1"/>
-      <c r="C1373" s="1"/>
-    </row>
-    <row r="1374" spans="2:3">
-      <c r="B1374" s="1"/>
-      <c r="C1374" s="1"/>
-    </row>
-    <row r="1375" spans="2:3">
-      <c r="B1375" s="1"/>
-      <c r="C1375" s="1"/>
-    </row>
-    <row r="1376" spans="2:3">
-      <c r="B1376" s="1"/>
-      <c r="C1376" s="1"/>
-    </row>
-    <row r="1377" spans="2:3">
-      <c r="B1377" s="1"/>
-      <c r="C1377" s="1"/>
-    </row>
-    <row r="1378" spans="2:3">
-      <c r="B1378" s="1"/>
-      <c r="C1378" s="1"/>
-    </row>
-    <row r="1379" spans="2:3">
-      <c r="B1379" s="1"/>
-      <c r="C1379" s="1"/>
-    </row>
-    <row r="1380" spans="2:3">
-      <c r="B1380" s="1"/>
-      <c r="C1380" s="1"/>
-    </row>
-    <row r="1381" spans="2:3">
-      <c r="B1381" s="1"/>
-      <c r="C1381" s="1"/>
-    </row>
-    <row r="1382" spans="2:3">
-      <c r="B1382" s="1"/>
-      <c r="C1382" s="1"/>
-    </row>
-    <row r="1383" spans="2:3">
-      <c r="B1383" s="1"/>
-      <c r="C1383" s="1"/>
-    </row>
-    <row r="1384" spans="2:3">
-      <c r="B1384" s="1"/>
-      <c r="C1384" s="1"/>
-    </row>
-    <row r="1385" spans="2:3">
-      <c r="B1385" s="1"/>
-      <c r="C1385" s="1"/>
-    </row>
-    <row r="1386" spans="2:3">
-      <c r="B1386" s="1"/>
-      <c r="C1386" s="1"/>
-    </row>
-    <row r="1387" spans="2:3">
-      <c r="B1387" s="1"/>
-      <c r="C1387" s="1"/>
-    </row>
-    <row r="1388" spans="2:3">
-      <c r="B1388" s="1"/>
-      <c r="C1388" s="1"/>
-    </row>
-    <row r="1389" spans="2:3">
-      <c r="B1389" s="1"/>
-      <c r="C1389" s="1"/>
-    </row>
-    <row r="1390" spans="2:3">
-      <c r="B1390" s="1"/>
-      <c r="C1390" s="1"/>
-    </row>
-    <row r="1391" spans="2:3">
-      <c r="B1391" s="1"/>
-      <c r="C1391" s="1"/>
-    </row>
-    <row r="1392" spans="2:3">
-      <c r="B1392" s="1"/>
-      <c r="C1392" s="1"/>
-    </row>
-    <row r="1393" spans="2:3">
-      <c r="B1393" s="1"/>
-      <c r="C1393" s="1"/>
-    </row>
-    <row r="1394" spans="2:3">
-      <c r="B1394" s="1"/>
-      <c r="C1394" s="1"/>
-    </row>
-    <row r="1395" spans="2:3">
-      <c r="B1395" s="1"/>
-      <c r="C1395" s="1"/>
-    </row>
-    <row r="1396" spans="2:3">
-      <c r="B1396" s="1"/>
-      <c r="C1396" s="1"/>
-    </row>
-    <row r="1397" spans="2:3">
-      <c r="B1397" s="1"/>
-      <c r="C1397" s="1"/>
-    </row>
-    <row r="1398" spans="2:3">
-      <c r="B1398" s="1"/>
-      <c r="C1398" s="1"/>
-    </row>
-    <row r="1399" spans="2:3">
-      <c r="B1399" s="1"/>
-      <c r="C1399" s="1"/>
-    </row>
-    <row r="1400" spans="2:3">
-      <c r="B1400" s="1"/>
-      <c r="C1400" s="1"/>
-    </row>
-    <row r="1401" spans="2:3">
-      <c r="B1401" s="1"/>
-      <c r="C1401" s="1"/>
-    </row>
-    <row r="1402" spans="2:3">
-      <c r="B1402" s="1"/>
-      <c r="C1402" s="1"/>
-    </row>
-    <row r="1403" spans="2:3">
-      <c r="B1403" s="1"/>
-      <c r="C1403" s="1"/>
-    </row>
-    <row r="1404" spans="2:3">
-      <c r="B1404" s="1"/>
-      <c r="C1404" s="1"/>
-    </row>
-    <row r="1405" spans="2:3">
-      <c r="B1405" s="1"/>
-      <c r="C1405" s="1"/>
-    </row>
-    <row r="1406" spans="2:3">
-      <c r="B1406" s="1"/>
-      <c r="C1406" s="1"/>
-    </row>
-    <row r="1407" spans="2:3">
-      <c r="B1407" s="1"/>
-      <c r="C1407" s="1"/>
-    </row>
-    <row r="1408" spans="2:3">
-      <c r="B1408" s="1"/>
-      <c r="C1408" s="1"/>
-    </row>
-    <row r="1409" spans="2:3">
-      <c r="B1409" s="1"/>
-      <c r="C1409" s="1"/>
-    </row>
-    <row r="1410" spans="2:3">
-      <c r="B1410" s="1"/>
-      <c r="C1410" s="1"/>
-    </row>
-    <row r="1411" spans="2:3">
-      <c r="B1411" s="1"/>
-      <c r="C1411" s="1"/>
-    </row>
-    <row r="1412" spans="2:3">
-      <c r="B1412" s="1"/>
-      <c r="C1412" s="1"/>
-    </row>
-    <row r="1413" spans="2:3">
-      <c r="B1413" s="1"/>
-      <c r="C1413" s="1"/>
-    </row>
-    <row r="1414" spans="2:3">
-      <c r="B1414" s="1"/>
-      <c r="C1414" s="1"/>
-    </row>
-    <row r="1415" spans="2:3">
-      <c r="B1415" s="1"/>
-      <c r="C1415" s="1"/>
-    </row>
-    <row r="1416" spans="2:3">
-      <c r="B1416" s="1"/>
-      <c r="C1416" s="1"/>
-    </row>
-    <row r="1417" spans="2:3">
-      <c r="B1417" s="1"/>
-      <c r="C1417" s="1"/>
-    </row>
-    <row r="1418" spans="2:3">
-      <c r="B1418" s="1"/>
-      <c r="C1418" s="1"/>
-    </row>
-    <row r="1419" spans="2:3">
-      <c r="B1419" s="1"/>
-      <c r="C1419" s="1"/>
-    </row>
-    <row r="1420" spans="2:3">
-      <c r="B1420" s="1"/>
-      <c r="C1420" s="1"/>
-    </row>
-    <row r="1421" spans="2:3">
-      <c r="B1421" s="1"/>
-      <c r="C1421" s="1"/>
-    </row>
-    <row r="1422" spans="2:3">
-      <c r="B1422" s="1"/>
-      <c r="C1422" s="1"/>
-    </row>
-    <row r="1423" spans="2:3">
-      <c r="B1423" s="1"/>
-      <c r="C1423" s="1"/>
-    </row>
-    <row r="1424" spans="2:3">
-      <c r="B1424" s="1"/>
-      <c r="C1424" s="1"/>
-    </row>
-    <row r="1425" spans="2:3">
-      <c r="B1425" s="1"/>
-      <c r="C1425" s="1"/>
-    </row>
-    <row r="1426" spans="2:3">
-      <c r="B1426" s="1"/>
-      <c r="C1426" s="1"/>
-    </row>
-    <row r="1427" spans="2:3">
-      <c r="B1427" s="1"/>
-      <c r="C1427" s="1"/>
-    </row>
-    <row r="1428" spans="2:3">
-      <c r="B1428" s="1"/>
-      <c r="C1428" s="1"/>
-    </row>
-    <row r="1429" spans="2:3">
-      <c r="B1429" s="1"/>
-      <c r="C1429" s="1"/>
-    </row>
-    <row r="1430" spans="2:3">
-      <c r="B1430" s="1"/>
-      <c r="C1430" s="1"/>
-    </row>
-    <row r="1431" spans="2:3">
-      <c r="B1431" s="1"/>
-      <c r="C1431" s="1"/>
-    </row>
-    <row r="1432" spans="2:3">
-      <c r="B1432" s="1"/>
-      <c r="C1432" s="1"/>
-    </row>
-    <row r="1433" spans="2:3">
-      <c r="B1433" s="1"/>
-      <c r="C1433" s="1"/>
-    </row>
-    <row r="1434" spans="2:3">
-      <c r="B1434" s="1"/>
-      <c r="C1434" s="1"/>
-    </row>
-    <row r="1435" spans="2:3">
-      <c r="B1435" s="1"/>
-      <c r="C1435" s="1"/>
-    </row>
-    <row r="1436" spans="2:3">
-      <c r="B1436" s="1"/>
-      <c r="C1436" s="1"/>
-    </row>
-    <row r="1437" spans="2:3">
-      <c r="B1437" s="1"/>
-      <c r="C1437" s="1"/>
-    </row>
-    <row r="1438" spans="2:3">
-      <c r="B1438" s="1"/>
-      <c r="C1438" s="1"/>
-    </row>
-    <row r="1439" spans="2:3">
-      <c r="B1439" s="1"/>
-      <c r="C1439" s="1"/>
-    </row>
-    <row r="1440" spans="2:3">
-      <c r="B1440" s="1"/>
-      <c r="C1440" s="1"/>
-    </row>
-    <row r="1441" spans="2:3">
-      <c r="B1441" s="1"/>
-      <c r="C1441" s="1"/>
-    </row>
-    <row r="1442" spans="2:3">
-      <c r="B1442" s="1"/>
-      <c r="C1442" s="1"/>
-    </row>
-    <row r="1443" spans="2:3">
-      <c r="B1443" s="1"/>
-      <c r="C1443" s="1"/>
-    </row>
-    <row r="1444" spans="2:3">
-      <c r="B1444" s="1"/>
-      <c r="C1444" s="1"/>
-    </row>
-    <row r="1445" spans="2:3">
-      <c r="B1445" s="1"/>
-      <c r="C1445" s="1"/>
-    </row>
-    <row r="1446" spans="2:3">
-      <c r="B1446" s="1"/>
-      <c r="C1446" s="1"/>
-    </row>
-    <row r="1447" spans="2:3">
-      <c r="B1447" s="1"/>
-      <c r="C1447" s="1"/>
-    </row>
-    <row r="1448" spans="2:3">
-      <c r="B1448" s="1"/>
-      <c r="C1448" s="1"/>
-    </row>
-    <row r="1449" spans="2:3">
-      <c r="B1449" s="1"/>
-      <c r="C1449" s="1"/>
-    </row>
-    <row r="1450" spans="2:3">
-      <c r="B1450" s="1"/>
-      <c r="C1450" s="1"/>
-    </row>
-    <row r="1451" spans="2:3">
-      <c r="B1451" s="1"/>
-      <c r="C1451" s="1"/>
-    </row>
-    <row r="1452" spans="2:3">
-      <c r="B1452" s="1"/>
-      <c r="C1452" s="1"/>
-    </row>
-    <row r="1453" spans="2:3">
-      <c r="B1453" s="1"/>
-      <c r="C1453" s="1"/>
-    </row>
-    <row r="1454" spans="2:3">
-      <c r="B1454" s="1"/>
-      <c r="C1454" s="1"/>
-    </row>
-    <row r="1455" spans="2:3">
-      <c r="B1455" s="1"/>
-      <c r="C1455" s="1"/>
-    </row>
-    <row r="1456" spans="2:3">
-      <c r="B1456" s="1"/>
-      <c r="C1456" s="1"/>
-    </row>
-    <row r="1457" spans="2:3">
-      <c r="B1457" s="1"/>
-      <c r="C1457" s="1"/>
-    </row>
-    <row r="1458" spans="2:3">
-      <c r="B1458" s="1"/>
-      <c r="C1458" s="1"/>
-    </row>
-    <row r="1459" spans="2:3">
-      <c r="B1459" s="1"/>
-      <c r="C1459" s="1"/>
-    </row>
-    <row r="1460" spans="2:3">
-      <c r="B1460" s="1"/>
-      <c r="C1460" s="1"/>
-    </row>
-    <row r="1461" spans="2:3">
-      <c r="B1461" s="1"/>
-      <c r="C1461" s="1"/>
-    </row>
-    <row r="1462" spans="2:3">
-      <c r="B1462" s="1"/>
-      <c r="C1462" s="1"/>
-    </row>
-    <row r="1464" spans="2:3">
-      <c r="B1464" s="1"/>
-      <c r="C1464" s="1"/>
-    </row>
-    <row r="1465" spans="2:3">
-      <c r="B1465" s="1"/>
-      <c r="C1465" s="1"/>
-    </row>
-    <row r="1466" spans="2:3">
-      <c r="B1466" s="1"/>
-      <c r="C1466" s="1"/>
-    </row>
-    <row r="1467" spans="2:3">
-      <c r="B1467" s="1"/>
-      <c r="C1467" s="1"/>
-    </row>
-    <row r="1468" spans="2:3">
-      <c r="B1468" s="1"/>
-      <c r="C1468" s="1"/>
-    </row>
-    <row r="1469" spans="2:3">
-      <c r="B1469" s="1"/>
-      <c r="C1469" s="1"/>
-    </row>
-    <row r="1470" spans="2:3">
-      <c r="B1470" s="1"/>
-      <c r="C1470" s="1"/>
-    </row>
-    <row r="1471" spans="2:3">
-      <c r="B1471" s="1"/>
-      <c r="C1471" s="1"/>
-    </row>
-    <row r="1472" spans="2:3">
-      <c r="B1472" s="1"/>
-      <c r="C1472" s="1"/>
-    </row>
-    <row r="1473" spans="2:3">
-      <c r="B1473" s="1"/>
-      <c r="C1473" s="1"/>
-    </row>
-    <row r="1474" spans="2:3">
-      <c r="B1474" s="1"/>
-      <c r="C1474" s="1"/>
-    </row>
-    <row r="1475" spans="2:3">
-      <c r="B1475" s="1"/>
-      <c r="C1475" s="1"/>
-    </row>
-    <row r="1476" spans="2:3">
-      <c r="B1476" s="1"/>
-      <c r="C1476" s="1"/>
-    </row>
-    <row r="1477" spans="2:3">
-      <c r="B1477" s="1"/>
-      <c r="C1477" s="1"/>
-    </row>
-    <row r="1478" spans="2:3">
-      <c r="B1478" s="1"/>
-      <c r="C1478" s="1"/>
-    </row>
-    <row r="1479" spans="2:3">
-      <c r="B1479" s="1"/>
-      <c r="C1479" s="1"/>
-    </row>
-    <row r="1480" spans="2:3">
-      <c r="B1480" s="1"/>
-      <c r="C1480" s="1"/>
-    </row>
-    <row r="1481" spans="2:3">
-      <c r="B1481" s="1"/>
-      <c r="C1481" s="1"/>
-    </row>
-    <row r="1482" spans="2:3">
-      <c r="B1482" s="1"/>
-      <c r="C1482" s="1"/>
-    </row>
-    <row r="1483" spans="2:3">
-      <c r="B1483" s="1"/>
-      <c r="C1483" s="1"/>
-    </row>
-    <row r="1484" spans="2:3">
-      <c r="B1484" s="1"/>
-      <c r="C1484" s="1"/>
-    </row>
-    <row r="1485" spans="2:3">
-      <c r="B1485" s="1"/>
-      <c r="C1485" s="1"/>
-    </row>
-    <row r="1486" spans="2:3">
-      <c r="B1486" s="1"/>
-      <c r="C1486" s="1"/>
-    </row>
-    <row r="1487" spans="2:3">
-      <c r="B1487" s="1"/>
-      <c r="C1487" s="1"/>
-    </row>
-    <row r="1488" spans="2:3">
-      <c r="B1488" s="1"/>
-      <c r="C1488" s="1"/>
-    </row>
-    <row r="1489" spans="2:3">
-      <c r="B1489" s="1"/>
-      <c r="C1489" s="1"/>
-    </row>
-    <row r="1490" spans="2:3">
-      <c r="B1490" s="1"/>
-      <c r="C1490" s="1"/>
-    </row>
-    <row r="1491" spans="2:3">
-      <c r="B1491" s="1"/>
-      <c r="C1491" s="1"/>
-    </row>
-    <row r="1492" spans="2:3">
-      <c r="B1492" s="1"/>
-      <c r="C1492" s="1"/>
-    </row>
-    <row r="1493" spans="2:3">
-      <c r="B1493" s="1"/>
-      <c r="C1493" s="1"/>
-    </row>
-    <row r="1494" spans="2:3">
-      <c r="B1494" s="1"/>
-      <c r="C1494" s="1"/>
-    </row>
-    <row r="1495" spans="2:3">
-      <c r="B1495" s="1"/>
-      <c r="C1495" s="1"/>
-    </row>
-    <row r="1496" spans="2:3">
-      <c r="B1496" s="1"/>
-      <c r="C1496" s="1"/>
-    </row>
-    <row r="1497" spans="2:3">
-      <c r="B1497" s="1"/>
-      <c r="C1497" s="1"/>
-    </row>
-    <row r="1498" spans="2:3">
-      <c r="B1498" s="1"/>
-      <c r="C1498" s="1"/>
-    </row>
-    <row r="1499" spans="2:3">
-      <c r="B1499" s="1"/>
-      <c r="C1499" s="1"/>
-    </row>
-    <row r="1500" spans="2:3">
-      <c r="B1500" s="1"/>
-      <c r="C1500" s="1"/>
-    </row>
-    <row r="1501" spans="2:3">
-      <c r="B1501" s="1"/>
-      <c r="C1501" s="1"/>
-    </row>
-    <row r="1502" spans="2:3">
-      <c r="B1502" s="1"/>
-      <c r="C1502" s="1"/>
-    </row>
-    <row r="1503" spans="2:3">
-      <c r="B1503" s="1"/>
-      <c r="C1503" s="1"/>
-    </row>
-    <row r="1504" spans="2:3">
-      <c r="B1504" s="1"/>
-      <c r="C1504" s="1"/>
-    </row>
-    <row r="1505" spans="2:3">
-      <c r="B1505" s="1"/>
-      <c r="C1505" s="1"/>
-    </row>
-    <row r="1506" spans="2:3">
-      <c r="B1506" s="1"/>
-      <c r="C1506" s="1"/>
-    </row>
-    <row r="1507" spans="2:3">
-      <c r="B1507" s="1"/>
-      <c r="C1507" s="1"/>
-    </row>
-    <row r="1508" spans="2:3">
-      <c r="B1508" s="1"/>
-      <c r="C1508" s="1"/>
-    </row>
-    <row r="1509" spans="2:3">
-      <c r="B1509" s="1"/>
-      <c r="C1509" s="1"/>
-    </row>
-    <row r="1510" spans="2:3">
-      <c r="B1510" s="1"/>
-      <c r="C1510" s="1"/>
-    </row>
-    <row r="1511" spans="2:3">
-      <c r="B1511" s="1"/>
-      <c r="C1511" s="1"/>
-    </row>
-    <row r="1512" spans="2:3">
-      <c r="B1512" s="1"/>
-      <c r="C1512" s="1"/>
-    </row>
-    <row r="1513" spans="2:3">
-      <c r="B1513" s="1"/>
-      <c r="C1513" s="1"/>
-    </row>
-    <row r="1514" spans="2:3">
-      <c r="B1514" s="1"/>
-      <c r="C1514" s="1"/>
-    </row>
-    <row r="1515" spans="2:3">
-      <c r="B1515" s="1"/>
-      <c r="C1515" s="1"/>
-    </row>
-    <row r="1516" spans="2:3">
-      <c r="B1516" s="1"/>
-      <c r="C1516" s="1"/>
-    </row>
-    <row r="1517" spans="2:3">
-      <c r="B1517" s="1"/>
-      <c r="C1517" s="1"/>
-    </row>
-    <row r="1518" spans="2:3">
-      <c r="B1518" s="1"/>
-      <c r="C1518" s="1"/>
-    </row>
-    <row r="1519" spans="2:3">
-      <c r="B1519" s="1"/>
-      <c r="C1519" s="1"/>
-    </row>
-    <row r="1520" spans="2:3">
-      <c r="B1520" s="1"/>
-      <c r="C1520" s="1"/>
-    </row>
-    <row r="1521" spans="2:3">
-      <c r="B1521" s="1"/>
-      <c r="C1521" s="1"/>
-    </row>
-    <row r="1522" spans="2:3">
-      <c r="B1522" s="1"/>
-      <c r="C1522" s="1"/>
-    </row>
-    <row r="1523" spans="2:3">
-      <c r="B1523" s="1"/>
-      <c r="C1523" s="1"/>
-    </row>
-    <row r="1524" spans="2:3">
-      <c r="B1524" s="1"/>
-      <c r="C1524" s="1"/>
-    </row>
-    <row r="1525" spans="2:3">
-      <c r="B1525" s="1"/>
-      <c r="C1525" s="1"/>
-    </row>
-    <row r="1526" spans="2:3">
-      <c r="B1526" s="1"/>
-      <c r="C1526" s="1"/>
-    </row>
-    <row r="1527" spans="2:3">
-      <c r="B1527" s="1"/>
-      <c r="C1527" s="1"/>
-    </row>
-    <row r="1528" spans="2:3">
-      <c r="B1528" s="1"/>
-      <c r="C1528" s="1"/>
-    </row>
-    <row r="1529" spans="2:3">
-      <c r="B1529" s="1"/>
-      <c r="C1529" s="1"/>
-    </row>
-    <row r="1530" spans="2:3">
-      <c r="B1530" s="1"/>
-      <c r="C1530" s="1"/>
-    </row>
-    <row r="1531" spans="2:3">
-      <c r="B1531" s="1"/>
-      <c r="C1531" s="1"/>
-    </row>
-    <row r="1532" spans="2:3">
-      <c r="B1532" s="1"/>
-      <c r="C1532" s="1"/>
-    </row>
-    <row r="1533" spans="2:3">
-      <c r="B1533" s="1"/>
-      <c r="C1533" s="1"/>
-    </row>
-    <row r="1534" spans="2:3">
-      <c r="B1534" s="1"/>
-      <c r="C1534" s="1"/>
-    </row>
-    <row r="1535" spans="2:3">
-      <c r="B1535" s="1"/>
-      <c r="C1535" s="1"/>
-    </row>
-    <row r="1536" spans="2:3">
-      <c r="B1536" s="1"/>
-      <c r="C1536" s="1"/>
-    </row>
-    <row r="1537" spans="2:3">
-      <c r="B1537" s="1"/>
-      <c r="C1537" s="1"/>
-    </row>
-    <row r="1538" spans="2:3">
-      <c r="B1538" s="1"/>
-      <c r="C1538" s="1"/>
-    </row>
-    <row r="1539" spans="2:3">
-      <c r="B1539" s="1"/>
-      <c r="C1539" s="1"/>
-    </row>
-    <row r="1540" spans="2:3">
-      <c r="B1540" s="1"/>
-      <c r="C1540" s="1"/>
-    </row>
-    <row r="1541" spans="2:3">
-      <c r="B1541" s="1"/>
-      <c r="C1541" s="1"/>
-    </row>
-    <row r="1542" spans="2:3">
-      <c r="B1542" s="1"/>
-      <c r="C1542" s="1"/>
-    </row>
-    <row r="1543" spans="2:3">
-      <c r="B1543" s="1"/>
-      <c r="C1543" s="1"/>
-    </row>
-    <row r="1544" spans="2:3">
-      <c r="B1544" s="1"/>
-      <c r="C1544" s="1"/>
-    </row>
-    <row r="1545" spans="2:3">
-      <c r="B1545" s="1"/>
-      <c r="C1545" s="1"/>
-    </row>
-    <row r="1546" spans="2:3">
-      <c r="B1546" s="1"/>
-      <c r="C1546" s="1"/>
-    </row>
-    <row r="1547" spans="2:3">
-      <c r="B1547" s="1"/>
-      <c r="C1547" s="1"/>
-    </row>
-    <row r="1548" spans="2:3">
-      <c r="B1548" s="1"/>
-      <c r="C1548" s="1"/>
-    </row>
-    <row r="1549" spans="2:3">
-      <c r="B1549" s="1"/>
-      <c r="C1549" s="1"/>
-    </row>
-    <row r="1550" spans="2:3">
-      <c r="B1550" s="1"/>
-      <c r="C1550" s="1"/>
-    </row>
-    <row r="1551" spans="2:3">
-      <c r="B1551" s="1"/>
-      <c r="C1551" s="1"/>
-    </row>
-    <row r="1552" spans="2:3">
-      <c r="B1552" s="1"/>
-      <c r="C1552" s="1"/>
-    </row>
-    <row r="1553" spans="2:3">
-      <c r="B1553" s="1"/>
-      <c r="C1553" s="1"/>
-    </row>
-    <row r="1554" spans="2:3">
-      <c r="B1554" s="1"/>
-      <c r="C1554" s="1"/>
-    </row>
-    <row r="1555" spans="2:3">
-      <c r="B1555" s="1"/>
-      <c r="C1555" s="1"/>
-    </row>
-    <row r="1556" spans="2:3">
-      <c r="B1556" s="1"/>
-      <c r="C1556" s="1"/>
-    </row>
-    <row r="1557" spans="2:3">
-      <c r="B1557" s="1"/>
-      <c r="C1557" s="1"/>
-    </row>
-    <row r="1558" spans="2:3">
-      <c r="B1558" s="1"/>
-      <c r="C1558" s="1"/>
-    </row>
-    <row r="1559" spans="2:3">
-      <c r="B1559" s="1"/>
-      <c r="C1559" s="1"/>
-    </row>
-    <row r="1560" spans="2:3">
-      <c r="B1560" s="1"/>
-      <c r="C1560" s="1"/>
-    </row>
-    <row r="1561" spans="2:3">
-      <c r="B1561" s="1"/>
-      <c r="C1561" s="1"/>
-    </row>
-    <row r="1562" spans="2:3">
-      <c r="B1562" s="1"/>
-      <c r="C1562" s="1"/>
-    </row>
-    <row r="1563" spans="2:3">
-      <c r="B1563" s="1"/>
-      <c r="C1563" s="1"/>
-    </row>
-    <row r="1564" spans="2:3">
-      <c r="B1564" s="1"/>
-      <c r="C1564" s="1"/>
-    </row>
-    <row r="1565" spans="2:3">
-      <c r="B1565" s="1"/>
-      <c r="C1565" s="1"/>
-    </row>
-    <row r="1566" spans="2:3">
-      <c r="B1566" s="1"/>
-      <c r="C1566" s="1"/>
-    </row>
-    <row r="1567" spans="2:3">
-      <c r="B1567" s="1"/>
-      <c r="C1567" s="1"/>
-    </row>
-    <row r="1568" spans="2:3">
-      <c r="B1568" s="1"/>
-      <c r="C1568" s="1"/>
-    </row>
-    <row r="1569" spans="2:6">
-      <c r="B1569" s="1"/>
-      <c r="C1569" s="1"/>
-    </row>
-    <row r="1570" spans="2:6">
-      <c r="B1570" s="1"/>
-      <c r="C1570" s="1"/>
-    </row>
-    <row r="1571" spans="2:6">
-      <c r="B1571" s="1"/>
-      <c r="C1571" s="1"/>
-    </row>
-    <row r="1572" spans="2:6">
-      <c r="B1572" s="1"/>
-      <c r="C1572" s="1"/>
-    </row>
-    <row r="1573" spans="2:6">
-      <c r="B1573" s="1"/>
-      <c r="C1573" s="1"/>
-    </row>
-    <row r="1574" spans="2:6">
-      <c r="B1574" s="1"/>
-      <c r="C1574" s="1"/>
-    </row>
-    <row r="1575" spans="2:6">
-      <c r="B1575" s="1"/>
-      <c r="C1575" s="1"/>
-    </row>
-    <row r="1576" spans="2:6">
-      <c r="B1576" s="1"/>
-      <c r="C1576" s="1"/>
-    </row>
-    <row r="1577" spans="2:6">
-      <c r="B1577" s="1"/>
-      <c r="C1577" s="1"/>
-    </row>
-    <row r="1578" spans="2:6">
-      <c r="B1578" s="1"/>
-      <c r="C1578" s="1"/>
-    </row>
-    <row r="1579" spans="2:6">
-      <c r="B1579" s="1"/>
-      <c r="C1579" s="1"/>
-    </row>
-    <row r="1580" spans="2:6">
-      <c r="B1580" s="1"/>
-      <c r="C1580" s="1"/>
-    </row>
-    <row r="1581" spans="2:6">
-      <c r="B1581" s="1"/>
-      <c r="C1581" s="1"/>
-    </row>
-    <row r="1582" spans="2:6">
-      <c r="B1582" s="1"/>
-      <c r="C1582" s="1"/>
-      <c r="F1582" s="6"/>
-    </row>
-    <row r="1583" spans="2:6">
-      <c r="B1583" s="1"/>
-      <c r="C1583" s="1"/>
+    <row r="1355" spans="6:6">
+      <c r="F1355" s="6"/>
+    </row>
+    <row r="1583" spans="6:6">
       <c r="F1583" s="6"/>
     </row>
-    <row r="1584" spans="2:6">
-      <c r="B1584" s="1"/>
-      <c r="C1584" s="1"/>
+    <row r="1584" spans="6:6">
       <c r="F1584" s="6"/>
     </row>
-    <row r="1585" spans="2:6">
-      <c r="B1585" s="1"/>
-      <c r="C1585" s="1"/>
+    <row r="1585" spans="6:6">
       <c r="F1585" s="6"/>
     </row>
-    <row r="1586" spans="2:6">
-      <c r="B1586" s="1"/>
-      <c r="C1586" s="1"/>
+    <row r="1586" spans="6:6">
       <c r="F1586" s="6"/>
     </row>
-    <row r="1587" spans="2:6">
-      <c r="B1587" s="1"/>
-      <c r="C1587" s="1"/>
+    <row r="1587" spans="6:6">
       <c r="F1587" s="6"/>
     </row>
-    <row r="1588" spans="2:6">
-      <c r="B1588" s="1"/>
-      <c r="C1588" s="1"/>
+    <row r="1588" spans="6:6">
       <c r="F1588" s="6"/>
     </row>
-    <row r="1589" spans="2:6">
-      <c r="B1589" s="1"/>
-      <c r="C1589" s="1"/>
+    <row r="1589" spans="6:6">
       <c r="F1589" s="6"/>
     </row>
-    <row r="1590" spans="2:6">
-      <c r="B1590" s="1"/>
-      <c r="C1590" s="1"/>
+    <row r="1590" spans="6:6">
       <c r="F1590" s="6"/>
     </row>
-    <row r="1591" spans="2:6">
-      <c r="B1591" s="1"/>
-      <c r="C1591" s="1"/>
+    <row r="1591" spans="6:6">
       <c r="F1591" s="6"/>
     </row>
-    <row r="1592" spans="2:6">
-      <c r="B1592" s="1"/>
-      <c r="C1592" s="1"/>
+    <row r="1592" spans="6:6">
       <c r="F1592" s="6"/>
     </row>
-    <row r="1593" spans="2:6">
-      <c r="B1593" s="1"/>
-      <c r="C1593" s="1"/>
+    <row r="1593" spans="6:6">
       <c r="F1593" s="6"/>
     </row>
-    <row r="1594" spans="2:6">
-      <c r="B1594" s="1"/>
-      <c r="C1594" s="1"/>
+    <row r="1594" spans="6:6">
       <c r="F1594" s="6"/>
     </row>
-    <row r="1595" spans="2:6">
-      <c r="B1595" s="1"/>
-      <c r="C1595" s="1"/>
+    <row r="1595" spans="6:6">
       <c r="F1595" s="6"/>
     </row>
-    <row r="1596" spans="2:6">
-      <c r="B1596" s="1"/>
-      <c r="C1596" s="1"/>
+    <row r="1596" spans="6:6">
       <c r="F1596" s="6"/>
     </row>
-    <row r="1597" spans="2:6">
-      <c r="B1597" s="1"/>
-      <c r="C1597" s="1"/>
-    </row>
-    <row r="1598" spans="2:6">
-      <c r="B1598" s="1"/>
-      <c r="C1598" s="1"/>
-    </row>
-    <row r="1599" spans="2:6">
-      <c r="B1599" s="1"/>
-      <c r="C1599" s="1"/>
-    </row>
-    <row r="1600" spans="2:6">
-      <c r="B1600" s="1"/>
-      <c r="C1600" s="1"/>
-    </row>
-    <row r="1601" spans="2:3">
-      <c r="B1601" s="1"/>
-      <c r="C1601" s="1"/>
-    </row>
-    <row r="1602" spans="2:3">
-      <c r="B1602" s="1"/>
-      <c r="C1602" s="1"/>
-    </row>
-    <row r="1603" spans="2:3">
-      <c r="B1603" s="1"/>
-      <c r="C1603" s="1"/>
-    </row>
-    <row r="1604" spans="2:3">
-      <c r="B1604" s="1"/>
-      <c r="C1604" s="1"/>
-    </row>
-    <row r="1605" spans="2:3">
-      <c r="B1605" s="1"/>
-      <c r="C1605" s="1"/>
-    </row>
-    <row r="1606" spans="2:3">
-      <c r="B1606" s="1"/>
-      <c r="C1606" s="1"/>
-    </row>
-    <row r="1607" spans="2:3">
-      <c r="B1607" s="1"/>
-      <c r="C1607" s="1"/>
-    </row>
-    <row r="1608" spans="2:3">
-      <c r="B1608" s="1"/>
-      <c r="C1608" s="1"/>
-    </row>
-    <row r="1609" spans="2:3">
-      <c r="B1609" s="1"/>
-      <c r="C1609" s="1"/>
-    </row>
-    <row r="1610" spans="2:3">
-      <c r="B1610" s="1"/>
-      <c r="C1610" s="1"/>
-    </row>
-    <row r="1611" spans="2:3">
-      <c r="B1611" s="1"/>
-      <c r="C1611" s="1"/>
-    </row>
-    <row r="1612" spans="2:3">
-      <c r="B1612" s="1"/>
-      <c r="C1612" s="1"/>
-    </row>
-    <row r="1613" spans="2:3">
-      <c r="B1613" s="1"/>
-      <c r="C1613" s="1"/>
-    </row>
-    <row r="1614" spans="2:3">
-      <c r="B1614" s="1"/>
-      <c r="C1614" s="1"/>
-    </row>
-    <row r="1615" spans="2:3">
-      <c r="B1615" s="1"/>
-      <c r="C1615" s="1"/>
-    </row>
-    <row r="1616" spans="2:3">
-      <c r="B1616" s="1"/>
-      <c r="C1616" s="1"/>
-    </row>
-    <row r="1617" spans="2:3">
-      <c r="B1617" s="1"/>
-      <c r="C1617" s="1"/>
-    </row>
-    <row r="1618" spans="2:3">
-      <c r="B1618" s="1"/>
-      <c r="C1618" s="1"/>
-    </row>
-    <row r="1619" spans="2:3">
-      <c r="B1619" s="1"/>
-      <c r="C1619" s="1"/>
-    </row>
-    <row r="1620" spans="2:3">
-      <c r="B1620" s="1"/>
-      <c r="C1620" s="1"/>
-    </row>
-    <row r="1621" spans="2:3">
-      <c r="B1621" s="1"/>
-      <c r="C1621" s="1"/>
-    </row>
-    <row r="1622" spans="2:3">
-      <c r="B1622" s="1"/>
-      <c r="C1622" s="1"/>
-    </row>
-    <row r="1623" spans="2:3">
-      <c r="B1623" s="1"/>
-      <c r="C1623" s="1"/>
-    </row>
-    <row r="1624" spans="2:3">
-      <c r="B1624" s="1"/>
-      <c r="C1624" s="1"/>
-    </row>
-    <row r="1625" spans="2:3">
-      <c r="B1625" s="1"/>
-      <c r="C1625" s="1"/>
-    </row>
-    <row r="1626" spans="2:3">
-      <c r="B1626" s="1"/>
-      <c r="C1626" s="1"/>
-    </row>
-    <row r="1627" spans="2:3">
-      <c r="B1627" s="1"/>
-      <c r="C1627" s="1"/>
-    </row>
-    <row r="1628" spans="2:3">
-      <c r="B1628" s="1"/>
-      <c r="C1628" s="1"/>
-    </row>
-    <row r="1629" spans="2:3">
-      <c r="B1629" s="1"/>
-      <c r="C1629" s="1"/>
-    </row>
-    <row r="1630" spans="2:3">
-      <c r="B1630" s="1"/>
-      <c r="C1630" s="1"/>
-    </row>
-    <row r="1631" spans="2:3">
-      <c r="B1631" s="1"/>
-      <c r="C1631" s="1"/>
-    </row>
-    <row r="1632" spans="2:3">
-      <c r="B1632" s="1"/>
-      <c r="C1632" s="1"/>
-    </row>
-    <row r="1633" spans="2:3">
-      <c r="B1633" s="1"/>
-      <c r="C1633" s="1"/>
-    </row>
-    <row r="1634" spans="2:3">
-      <c r="B1634" s="1"/>
-      <c r="C1634" s="1"/>
-    </row>
-    <row r="1635" spans="2:3">
-      <c r="B1635" s="1"/>
-      <c r="C1635" s="1"/>
-    </row>
-    <row r="1636" spans="2:3">
-      <c r="B1636" s="1"/>
-      <c r="C1636" s="1"/>
-    </row>
-    <row r="1637" spans="2:3">
-      <c r="B1637" s="1"/>
-      <c r="C1637" s="1"/>
-    </row>
-    <row r="1638" spans="2:3">
-      <c r="B1638" s="1"/>
-      <c r="C1638" s="1"/>
-    </row>
-    <row r="1639" spans="2:3">
-      <c r="B1639" s="1"/>
-      <c r="C1639" s="1"/>
-    </row>
-    <row r="1640" spans="2:3">
-      <c r="B1640" s="1"/>
-      <c r="C1640" s="1"/>
-    </row>
-    <row r="1641" spans="2:3">
-      <c r="B1641" s="1"/>
-      <c r="C1641" s="1"/>
-    </row>
-    <row r="1642" spans="2:3">
-      <c r="B1642" s="1"/>
-      <c r="C1642" s="1"/>
-    </row>
-    <row r="1643" spans="2:3">
-      <c r="B1643" s="1"/>
-      <c r="C1643" s="1"/>
-    </row>
-    <row r="1644" spans="2:3">
-      <c r="B1644" s="1"/>
-      <c r="C1644" s="1"/>
-    </row>
-    <row r="1645" spans="2:3">
-      <c r="B1645" s="1"/>
-      <c r="C1645" s="1"/>
-    </row>
-    <row r="1646" spans="2:3">
-      <c r="B1646" s="1"/>
-      <c r="C1646" s="1"/>
-    </row>
-    <row r="1647" spans="2:3">
-      <c r="B1647" s="1"/>
-      <c r="C1647" s="1"/>
-    </row>
-    <row r="1648" spans="2:3">
-      <c r="B1648" s="1"/>
-      <c r="C1648" s="1"/>
-    </row>
-    <row r="1649" spans="2:3">
-      <c r="B1649" s="1"/>
-      <c r="C1649" s="1"/>
-    </row>
-    <row r="1650" spans="2:3">
-      <c r="B1650" s="1"/>
-      <c r="C1650" s="1"/>
-    </row>
-    <row r="1651" spans="2:3">
-      <c r="B1651" s="1"/>
-      <c r="C1651" s="1"/>
-    </row>
-    <row r="1652" spans="2:3">
-      <c r="B1652" s="1"/>
-      <c r="C1652" s="1"/>
-    </row>
-    <row r="1653" spans="2:3">
-      <c r="B1653" s="1"/>
-      <c r="C1653" s="1"/>
-    </row>
-    <row r="1654" spans="2:3">
-      <c r="B1654" s="1"/>
-      <c r="C1654" s="1"/>
-    </row>
-    <row r="1655" spans="2:3">
-      <c r="B1655" s="1"/>
-      <c r="C1655" s="1"/>
-    </row>
-    <row r="1656" spans="2:3">
-      <c r="B1656" s="1"/>
-      <c r="C1656" s="1"/>
-    </row>
-    <row r="1657" spans="2:3">
-      <c r="B1657" s="1"/>
-      <c r="C1657" s="1"/>
-    </row>
-    <row r="1658" spans="2:3">
-      <c r="B1658" s="1"/>
-      <c r="C1658" s="1"/>
-    </row>
-    <row r="1659" spans="2:3">
-      <c r="B1659" s="1"/>
-      <c r="C1659" s="1"/>
-    </row>
-    <row r="1660" spans="2:3">
-      <c r="B1660" s="1"/>
-      <c r="C1660" s="1"/>
-    </row>
-    <row r="1661" spans="2:3">
-      <c r="B1661" s="1"/>
-      <c r="C1661" s="1"/>
-    </row>
-    <row r="1662" spans="2:3">
-      <c r="B1662" s="1"/>
-      <c r="C1662" s="1"/>
-    </row>
-    <row r="1663" spans="2:3">
-      <c r="B1663" s="1"/>
-      <c r="C1663" s="1"/>
-    </row>
-    <row r="1664" spans="2:3">
-      <c r="B1664" s="1"/>
-      <c r="C1664" s="1"/>
-    </row>
-    <row r="1665" spans="2:3">
-      <c r="B1665" s="1"/>
-      <c r="C1665" s="1"/>
-    </row>
-    <row r="1666" spans="2:3">
-      <c r="B1666" s="1"/>
-      <c r="C1666" s="1"/>
-    </row>
-    <row r="1667" spans="2:3">
-      <c r="B1667" s="1"/>
-      <c r="C1667" s="1"/>
-    </row>
-    <row r="1668" spans="2:3">
-      <c r="B1668" s="1"/>
-      <c r="C1668" s="1"/>
-    </row>
-    <row r="1669" spans="2:3">
-      <c r="B1669" s="1"/>
-      <c r="C1669" s="1"/>
-    </row>
-    <row r="1670" spans="2:3">
-      <c r="B1670" s="1"/>
-      <c r="C1670" s="1"/>
-    </row>
-    <row r="1671" spans="2:3">
-      <c r="B1671" s="1"/>
-      <c r="C1671" s="1"/>
-    </row>
-    <row r="1672" spans="2:3">
-      <c r="B1672" s="1"/>
-      <c r="C1672" s="1"/>
-    </row>
-    <row r="1673" spans="2:3">
-      <c r="B1673" s="1"/>
-      <c r="C1673" s="1"/>
-    </row>
-    <row r="1674" spans="2:3">
-      <c r="B1674" s="1"/>
-      <c r="C1674" s="1"/>
-    </row>
-    <row r="1675" spans="2:3">
-      <c r="B1675" s="1"/>
-      <c r="C1675" s="1"/>
-    </row>
-    <row r="1676" spans="2:3">
-      <c r="B1676" s="1"/>
-      <c r="C1676" s="1"/>
-    </row>
-    <row r="1677" spans="2:3">
-      <c r="B1677" s="1"/>
-      <c r="C1677" s="1"/>
-    </row>
-    <row r="1678" spans="2:3">
-      <c r="B1678" s="1"/>
-      <c r="C1678" s="1"/>
-    </row>
-    <row r="1679" spans="2:3">
-      <c r="B1679" s="1"/>
-      <c r="C1679" s="1"/>
-    </row>
-    <row r="1680" spans="2:3">
-      <c r="B1680" s="1"/>
-      <c r="C1680" s="1"/>
-    </row>
-    <row r="1681" spans="2:3">
-      <c r="B1681" s="1"/>
-      <c r="C1681" s="1"/>
-    </row>
-    <row r="1682" spans="2:3">
-      <c r="B1682" s="1"/>
-      <c r="C1682" s="1"/>
-    </row>
-    <row r="1683" spans="2:3">
-      <c r="B1683" s="1"/>
-      <c r="C1683" s="1"/>
-    </row>
-    <row r="1684" spans="2:3">
-      <c r="B1684" s="1"/>
-      <c r="C1684" s="1"/>
-    </row>
-    <row r="1685" spans="2:3">
-      <c r="B1685" s="1"/>
-      <c r="C1685" s="1"/>
-    </row>
-    <row r="1686" spans="2:3">
-      <c r="B1686" s="1"/>
-      <c r="C1686" s="1"/>
-    </row>
-    <row r="1687" spans="2:3">
-      <c r="B1687" s="1"/>
-      <c r="C1687" s="1"/>
-    </row>
-    <row r="1688" spans="2:3">
-      <c r="B1688" s="1"/>
-      <c r="C1688" s="1"/>
-    </row>
-    <row r="1689" spans="2:3">
-      <c r="B1689" s="1"/>
-      <c r="C1689" s="1"/>
-    </row>
-    <row r="1690" spans="2:3">
-      <c r="B1690" s="1"/>
-      <c r="C1690" s="1"/>
-    </row>
-    <row r="1691" spans="2:3">
-      <c r="B1691" s="1"/>
-      <c r="C1691" s="1"/>
-    </row>
-    <row r="1692" spans="2:3">
-      <c r="B1692" s="1"/>
-      <c r="C1692" s="1"/>
-    </row>
-    <row r="1693" spans="2:3">
-      <c r="B1693" s="1"/>
-      <c r="C1693" s="1"/>
-    </row>
-    <row r="1694" spans="2:3">
-      <c r="B1694" s="1"/>
-      <c r="C1694" s="1"/>
-    </row>
-    <row r="1695" spans="2:3">
-      <c r="B1695" s="1"/>
-      <c r="C1695" s="1"/>
-    </row>
-    <row r="1696" spans="2:3">
-      <c r="B1696" s="1"/>
-      <c r="C1696" s="1"/>
-    </row>
-    <row r="1697" spans="2:3">
-      <c r="B1697" s="1"/>
-      <c r="C1697" s="1"/>
-    </row>
-    <row r="1698" spans="2:3">
-      <c r="B1698" s="1"/>
-      <c r="C1698" s="1"/>
-    </row>
-    <row r="1699" spans="2:3">
-      <c r="B1699" s="1"/>
-      <c r="C1699" s="1"/>
-    </row>
-    <row r="1700" spans="2:3">
-      <c r="B1700" s="1"/>
-      <c r="C1700" s="1"/>
-    </row>
-    <row r="1701" spans="2:3">
-      <c r="B1701" s="1"/>
-      <c r="C1701" s="1"/>
-    </row>
-    <row r="1702" spans="2:3">
-      <c r="B1702" s="1"/>
-      <c r="C1702" s="1"/>
-    </row>
-    <row r="1703" spans="2:3">
-      <c r="B1703" s="1"/>
-      <c r="C1703" s="1"/>
-    </row>
-    <row r="1704" spans="2:3">
-      <c r="B1704" s="1"/>
-      <c r="C1704" s="1"/>
-    </row>
-    <row r="2260" spans="3:5">
-      <c r="C2260" s="4"/>
-      <c r="D2260" s="4"/>
-      <c r="E2260" s="4"/>
+    <row r="1597" spans="6:6">
+      <c r="F1597" s="6"/>
     </row>
     <row r="2261" spans="3:5">
       <c r="C2261" s="4"/>
@@ -8283,12 +7902,10 @@
       <c r="D2264" s="4"/>
       <c r="E2264" s="4"/>
     </row>
-    <row r="2320" spans="1:5">
-      <c r="A2320" s="6"/>
-      <c r="B2320" s="6"/>
-      <c r="C2320" s="5"/>
-      <c r="D2320" s="5"/>
-      <c r="E2320" s="5"/>
+    <row r="2265" spans="3:5">
+      <c r="C2265" s="4"/>
+      <c r="D2265" s="4"/>
+      <c r="E2265" s="4"/>
     </row>
     <row r="2321" spans="1:5">
       <c r="A2321" s="6"/>
@@ -8318,12 +7935,12 @@
       <c r="D2324" s="5"/>
       <c r="E2324" s="5"/>
     </row>
-    <row r="2675" spans="1:5">
-      <c r="A2675" s="6"/>
-      <c r="B2675" s="6"/>
-      <c r="C2675" s="5"/>
-      <c r="D2675" s="5"/>
-      <c r="E2675" s="5"/>
+    <row r="2325" spans="1:5">
+      <c r="A2325" s="6"/>
+      <c r="B2325" s="6"/>
+      <c r="C2325" s="5"/>
+      <c r="D2325" s="5"/>
+      <c r="E2325" s="5"/>
     </row>
     <row r="2676" spans="1:5">
       <c r="A2676" s="6"/>
@@ -8353,8 +7970,16 @@
       <c r="D2679" s="5"/>
       <c r="E2679" s="5"/>
     </row>
+    <row r="2680" spans="1:5">
+      <c r="A2680" s="6"/>
+      <c r="B2680" s="6"/>
+      <c r="C2680" s="5"/>
+      <c r="D2680" s="5"/>
+      <c r="E2680" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/stakeholderinterviews.xlsx
+++ b/stakeholderinterviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/stakeholderinterviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7D1B23-2A6D-9D4F-93EF-DE16D77FC1FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6736BCE-7BD9-8648-91A0-DD32A1809FBD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="45240" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="177">
   <si>
     <t>type</t>
   </si>
@@ -585,6 +585,19 @@
 6. I understand the research results will be shared with other scientist and health-workers nationally and internationally.
 7. I understand that I can raise concerns or make a complaint any time necessary.
 8. I have had the study explained to me. I have understood all that has been read and had my questions answered satisfactorily.</t>
+  </si>
+  <si>
+    <t>sum(${consent_group2}) = ${group_number}</t>
+  </si>
+  <si>
+    <t>interview_group_no_audio</t>
+  </si>
+  <si>
+    <t>Not all ${interviewee_type} has consented to auido recording of focus group discussion.
+Start taking notes of the focus group discussion.</t>
+  </si>
+  <si>
+    <t>sum(${consent_group2}) &gt; ${group_number}</t>
   </si>
 </sst>
 </file>
@@ -1052,20 +1065,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="36.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="65.83203125" style="3" customWidth="1"/>
     <col min="4" max="6" width="18.83203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="50.83203125" style="4" customWidth="1"/>
     <col min="8" max="9" width="18.83203125" style="3" customWidth="1"/>
@@ -1191,7 +1204,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" s="14" customFormat="1" ht="198" customHeight="1">
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="160">
       <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
@@ -1203,7 +1216,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:14" ht="218" customHeight="1">
+    <row r="9" spans="1:14" ht="183" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -1306,7 +1319,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="409.6">
+    <row r="16" spans="1:14" ht="408" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1950,7 +1963,7 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" ht="32">
       <c r="A62" s="3" t="s">
         <v>40</v>
       </c>
@@ -1961,78 +1974,101 @@
         <v>170</v>
       </c>
       <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="12" t="s">
+      <c r="K62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="96">
+      <c r="A63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:11" ht="32">
-      <c r="A65" s="3" t="s">
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" ht="32">
+      <c r="A66" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G65" s="3"/>
-      <c r="K65" s="3" t="s">
+      <c r="G66" s="3"/>
+      <c r="K66" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="C66" s="4"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:11" ht="64">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:11">
+      <c r="C67" s="4"/>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" ht="64">
+      <c r="A68" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="K67" s="3" t="s">
+      <c r="G68" s="3"/>
+      <c r="K68" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:11" ht="48">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:11">
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" ht="48">
+      <c r="A70" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:11">
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:11">
@@ -2049,12 +2085,12 @@
     </row>
     <row r="75" spans="1:11">
       <c r="G75" s="3"/>
-      <c r="K75" s="3" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="76" spans="1:11">
       <c r="G76" s="3"/>
+      <c r="K76" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="77" spans="1:11">
       <c r="G77" s="3"/>
@@ -2071,10 +2107,10 @@
     <row r="81" spans="7:7">
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="7:7" ht="35" customHeight="1">
+    <row r="82" spans="7:7">
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="7:7">
+    <row r="83" spans="7:7" ht="35" customHeight="1">
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="7:7">
@@ -2259,6 +2295,9 @@
     </row>
     <row r="144" spans="7:7">
       <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="7:7">
+      <c r="G145" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stakeholderinterviews.xlsx
+++ b/stakeholderinterviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/stakeholderinterviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882BC1E2-A73B-B045-A7FD-530DDAAE5CDD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E1E34-D0D4-5743-8746-179387177D48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="460" windowWidth="45240" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="45240" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="198">
   <si>
     <t>type</t>
   </si>
@@ -584,6 +584,26 @@
 The research is sponsored by a Global Challenges Research Fund, University of Oxford.</t>
   </si>
   <si>
+    <t>&lt;span style="color:blue"&gt;${interviewee_name}&lt;/span&gt; has not provided consent. Stop interview. Thank &lt;span style="color:blue"&gt;${interviewee_name}&lt;/span&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:blue"&gt;${interviewee_name}&lt;/span&gt; unsure of consent. Stop interview. Thank &lt;span style="color:blue"&gt;${interviewee_name}&lt;/span&gt; and ask when you can call back to confirm consent.</t>
+  </si>
+  <si>
+    <t>Not all &lt;span style="color:blue"&gt;${interviewee_type}&lt;/span&gt; has consented to auido recording of focus group discussion.
+Start taking notes of the focus group discussion.</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:blue"&gt;${interviewee_name}&lt;/span&gt; has not provided consent. Stop interview.</t>
+  </si>
+  <si>
+    <t>Interview finished.
+Thank &lt;span style="color:blue"&gt;${interviewee_name}&lt;/span&gt;.</t>
+  </si>
+  <si>
+    <t>Mi givim tok orait lo usim ol toktok bilong me lo ol arapela wok painim, na rausim nem bilong mi.</t>
+  </si>
+  <si>
     <t>My name is &lt;span style="color:blue&gt;${interviewee_group_name}&lt;/span&gt;.
 1. I have read the information sheet and have had the opportunity to ask questions and received satisfactory answers.
 2. I understand that this research project has been reviewed by the relevant ethical authorities, and received ethics approval through, the University of Papua New Guinea the Ethics Committee and the Faculty of Tropical Medicine and the University of Oxford Research Ethics Committee.
@@ -592,24 +612,90 @@
 5. I understand that any information I choose to disclose will be recorded anonymously and held confidentially and I am aware who will have access to personal data provided.
 6. I understand the research results will be shared with other scientist and health-workers nationally and internationally.
 7. I understand that I can raise concerns or make a complaint any time necessary.
-8. I have had the study explained to me. I have understood all that has been read and had my questions answered satisfactorily.</t>
-  </si>
-  <si>
-    <t>&lt;span style="color:blue"&gt;${interviewee_name}&lt;/span&gt; has not provided consent. Stop interview. Thank &lt;span style="color:blue"&gt;${interviewee_name}&lt;/span&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;span style="color:blue"&gt;${interviewee_name}&lt;/span&gt; unsure of consent. Stop interview. Thank &lt;span style="color:blue"&gt;${interviewee_name}&lt;/span&gt; and ask when you can call back to confirm consent.</t>
-  </si>
-  <si>
-    <t>Not all &lt;span style="color:blue"&gt;${interviewee_type}&lt;/span&gt; has consented to auido recording of focus group discussion.
-Start taking notes of the focus group discussion.</t>
-  </si>
-  <si>
-    <t>&lt;span style="color:blue"&gt;${interviewee_name}&lt;/span&gt; has not provided consent. Stop interview.</t>
-  </si>
-  <si>
-    <t>Interview finished.
-Thank &lt;span style="color:blue"&gt;${interviewee_name}&lt;/span&gt;.</t>
+8. I have had the study explained to me. I have understood all that has been read and had my questions answered satisfactorily.
+9. I understand that I can change my mind at any stage and it will not affect me or my baby in any way.</t>
+  </si>
+  <si>
+    <t>Nem blo mi em &lt;span style="color:blue&gt;${interviewee_group_name}&lt;/span&gt;.
+1. Mi lukim na ridim displa pepa wer igat tokok blo displa wok painim (o wanpla ie bin ridim ikam lo mi) na mi bin igat sanis lo askim sampla tok painim, na mi kimsim gutpla bekim toktok.
+2. Mi save olsem ol boss mahn na save lain e bin lukim dispela pepa na givim tok orait tru I kam lo Univesiti bilong Papua Niugini, Skul bilong Marasin na helt sience, Fecalti bilong Tropicol Marasin na Univesiti blo Oxford Resech na Etics comiti.
+3. Mi wan bel lo sindaun insait lo dispela wok painin, na mi ken tok nogat lo putim sampla tok askim bilog mi insait lo dispela wok painim. Mi inap lon tok nogat lo sampela askim sapos mi laik.
+4. Me save osem insait lo dispela wok painim mi e mas givim ansa lo sampela tok askim na sindaun na toktok wantem ol arapla meri.
+5. Mi save osem ol toktok wer me tokim lo ol mahn e go pas lo dispela wok painim bai nonap stap lo ples kilia lo ol arapela mahn lo lukim na ol bai nonap tokaut nating nating. Mi save olsem ol lain igo pas lo dispel wok painim tasol bai igat save lo olgeta toktok mipla e makim.
+6. Mi save osem ol arapela ol save mahn na meri insait lo kantry na arasait lo kantry e bai lukim ol dispela toktok insait lo dispela wok painim.
+7. Me save olsem sapos mi igat wari mi ken tokaut sapos mi laik.
+8. Me kisim as tingting lo dispela wok painim. Mi wan bel lo olgeta toktok insait lo dispela pepa na mi hamamas lo olgeta ansa blo tok askim.
+9. Me save osem me ken senisim tingting bilong mi na pikinini bilog mi bai nonap kisim asuwa.</t>
+  </si>
+  <si>
+    <t>Nem blo mi em &lt;span style="color:blue"&gt;${interviewee_name}&lt;/span&gt;.
+1. Mi lukim na ridim displa pepa wer igat tokok blo displa wok painim (o wanpla ie bin ridim ikam lo mi) na mi bin igat sanis lo askim sampla tok painim, na mi kimsim gutpla bekim toktok.
+2. Mi save olsem ol boss mahn na save lain e bin lukim dispela pepa na givim tok orait tru I kam lo Univesiti bilong Papua Niugini, Skul bilong Marasin na helt sience, Fecalti bilong Tropicol Marasin na Univesiti blo Oxford Resech na Etics comiti.
+3. Mi wan bel lo sindaun insait lo dispela wok painin, na mi ken tok nogat lo putim sampla tok askim bilog mi insait lo dispela wok painim. Mi inap lon tok nogat lo sampela askim sapos mi laik.
+4. Me save osem insait lo dispela wok painim mi e mas givim ansa lo sampela tok askim na sindaun na toktok wantem ol arapla meri.
+5. Mi save osem ol toktok wer me tokim lo ol mahn e go pas lo dispela wok painim bai nonap stap lo ples kilia lo ol arapela mahn lo lukim na ol bai nonap tokaut nating nating. Mi save olsem ol lain igo pas lo dispel wok painim tasol bai igat save lo olgeta toktok mipla e makim.
+6. Mi save osem ol arapela ol save mahn na meri insait lo kantry na arasait lo kantry e bai lukim ol dispela toktok insait lo dispela wok painim.
+7. Me save olsem sapos mi igat wari mi ken tokaut sapos mi laik.
+8. Me kisim as tingting lo dispela wok painim. Mi wan bel lo olgeta toktok insait lo dispela pepa na mi hamamas lo olgeta ansa blo tok askim.
+9. Me save osem me ken senisim tingting bilong mi na pikinini bilog mi bai nonap kisim asuwa.</t>
+  </si>
+  <si>
+    <t>Mi givim tok orait lo usim ol toktok bilong me lo ol arapela wok painim</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Wanem samtin bai kamap lo displa wok painim aut blo mipela?&lt;/h3&gt;
+Sapos yu tingim olsem yu laik halivim mipela insait lo wok painim aut bilong mipela, bai mipla I askim yu lo putim han mak bilong yu long wanpela pepa we I sowim olsem yu givim tok orait lo mipla lo askim yu ol kwesten bilong wok painim aut bilong mipela. Wanpela wokman bilong mipela bai sidaun wantaim yu na raitim ol as tintin na save bilong you lo mama na niupela bebi. Dispela em bai kisim olsem wanpla hour. Sapos yupla pilim olsem yu les lo bekim ol kwesten bilong miplela, yu ken stopim mipela lo askim yu ol kwesten na kirap lusim dispela wokman bilong mipela.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Husait em ol narapela lain insait long dispel wok painim aut?&lt;/h3&gt;
+Mipela bai singautim ol man na meri long kam na mipela bai askim ol lo ol kain kwesten we bai i ken halivim mipela long kisim as tingting bilong ol. Ol mama na papa, ol lida bilong komuniti, ol wokman bilong helt, ol lain we I save makim disisen lo helt sevis blo yumi, na ol lain we I save wok bung wantaim insait lo wok bilong helt bilong ol mama na nuipla bebi.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Igat nid lo mi kam insait long dispela wok?&lt;/h3&gt;
+Em I stap long laik bilong yu sapos yu laik kam insait na halivim mipela lo wokim dispel wok painim aut o nogat. Yu ken askim ol kwesten lo mipela bifo yu kam insait na halivim mipela long dispel wok painim aut bilong mipela. Sapos yu tingim olsem yu les long wok lo halivim mipela long dispel wok painim aut, yu ken lusim mipela long laik bilong yu. Na tu, laik blo yu sapos yu no tokim mipela ol as tingting bilong yu olsem y bai yu lusim dispel wok painim aut bilon mipela.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Lo wanem has mipela I wokim dispela wok paininm na dispel wok painim em bilong wanem samting steret?&lt;/h3&gt;
+Papua New Guinea em I wokim bikpela wok lo surukim kam daun ol indai bilong ol mama na ol nuipela babi wer bon insait lo kantri. Lo yia 1990 kam inap lon 2015, insait lo kantri, indai bilong ol mama I go daun olsem 25%, tasol sapos yu lukluk lo ol narapela hap insait lo world, ol indai bilong ol mama na nuipela bon babi bilong yumi, I stap antap yet. Mipela wokim dispel wok painim aut na luksave lo wanem samting we I sa wokim na planti mama na nuipla bon pikinini save indai lo em.
+Dispela wok painim aut bai lukluk long ol rekod we ol I stap pinis bilong lukautim ol mama na nuipela bebi na tu kisim tingting bilong ol wanwan grup we mipela I ken bung wantaim na wok bung wantaim. Ol komuniti lida, memba na ol wok man na meri bilong helt. Wok painim aut mipela kisim bai halivim lo lukluk lo ol program na polici we I ken halivim helt bilong ol mama na ol nuipla born babi insait long PNG.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Igat ol sampla hevi ken kamap lo ol lain husait bai kam in lo dispel wok painim aut?&lt;/h3&gt;
+Nogat. Sapos yu no filim gud lo ol askim blo mipla yu ken stopim ol askim blo mipla lo laik bilong yu.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Wanem samtin bai kamap lo olgeta wanwan bekim blo mipla blo ol kwesten yupla askim&lt;/h3&gt;
+Wanwan manmeri mipla wok bung wantaim, mipla bai givim wanwan namba blo yupela yet. Displa wei, wanem bekim blo yu lo ol askim blo mipla, nogat wanpla bai save wanem samtin yu tokim mipla. Olgeta ol toktok mipla rekodim, taim mipla pinis lo raitim lo pepa na chekim, bai mipla rausim go. Ol woklain blo displa stadi tasol bai enap lo lukim olgeta wok painim aut mipla kisim. Sapos yu laikim, mipela ken givim yu ol rekod na olgeda toktok bun wantaim na soim yu lo olgeda wok painim na pepa wok tu.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Ol bai wokim wanem wantaim ol toktok mipla givim lo yupla?&lt;/h3&gt;
+Ol toktok mipla kisim lo yupla mipla bai kisim go na sharim wantaim ol helt wanwok blo mipla husait e save wok bung wantaim lo givim sevis lo ol mama na nuipla babi insait lo kantri, na tu lukluk lo wanem ol nuipla rot we e stap lo mipla ken behainim lo givim gutpla mor sevis kam lo ol mama na nuipla babi. Mipla bai sharim ol wok painim aut blo mipla tu wantaim ol narapla wok painim aut lain o scientist na raitim ripot na givim toktok lo ol bikpela confrens autsait lo kantri. Insait lo displa olgeta wok mipla wokim, mipla bai nonap tokaut lo nem blo yu.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Will the research study be published?&lt;/h3&gt;
+Each participant will be assigned an identification number to preserve anonymity. The recordings will be destroyed once the transcripts have been checked for accuracy. Only the study staff will have access to your information. We can provide you with transcripts of the interview upon request and indicate how the information provided is being used.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt; Dispela wok painim aut I bai kamap lo ol bikpela pepa bilon ol save man me&lt;/h3&gt;
+Mipela bai toksave lo ol bos man meri na ol narapela man meri usait save lukautim helt bilong or mama na ol niupela bebi insait lo PNG. Mipela bai toksave tu wantaim ol narapela wok man na meri olsem mipela na insait lo Sience. Mipela bai putim tu lo pepa bilong ol save man meri insait lo PNG na narapela ol kantri tu. Mipela toksave lo yu olsem mipela bai nonap putim nem bilong yu na luksave bilong yu. Olgeda has tintin lo dispela wok painim bai kamap lo ol miting wantem ol bikpela bos bilong PNG usait save lukautim sindaun bilong ol mama na ol niupela bebi.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt; Usait ol lain sidaun na tok orait lo displa wok ken kamap?&lt;/h3&gt;
+I gat tupela difrent komiti ibin sidaun na lukluk na makim disesen lo displa wok. Wanpla em Universiti blo Papua New Guinea, School of Medicine and Health Science ethics komiti na narapla em wanpla komiti insait lo Universiti of Oxford Tropical Research.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Bai mi kisim kompensesen taim mi wok bung wantaim yuplela?&lt;/h3&gt;
+I nogat wanpla samtin we mipla ken givim lo yu lo tok tenkyu lo wok bung wantaim mipla, but wanem ol askim blo mipla yupla bekim, em bai halivim lo skulim mipla lo hau mipla ken lukluk na stretim ol sevis blo ol mama lo taim ol karim niupela bebi na tu ol nuipla babi insait lo kantri.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Bai mi toktok lo husait sapos mi gat wanpla wari or mi no kisim bel isi lo displa wok painim?&lt;/h3&gt;
+Sapos yu gat wanpla wari lo wanpla pat blo dispel wok painim, please ringim Dr Vivienne Kuma (tel +675 72143853). Mipla bai traim best blo mipla lo bekim wanem askim yu gat. Sapos mipla no bekim gut askim blo yu, o yu laik save mor, plis rigim displa namba.
+Em namba blo wanpla wanwok lol Universiti of Papua New Guinea, School of Medicine and Health Science Ethics Committee. Bos Man bilong Etics Comite (tel +675 311 2626)</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Husait wokim dispel wok painim, em bai kamap lo we, na husait givim mani lo wokim?&lt;/h3&gt;
+Lida bilong wok painim em Dr Proochista Ariana, em blo Oxford Univesiti. Igat ol wok painim aut grup we I stap insait lo kantri na autsait lo kantri wantaim ol helt dipatment lain we i woklo halivim lida blo displa wok painim. Insait lo ol peles we Oxford Univesiti laik wokim wok painim aut, wanwan ol wok painim aut komiti mas sidaun na tok orait pastaim bifo wok painim aut ken stat. ol komiti taim ol I sidaun lo kamap wantaim disisen, ol e mas lukluk gut na agri olsem displela wok painim aut em bikpla samtin, ol e mas luksave olsem em e bihainim lo blo wok painim aut autsait lo kantri na lo blo wok painim aut insait lo displa kantri tu. Insait lo dispepla ol e mas luksave olsem I gat lo bilong lukautim ol lain we e bai wok bung wantaim insait lo dispela wok painim aut.
+Global Challenges Research Fund, University of Oxford, ol e givim mani lo wokim dispela wok painim aut.</t>
   </si>
 </sst>
 </file>
@@ -1077,20 +1163,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:Q146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="36.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="65.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="101" style="3" customWidth="1"/>
+    <col min="4" max="4" width="100.83203125" style="3" customWidth="1"/>
     <col min="5" max="7" width="18.83203125" style="3" customWidth="1"/>
     <col min="8" max="9" width="50.83203125" style="4" customWidth="1"/>
     <col min="10" max="11" width="18.83203125" style="3" customWidth="1"/>
@@ -1164,7 +1251,13 @@
       <c r="C2" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>148</v>
       </c>
       <c r="P2" s="3" t="s">
@@ -1181,10 +1274,15 @@
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="P3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1220,7 +1318,9 @@
       <c r="C7" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -1237,7 +1337,7 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" s="14" customFormat="1" ht="194" customHeight="1">
+    <row r="8" spans="1:17" s="14" customFormat="1" ht="144">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
@@ -1247,10 +1347,12 @@
       <c r="C8" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="183" customHeight="1">
+    <row r="9" spans="1:17" ht="112">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -1260,9 +1362,11 @@
       <c r="C9" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" ht="32">
+      <c r="D9" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1272,11 +1376,15 @@
       <c r="C10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="P10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1291,11 +1399,15 @@
       <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="P11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1310,7 +1422,13 @@
       <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="P12" s="3" t="s">
@@ -1327,7 +1445,13 @@
       <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="P13" s="3" t="s">
@@ -1344,14 +1468,20 @@
       <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H14" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="I14" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="64">
+    <row r="15" spans="1:17" ht="48">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1361,7 +1491,9 @@
       <c r="C15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:17" ht="408" customHeight="1">
       <c r="A16" s="3" t="s">
@@ -1373,11 +1505,13 @@
       <c r="C16" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="32">
+    <row r="17" spans="1:17">
       <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
@@ -1387,11 +1521,15 @@
       <c r="C17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="H17" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="P17" s="3" t="s">
         <v>24</v>
       </c>
@@ -1403,14 +1541,18 @@
       <c r="B18" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="H18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="N18" s="4" t="s">
         <v>101</v>
       </c>
@@ -1428,10 +1570,15 @@
       <c r="C19" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="H19" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="J19" s="3" t="s">
         <v>66</v>
       </c>
@@ -1477,7 +1624,9 @@
       <c r="C22" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -1504,7 +1653,9 @@
       <c r="C23" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
@@ -1518,11 +1669,15 @@
       <c r="C24" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="H24" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="N24" s="3" t="s">
         <v>102</v>
       </c>
@@ -1540,8 +1695,13 @@
       <c r="C25" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="H25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>149</v>
       </c>
       <c r="N25" s="3" t="s">
@@ -1586,7 +1746,9 @@
       <c r="C28" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -1610,7 +1772,7 @@
       <c r="I29" s="3"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:17" ht="48">
+    <row r="30" spans="1:17" ht="32">
       <c r="A30" s="3" t="s">
         <v>108</v>
       </c>
@@ -1620,11 +1782,15 @@
       <c r="C30" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="H30" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="P30" s="3" t="s">
         <v>24</v>
@@ -1644,7 +1810,9 @@
       <c r="C32" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -1671,7 +1839,9 @@
       <c r="C33" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>162</v>
+      </c>
       <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:16" ht="280" customHeight="1">
@@ -1684,11 +1854,13 @@
       <c r="C34" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:16" ht="192">
+    <row r="35" spans="1:16" ht="144">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -1698,7 +1870,9 @@
       <c r="C35" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
@@ -1712,7 +1886,9 @@
       <c r="C36" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
@@ -1726,11 +1902,13 @@
       <c r="C37" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:16" ht="96">
+    <row r="38" spans="1:16" ht="80">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -1740,9 +1918,11 @@
       <c r="C38" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:16" ht="160">
+      <c r="D38" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="144">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -1752,7 +1932,9 @@
       <c r="C39" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
@@ -1766,11 +1948,13 @@
       <c r="C40" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:16" ht="112">
+    <row r="41" spans="1:16" ht="195" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -1778,186 +1962,215 @@
         <v>122</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:16" ht="160">
+    <row r="42" spans="1:16" ht="96">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:16" ht="228" customHeight="1">
+    <row r="43" spans="1:16" ht="112">
       <c r="A43" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:16" ht="330" customHeight="1">
+    <row r="44" spans="1:16" ht="228" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="4"/>
+        <v>173</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:16" ht="160">
+    <row r="45" spans="1:16" ht="330" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" ht="112">
+      <c r="A46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:16" ht="32">
-      <c r="A46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="H46" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="P46" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="32">
+      <c r="D46" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="H47" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="P47" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="32">
       <c r="A48" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>40</v>
+        <v>129</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="64">
+    <row r="49" spans="1:17" ht="32">
       <c r="A49" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H49" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="409.5" customHeight="1">
+        <v>40</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="48">
       <c r="A50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="409.5" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:17" ht="32">
-      <c r="A51" s="3" t="s">
+      <c r="C51" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="H51" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="P51" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="32">
-      <c r="A52" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="H52" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="N52" s="4" t="s">
-        <v>97</v>
+      <c r="I52" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>24</v>
@@ -1965,20 +2178,22 @@
     </row>
     <row r="53" spans="1:17" ht="32">
       <c r="A53" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>67</v>
+        <v>96</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3" t="s">
-        <v>66</v>
+      <c r="I53" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>97</v>
@@ -1987,302 +2202,354 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="68" customHeight="1">
+    <row r="54" spans="1:17" ht="32">
       <c r="A54" s="3" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="H54" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="N54" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="81" customHeight="1">
+      <c r="I54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="68" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="4"/>
+        <v>175</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="H55" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I55" s="3"/>
+      <c r="I55" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="N55" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="81" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N56" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="16" t="s">
+    <row r="57" spans="1:17">
+      <c r="A57" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="N57" s="4"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="12" t="s">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:17" ht="48">
-      <c r="A60" s="12" t="s">
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:17" ht="48">
+      <c r="A61" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B61" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="13" t="s">
+      <c r="D61" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-    </row>
-    <row r="61" spans="1:17" ht="80">
-      <c r="A61" s="3" t="s">
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+    </row>
+    <row r="62" spans="1:17" ht="48">
+      <c r="A62" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:17" ht="32">
-      <c r="A62" s="3" t="s">
+      <c r="D62" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:17" ht="32">
+      <c r="A63" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="H62" s="3" t="s">
+      <c r="D63" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="N62" s="4" t="s">
+      <c r="I63" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N63" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="96">
-      <c r="A63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="H63" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:17" ht="64">
+      <c r="A64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" ht="51" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D66" s="4"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+    </row>
+    <row r="66" spans="1:17">
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="N66" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+    </row>
+    <row r="67" spans="1:17" ht="51" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" ht="83" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>177</v>
-      </c>
+      <c r="N67" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="N68" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+    </row>
+    <row r="69" spans="1:17" ht="83" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:14" ht="64">
-      <c r="A70" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D70" s="4"/>
+      <c r="N69" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:17" ht="48">
+      <c r="A71" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:17">
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:17">
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:17">
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:17">
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:17">
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="N76" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+    </row>
+    <row r="77" spans="1:17">
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="N77" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:17">
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:17">
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
@@ -2294,11 +2561,11 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="8:9" ht="35" customHeight="1">
+    <row r="83" spans="8:9">
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="8:9">
+    <row r="84" spans="8:9" ht="35" customHeight="1">
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
@@ -2545,6 +2812,10 @@
     <row r="145" spans="8:9">
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="8:9">
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2562,7 +2833,7 @@
   <dimension ref="A1:G2680"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2603,6 +2874,9 @@
       <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
@@ -2614,6 +2888,9 @@
       <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
@@ -2625,6 +2902,9 @@
       <c r="C4" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
@@ -2636,6 +2916,9 @@
       <c r="C5" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
@@ -2647,6 +2930,9 @@
       <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
@@ -2658,6 +2944,9 @@
       <c r="C7" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="32">
       <c r="A9" s="3" t="s">
@@ -2669,7 +2958,9 @@
       <c r="C9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="48">
       <c r="A10" s="3" t="s">
@@ -2681,7 +2972,9 @@
       <c r="C10" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
@@ -2693,6 +2986,9 @@
       <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
@@ -2704,6 +3000,9 @@
       <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="48">
       <c r="A14" s="3" t="s">
@@ -2715,7 +3014,9 @@
       <c r="C14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="32">
       <c r="A15" s="3" t="s">
@@ -2727,7 +3028,9 @@
       <c r="C15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="32">
       <c r="A16" s="3" t="s">
@@ -2739,7 +3042,9 @@
       <c r="C16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
@@ -2751,6 +3056,9 @@
       <c r="C17" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
@@ -2762,6 +3070,9 @@
       <c r="C19" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
@@ -2773,6 +3084,9 @@
       <c r="C20" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
@@ -2784,6 +3098,9 @@
       <c r="C21" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
@@ -2793,6 +3110,9 @@
         <v>147</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>147</v>
       </c>
     </row>

--- a/stakeholderinterviews.xlsx
+++ b/stakeholderinterviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/stakeholderinterviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633E1E34-D0D4-5743-8746-179387177D48}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18571FF9-BD3F-0E4B-AA84-2FEB2DBCC1CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="45240" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="199">
   <si>
     <t>type</t>
   </si>
@@ -696,6 +696,9 @@
     <t>&lt;h3&gt;Husait wokim dispel wok painim, em bai kamap lo we, na husait givim mani lo wokim?&lt;/h3&gt;
 Lida bilong wok painim em Dr Proochista Ariana, em blo Oxford Univesiti. Igat ol wok painim aut grup we I stap insait lo kantri na autsait lo kantri wantaim ol helt dipatment lain we i woklo halivim lida blo displa wok painim. Insait lo ol peles we Oxford Univesiti laik wokim wok painim aut, wanwan ol wok painim aut komiti mas sidaun na tok orait pastaim bifo wok painim aut ken stat. ol komiti taim ol I sidaun lo kamap wantaim disisen, ol e mas lukluk gut na agri olsem displela wok painim aut em bikpla samtin, ol e mas luksave olsem em e bihainim lo blo wok painim aut autsait lo kantri na lo blo wok painim aut insait lo displa kantri tu. Insait lo dispepla ol e mas luksave olsem I gat lo bilong lukautim ol lain we e bai wok bung wantaim insait lo dispela wok painim aut.
 Global Challenges Research Fund, University of Oxford, ol e givim mani lo wokim dispela wok painim aut.</t>
+  </si>
+  <si>
+    <t>group_introduction_12</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1169,10 @@
   <dimension ref="A1:Q146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1975,7 +1978,7 @@
         <v>35</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>171</v>
@@ -1991,7 +1994,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>172</v>
@@ -2007,7 +2010,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>173</v>
@@ -2023,7 +2026,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>174</v>

--- a/stakeholderinterviews.xlsx
+++ b/stakeholderinterviews.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/stakeholderinterviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18571FF9-BD3F-0E4B-AA84-2FEB2DBCC1CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E92785-0206-B146-931A-36EF1C052539}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="45240" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="201">
   <si>
     <t>type</t>
   </si>
@@ -699,6 +699,12 @@
   </si>
   <si>
     <t>group_introduction_12</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>end repeat</t>
   </si>
 </sst>
 </file>
@@ -1168,11 +1174,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1191,7 +1197,7 @@
     <col min="18" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="17">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="17">
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
@@ -1294,7 +1300,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="112">
+    <row r="5" spans="1:17" ht="119">
       <c r="A5" s="3" t="s">
         <v>115</v>
       </c>
@@ -1311,7 +1317,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="48">
+    <row r="7" spans="1:17" ht="51">
       <c r="A7" s="12" t="s">
         <v>47</v>
       </c>
@@ -1340,7 +1346,7 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:17" s="14" customFormat="1" ht="144">
+    <row r="8" spans="1:17" s="14" customFormat="1" ht="153">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
@@ -1355,7 +1361,7 @@
       </c>
       <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="112">
+    <row r="9" spans="1:17" ht="119">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" ht="17">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="32">
+    <row r="11" spans="1:17" ht="34">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="32">
+    <row r="12" spans="1:17" ht="34">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="48">
+    <row r="13" spans="1:17" ht="51">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1461,7 +1467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="48">
+    <row r="14" spans="1:17" ht="51">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="48">
+    <row r="15" spans="1:17" ht="51">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1514,7 +1520,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" ht="17">
       <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="32">
+    <row r="18" spans="1:17" ht="34">
       <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="32">
+    <row r="19" spans="1:17" ht="34">
       <c r="A19" s="3" t="s">
         <v>65</v>
       </c>
@@ -1617,7 +1623,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="32">
+    <row r="22" spans="1:17" ht="34">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
@@ -1662,7 +1668,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="64">
+    <row r="24" spans="1:17" ht="68">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="64">
+    <row r="25" spans="1:17" ht="68">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1739,7 +1745,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="48">
+    <row r="28" spans="1:17" ht="51">
       <c r="A28" s="12" t="s">
         <v>47</v>
       </c>
@@ -1775,7 +1781,7 @@
       <c r="I29" s="3"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:17" ht="32">
+    <row r="30" spans="1:17" ht="34">
       <c r="A30" s="3" t="s">
         <v>108</v>
       </c>
@@ -1803,9 +1809,9 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" ht="17">
       <c r="A32" s="16" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>104</v>
@@ -1863,7 +1869,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:16" ht="144">
+    <row r="35" spans="1:16" ht="153">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -1911,7 +1917,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:16" ht="80">
+    <row r="38" spans="1:16" ht="85">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="144">
+    <row r="39" spans="1:16" ht="153">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -1973,7 +1979,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:16" ht="96">
+    <row r="42" spans="1:16" ht="102">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
@@ -1989,7 +1995,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:16" ht="112">
+    <row r="43" spans="1:16" ht="119">
       <c r="A43" s="3" t="s">
         <v>35</v>
       </c>
@@ -2037,7 +2043,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:16" ht="112">
+    <row r="46" spans="1:16" ht="119">
       <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" ht="17">
       <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="32">
+    <row r="48" spans="1:16" ht="34">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="32">
+    <row r="49" spans="1:17" ht="34">
       <c r="A49" s="3" t="s">
         <v>25</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="48">
+    <row r="50" spans="1:17" ht="51">
       <c r="A50" s="3" t="s">
         <v>35</v>
       </c>
@@ -2156,7 +2162,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" ht="17">
       <c r="A52" s="3" t="s">
         <v>71</v>
       </c>
@@ -2179,7 +2185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="32">
+    <row r="53" spans="1:17" ht="34">
       <c r="A53" s="3" t="s">
         <v>72</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="32">
+    <row r="54" spans="1:17" ht="34">
       <c r="A54" s="3" t="s">
         <v>65</v>
       </c>
@@ -2282,7 +2288,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="16" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -2331,7 +2337,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:17" ht="48">
+    <row r="61" spans="1:17" ht="51">
       <c r="A61" s="12" t="s">
         <v>47</v>
       </c>
@@ -2360,7 +2366,7 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
-    <row r="62" spans="1:17" ht="48">
+    <row r="62" spans="1:17" ht="51">
       <c r="A62" s="3" t="s">
         <v>35</v>
       </c>
@@ -2376,7 +2382,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:17" ht="32">
+    <row r="63" spans="1:17" ht="34">
       <c r="A63" s="3" t="s">
         <v>37</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="64">
+    <row r="64" spans="1:17" ht="68">
       <c r="A64" s="3" t="s">
         <v>25</v>
       </c>
@@ -2501,7 +2507,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:17" ht="48">
+    <row r="71" spans="1:17" ht="51">
       <c r="A71" s="3" t="s">
         <v>35</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32">
+    <row r="9" spans="1:4" ht="34">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="48">
+    <row r="10" spans="1:4" ht="51">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="48">
+    <row r="14" spans="1:4" ht="51">
       <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32">
+    <row r="15" spans="1:4" ht="34">
       <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="32">
+    <row r="16" spans="1:4" ht="34">
       <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
